--- a/output/Vanuatu_formatted.xlsx
+++ b/output/Vanuatu_formatted.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="211">
   <si>
     <t xml:space="preserve">Country Code</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t xml:space="preserve">Additional source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">potential_duplication</t>
   </si>
   <si>
     <t xml:space="preserve">VUT</t>
@@ -1059,22 +1062,25 @@
       <c r="Z1" t="s">
         <v>25</v>
       </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F2"/>
       <c r="G2" s="1" t="n">
@@ -1084,10 +1090,10 @@
         <v>42268</v>
       </c>
       <c r="I2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K2" t="n">
         <v>1</v>
@@ -1129,22 +1135,25 @@
       <c r="X2"/>
       <c r="Y2"/>
       <c r="Z2"/>
+      <c r="AA2" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F3"/>
       <c r="G3" s="1" t="n">
@@ -1154,10 +1163,10 @@
         <v>42088</v>
       </c>
       <c r="I3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K3" t="n">
         <v>0.05</v>
@@ -1199,22 +1208,25 @@
       <c r="X3"/>
       <c r="Y3"/>
       <c r="Z3"/>
+      <c r="AA3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F4"/>
       <c r="G4" s="1" t="n">
@@ -1224,10 +1236,10 @@
         <v>42088</v>
       </c>
       <c r="I4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K4" t="n">
         <v>0.3</v>
@@ -1269,22 +1281,25 @@
       <c r="X4"/>
       <c r="Y4"/>
       <c r="Z4"/>
+      <c r="AA4" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F5"/>
       <c r="G5" s="1" t="n">
@@ -1294,10 +1309,10 @@
         <v>42115</v>
       </c>
       <c r="I5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K5" t="n">
         <v>0.0066</v>
@@ -1339,22 +1354,25 @@
       <c r="X5"/>
       <c r="Y5"/>
       <c r="Z5"/>
+      <c r="AA5" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F6"/>
       <c r="G6" s="1" t="n">
@@ -1364,10 +1382,10 @@
         <v>42115</v>
       </c>
       <c r="I6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K6" t="n">
         <v>0.28</v>
@@ -1409,22 +1427,25 @@
       <c r="X6"/>
       <c r="Y6"/>
       <c r="Z6"/>
+      <c r="AA6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F7"/>
       <c r="G7" s="1" t="n">
@@ -1434,10 +1455,10 @@
         <v>42115</v>
       </c>
       <c r="I7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K7" t="n">
         <v>0.05</v>
@@ -1479,22 +1500,25 @@
       <c r="X7"/>
       <c r="Y7"/>
       <c r="Z7"/>
+      <c r="AA7" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F8"/>
       <c r="G8" s="1" t="n">
@@ -1504,10 +1528,10 @@
         <v>42115</v>
       </c>
       <c r="I8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K8" t="n">
         <v>0.2</v>
@@ -1549,22 +1573,25 @@
       <c r="X8"/>
       <c r="Y8"/>
       <c r="Z8"/>
+      <c r="AA8" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F9"/>
       <c r="G9" s="1" t="n">
@@ -1574,10 +1601,10 @@
         <v>42080</v>
       </c>
       <c r="I9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K9" t="n">
         <v>20</v>
@@ -1619,22 +1646,25 @@
       <c r="X9"/>
       <c r="Y9"/>
       <c r="Z9"/>
+      <c r="AA9" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F10"/>
       <c r="G10" s="1" t="n">
@@ -1644,10 +1674,10 @@
         <v>42115</v>
       </c>
       <c r="I10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K10" t="n">
         <v>0.653</v>
@@ -1689,22 +1719,25 @@
       <c r="X10"/>
       <c r="Y10"/>
       <c r="Z10"/>
+      <c r="AA10" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F11"/>
       <c r="G11" s="1" t="n">
@@ -1714,10 +1747,10 @@
         <v>42115</v>
       </c>
       <c r="I11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K11" t="n">
         <v>0.122</v>
@@ -1759,22 +1792,25 @@
       <c r="X11"/>
       <c r="Y11"/>
       <c r="Z11"/>
+      <c r="AA11" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F12"/>
       <c r="G12" s="1" t="n">
@@ -1784,10 +1820,10 @@
         <v>42115</v>
       </c>
       <c r="I12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K12" t="n">
         <v>1</v>
@@ -1829,22 +1865,25 @@
       <c r="X12"/>
       <c r="Y12"/>
       <c r="Z12"/>
+      <c r="AA12" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F13"/>
       <c r="G13" s="1" t="n">
@@ -1854,10 +1893,10 @@
         <v>42209</v>
       </c>
       <c r="I13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K13"/>
       <c r="L13"/>
@@ -1895,22 +1934,25 @@
       <c r="X13"/>
       <c r="Y13"/>
       <c r="Z13"/>
+      <c r="AA13" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F14"/>
       <c r="G14" s="1" t="n">
@@ -1920,10 +1962,10 @@
         <v>42083</v>
       </c>
       <c r="I14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K14" t="n">
         <v>0.16</v>
@@ -1965,22 +2007,25 @@
       <c r="X14"/>
       <c r="Y14"/>
       <c r="Z14"/>
+      <c r="AA14" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F15"/>
       <c r="G15" s="1" t="n">
@@ -1990,10 +2035,10 @@
         <v>42088</v>
       </c>
       <c r="I15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K15" t="n">
         <v>0.05</v>
@@ -2035,22 +2080,25 @@
       <c r="X15"/>
       <c r="Y15"/>
       <c r="Z15"/>
+      <c r="AA15" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F16"/>
       <c r="G16" s="1" t="n">
@@ -2060,10 +2108,10 @@
         <v>42359</v>
       </c>
       <c r="I16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K16" t="n">
         <v>0.2884</v>
@@ -2105,22 +2153,25 @@
       <c r="X16"/>
       <c r="Y16"/>
       <c r="Z16"/>
+      <c r="AA16" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F17"/>
       <c r="G17" s="1" t="n">
@@ -2130,10 +2181,10 @@
         <v>42131</v>
       </c>
       <c r="I17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K17"/>
       <c r="L17"/>
@@ -2171,22 +2222,25 @@
       <c r="X17"/>
       <c r="Y17"/>
       <c r="Z17"/>
+      <c r="AA17" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F18"/>
       <c r="G18" s="1" t="n">
@@ -2196,10 +2250,10 @@
         <v>42090</v>
       </c>
       <c r="I18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K18" t="n">
         <v>0.3</v>
@@ -2241,22 +2295,25 @@
       <c r="X18"/>
       <c r="Y18"/>
       <c r="Z18"/>
+      <c r="AA18" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E19" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F19"/>
       <c r="G19" s="1" t="n">
@@ -2266,10 +2323,10 @@
         <v>42082</v>
       </c>
       <c r="I19" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K19" t="n">
         <v>0.5</v>
@@ -2311,22 +2368,25 @@
       <c r="X19"/>
       <c r="Y19"/>
       <c r="Z19"/>
+      <c r="AA19" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F20"/>
       <c r="G20" s="1" t="n">
@@ -2336,10 +2396,10 @@
         <v>42226</v>
       </c>
       <c r="I20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K20"/>
       <c r="L20"/>
@@ -2377,22 +2437,25 @@
       <c r="X20"/>
       <c r="Y20"/>
       <c r="Z20"/>
+      <c r="AA20" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F21"/>
       <c r="G21" s="1" t="n">
@@ -2402,10 +2465,10 @@
         <v>42088</v>
       </c>
       <c r="I21" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K21" t="n">
         <v>0.15</v>
@@ -2447,22 +2510,25 @@
       <c r="X21"/>
       <c r="Y21"/>
       <c r="Z21"/>
+      <c r="AA21" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F22"/>
       <c r="G22" s="1" t="n">
@@ -2472,10 +2538,10 @@
         <v>42088</v>
       </c>
       <c r="I22" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K22"/>
       <c r="L22"/>
@@ -2513,22 +2579,25 @@
       <c r="X22"/>
       <c r="Y22"/>
       <c r="Z22"/>
+      <c r="AA22" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F23"/>
       <c r="G23" s="1" t="n">
@@ -2538,10 +2607,10 @@
         <v>42088</v>
       </c>
       <c r="I23" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K23"/>
       <c r="L23"/>
@@ -2579,22 +2648,25 @@
       <c r="X23"/>
       <c r="Y23"/>
       <c r="Z23"/>
+      <c r="AA23" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F24"/>
       <c r="G24" s="1" t="n">
@@ -2604,10 +2676,10 @@
         <v>42355</v>
       </c>
       <c r="I24" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J24" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K24" t="n">
         <v>0.05</v>
@@ -2649,22 +2721,25 @@
       <c r="X24"/>
       <c r="Y24"/>
       <c r="Z24"/>
+      <c r="AA24" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E25" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F25"/>
       <c r="G25" s="1" t="n">
@@ -2674,10 +2749,10 @@
         <v>42082</v>
       </c>
       <c r="I25" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K25"/>
       <c r="L25"/>
@@ -2715,22 +2790,25 @@
       <c r="X25"/>
       <c r="Y25"/>
       <c r="Z25"/>
+      <c r="AA25" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F26"/>
       <c r="G26" s="1" t="n">
@@ -2740,10 +2818,10 @@
         <v>42082</v>
       </c>
       <c r="I26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K26"/>
       <c r="L26"/>
@@ -2781,22 +2859,25 @@
       <c r="X26"/>
       <c r="Y26"/>
       <c r="Z26"/>
+      <c r="AA26" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E27" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F27"/>
       <c r="G27" s="1" t="n">
@@ -2806,10 +2887,10 @@
         <v>42082</v>
       </c>
       <c r="I27" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K27" t="n">
         <v>1.1</v>
@@ -2851,22 +2932,25 @@
       <c r="X27"/>
       <c r="Y27"/>
       <c r="Z27"/>
+      <c r="AA27" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F28"/>
       <c r="G28" s="1" t="n">
@@ -2876,10 +2960,10 @@
         <v>43060</v>
       </c>
       <c r="I28" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J28" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K28" t="n">
         <v>0.13</v>
@@ -2921,22 +3005,25 @@
       <c r="X28"/>
       <c r="Y28"/>
       <c r="Z28"/>
+      <c r="AA28" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E29" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F29"/>
       <c r="G29" s="1" t="n">
@@ -2946,10 +3033,10 @@
         <v>42088</v>
       </c>
       <c r="I29" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K29"/>
       <c r="L29"/>
@@ -2987,22 +3074,25 @@
       <c r="X29"/>
       <c r="Y29"/>
       <c r="Z29"/>
+      <c r="AA29" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E30" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F30"/>
       <c r="G30" s="1" t="n">
@@ -3012,10 +3102,10 @@
         <v>42088</v>
       </c>
       <c r="I30" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J30" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K30" t="n">
         <v>1.5</v>
@@ -3057,22 +3147,25 @@
       <c r="X30"/>
       <c r="Y30"/>
       <c r="Z30"/>
+      <c r="AA30" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C31" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D31" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F31"/>
       <c r="G31" s="1" t="n">
@@ -3082,10 +3175,10 @@
         <v>42083</v>
       </c>
       <c r="I31" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K31"/>
       <c r="L31"/>
@@ -3123,22 +3216,25 @@
       <c r="X31"/>
       <c r="Y31"/>
       <c r="Z31"/>
+      <c r="AA31" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C32" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D32" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F32"/>
       <c r="G32" s="1" t="n">
@@ -3148,10 +3244,10 @@
         <v>42088</v>
       </c>
       <c r="I32" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J32" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K32"/>
       <c r="L32"/>
@@ -3189,22 +3285,25 @@
       <c r="X32"/>
       <c r="Y32"/>
       <c r="Z32"/>
+      <c r="AA32" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C33" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D33" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E33" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F33"/>
       <c r="G33" s="1" t="n">
@@ -3214,10 +3313,10 @@
         <v>42088</v>
       </c>
       <c r="I33" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K33"/>
       <c r="L33"/>
@@ -3255,22 +3354,25 @@
       <c r="X33"/>
       <c r="Y33"/>
       <c r="Z33"/>
+      <c r="AA33" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C34" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D34" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E34" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F34"/>
       <c r="G34" s="1" t="n">
@@ -3280,10 +3382,10 @@
         <v>42250</v>
       </c>
       <c r="I34" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J34" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K34" t="n">
         <v>1.403751</v>
@@ -3325,22 +3427,25 @@
       <c r="X34"/>
       <c r="Y34"/>
       <c r="Z34"/>
+      <c r="AA34" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B35" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C35" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D35" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E35" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F35"/>
       <c r="G35" s="1" t="n">
@@ -3350,10 +3455,10 @@
         <v>42104</v>
       </c>
       <c r="I35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J35" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K35" t="n">
         <v>12.127</v>
@@ -3395,22 +3500,25 @@
       <c r="X35"/>
       <c r="Y35"/>
       <c r="Z35"/>
+      <c r="AA35" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B36" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C36" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D36" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E36" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F36"/>
       <c r="G36" s="1" t="n">
@@ -3420,10 +3528,10 @@
         <v>42088</v>
       </c>
       <c r="I36" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J36" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K36" t="n">
         <v>3</v>
@@ -3465,22 +3573,25 @@
       <c r="X36"/>
       <c r="Y36"/>
       <c r="Z36"/>
+      <c r="AA36" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B37" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C37" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D37" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E37" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F37"/>
       <c r="G37" s="1" t="n">
@@ -3490,10 +3601,10 @@
         <v>42087</v>
       </c>
       <c r="I37" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J37" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K37" t="n">
         <v>0.43059</v>
@@ -3535,22 +3646,25 @@
       <c r="X37"/>
       <c r="Y37"/>
       <c r="Z37"/>
+      <c r="AA37" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B38" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C38" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D38" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E38" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F38"/>
       <c r="G38" s="1" t="n">
@@ -3560,10 +3674,10 @@
         <v>42087</v>
       </c>
       <c r="I38" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J38" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K38" t="n">
         <v>1.08336</v>
@@ -3605,22 +3719,25 @@
       <c r="X38"/>
       <c r="Y38"/>
       <c r="Z38"/>
+      <c r="AA38" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B39" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C39" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D39" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E39" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F39"/>
       <c r="G39" s="1" t="n">
@@ -3630,10 +3747,10 @@
         <v>42093</v>
       </c>
       <c r="I39" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J39" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K39" t="n">
         <v>0.5</v>
@@ -3675,22 +3792,25 @@
       <c r="X39"/>
       <c r="Y39"/>
       <c r="Z39"/>
+      <c r="AA39" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B40" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C40" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D40" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E40" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F40"/>
       <c r="G40" s="1" t="n">
@@ -3700,10 +3820,10 @@
         <v>42144</v>
       </c>
       <c r="I40" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J40" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K40" t="n">
         <v>0.2</v>
@@ -3745,22 +3865,25 @@
       <c r="X40"/>
       <c r="Y40"/>
       <c r="Z40"/>
+      <c r="AA40" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B41" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C41" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D41" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E41" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F41"/>
       <c r="G41" s="1" t="n">
@@ -3770,10 +3893,10 @@
         <v>42115</v>
       </c>
       <c r="I41" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K41" t="n">
         <v>0.025</v>
@@ -3815,22 +3938,25 @@
       <c r="X41"/>
       <c r="Y41"/>
       <c r="Z41"/>
+      <c r="AA41" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C42" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D42" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E42" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F42"/>
       <c r="G42" s="1" t="n">
@@ -3840,10 +3966,10 @@
         <v>42815</v>
       </c>
       <c r="I42" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J42" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K42" t="n">
         <v>0.116763</v>
@@ -3885,22 +4011,25 @@
       <c r="X42"/>
       <c r="Y42"/>
       <c r="Z42"/>
+      <c r="AA42" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B43" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C43" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D43" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E43" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F43"/>
       <c r="G43" s="1" t="n">
@@ -3910,10 +4039,10 @@
         <v>42815</v>
       </c>
       <c r="I43" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J43" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K43" t="n">
         <v>0.171184</v>
@@ -3955,22 +4084,25 @@
       <c r="X43"/>
       <c r="Y43"/>
       <c r="Z43"/>
+      <c r="AA43" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B44" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C44" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D44" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E44" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F44"/>
       <c r="G44" s="1" t="n">
@@ -3980,10 +4112,10 @@
         <v>42086</v>
       </c>
       <c r="I44" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J44" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K44"/>
       <c r="L44"/>
@@ -4021,22 +4153,25 @@
       <c r="X44"/>
       <c r="Y44"/>
       <c r="Z44"/>
+      <c r="AA44" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B45" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C45" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D45" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E45" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F45"/>
       <c r="G45" s="1" t="n">
@@ -4046,10 +4181,10 @@
         <v>43060</v>
       </c>
       <c r="I45" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J45" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K45" t="n">
         <v>0.24</v>
@@ -4091,22 +4226,25 @@
       <c r="X45"/>
       <c r="Y45"/>
       <c r="Z45"/>
+      <c r="AA45" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B46" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C46" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D46" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E46" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F46"/>
       <c r="G46" s="1" t="n">
@@ -4116,10 +4254,10 @@
         <v>42088</v>
       </c>
       <c r="I46" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J46" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K46" t="n">
         <v>1.2</v>
@@ -4161,22 +4299,25 @@
       <c r="X46"/>
       <c r="Y46"/>
       <c r="Z46"/>
+      <c r="AA46" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B47" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C47" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D47" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E47" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F47"/>
       <c r="G47" s="1" t="n">
@@ -4186,10 +4327,10 @@
         <v>42086</v>
       </c>
       <c r="I47" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J47" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K47" t="n">
         <v>0.5</v>
@@ -4231,22 +4372,25 @@
       <c r="X47"/>
       <c r="Y47"/>
       <c r="Z47"/>
+      <c r="AA47" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B48" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C48" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D48" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E48" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F48"/>
       <c r="G48" s="1" t="n">
@@ -4256,10 +4400,10 @@
         <v>42114</v>
       </c>
       <c r="I48" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J48" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K48" t="n">
         <v>0.5</v>
@@ -4301,22 +4445,25 @@
       <c r="X48"/>
       <c r="Y48"/>
       <c r="Z48"/>
+      <c r="AA48" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B49" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C49" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D49" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E49" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F49"/>
       <c r="G49" s="1" t="n">
@@ -4326,10 +4473,10 @@
         <v>42088</v>
       </c>
       <c r="I49" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J49" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K49" t="n">
         <v>1</v>
@@ -4371,22 +4518,25 @@
       <c r="X49"/>
       <c r="Y49"/>
       <c r="Z49"/>
+      <c r="AA49" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B50" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C50" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D50" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E50" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F50"/>
       <c r="G50" s="1" t="n">
@@ -4396,10 +4546,10 @@
         <v>42088</v>
       </c>
       <c r="I50" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J50" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K50" t="n">
         <v>0.3</v>
@@ -4441,22 +4591,25 @@
       <c r="X50"/>
       <c r="Y50"/>
       <c r="Z50"/>
+      <c r="AA50" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B51" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C51" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D51" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E51" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F51"/>
       <c r="G51" s="1" t="n">
@@ -4466,10 +4619,10 @@
         <v>42088</v>
       </c>
       <c r="I51" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J51" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K51" t="n">
         <v>0.25</v>
@@ -4511,22 +4664,25 @@
       <c r="X51"/>
       <c r="Y51"/>
       <c r="Z51"/>
+      <c r="AA51" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B52" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C52" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D52" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E52" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F52"/>
       <c r="G52" s="1" t="n">
@@ -4536,10 +4692,10 @@
         <v>42088</v>
       </c>
       <c r="I52" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J52" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K52" t="n">
         <v>0.25</v>
@@ -4581,22 +4737,25 @@
       <c r="X52"/>
       <c r="Y52"/>
       <c r="Z52"/>
+      <c r="AA52" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B53" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C53" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D53" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E53" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F53"/>
       <c r="G53" s="1" t="n">
@@ -4606,10 +4765,10 @@
         <v>42104</v>
       </c>
       <c r="I53" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J53" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K53"/>
       <c r="L53"/>
@@ -4647,22 +4806,25 @@
       <c r="X53"/>
       <c r="Y53"/>
       <c r="Z53"/>
+      <c r="AA53" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B54" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C54" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D54" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E54" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F54"/>
       <c r="G54" s="1" t="n">
@@ -4672,10 +4834,10 @@
         <v>42144</v>
       </c>
       <c r="I54" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J54" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K54" t="n">
         <v>0.006249</v>
@@ -4717,22 +4879,25 @@
       <c r="X54"/>
       <c r="Y54"/>
       <c r="Z54"/>
+      <c r="AA54" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B55" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C55" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D55" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E55" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F55"/>
       <c r="G55" s="1" t="n">
@@ -4742,10 +4907,10 @@
         <v>42213</v>
       </c>
       <c r="I55" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J55" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K55" t="n">
         <v>0.7</v>
@@ -4787,22 +4952,25 @@
       <c r="X55"/>
       <c r="Y55"/>
       <c r="Z55"/>
+      <c r="AA55" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B56" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C56" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D56" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E56" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F56"/>
       <c r="G56" s="1" t="n">
@@ -4812,10 +4980,10 @@
         <v>42104</v>
       </c>
       <c r="I56" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J56" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K56"/>
       <c r="L56"/>
@@ -4853,22 +5021,25 @@
       <c r="X56"/>
       <c r="Y56"/>
       <c r="Z56"/>
+      <c r="AA56" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B57" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C57" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D57" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E57" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F57"/>
       <c r="G57" s="1" t="n">
@@ -4878,10 +5049,10 @@
         <v>42094</v>
       </c>
       <c r="I57" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J57" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K57"/>
       <c r="L57"/>
@@ -4919,22 +5090,25 @@
       <c r="X57"/>
       <c r="Y57"/>
       <c r="Z57"/>
+      <c r="AA57" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B58" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C58" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D58" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E58" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F58"/>
       <c r="G58" s="1" t="n">
@@ -4944,10 +5118,10 @@
         <v>42104</v>
       </c>
       <c r="I58" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J58" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K58"/>
       <c r="L58"/>
@@ -4985,22 +5159,25 @@
       <c r="X58"/>
       <c r="Y58"/>
       <c r="Z58"/>
+      <c r="AA58" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B59" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C59" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D59" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E59" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F59"/>
       <c r="G59" s="1" t="n">
@@ -5010,10 +5187,10 @@
         <v>43060</v>
       </c>
       <c r="I59" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J59" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K59"/>
       <c r="L59"/>
@@ -5051,22 +5228,25 @@
       <c r="X59"/>
       <c r="Y59"/>
       <c r="Z59"/>
+      <c r="AA59" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B60" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C60" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D60" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E60" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F60"/>
       <c r="G60" s="1" t="n">
@@ -5076,10 +5256,10 @@
         <v>42089</v>
       </c>
       <c r="I60" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J60" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K60"/>
       <c r="L60"/>
@@ -5117,22 +5297,25 @@
       <c r="X60"/>
       <c r="Y60"/>
       <c r="Z60"/>
+      <c r="AA60" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B61" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C61" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D61" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E61" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F61"/>
       <c r="G61" s="1" t="n">
@@ -5142,10 +5325,10 @@
         <v>42094</v>
       </c>
       <c r="I61" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J61" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K61" t="n">
         <v>0.05</v>
@@ -5187,22 +5370,25 @@
       <c r="X61"/>
       <c r="Y61"/>
       <c r="Z61"/>
+      <c r="AA61" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B62" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C62" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D62" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E62" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F62"/>
       <c r="G62" s="1" t="n">
@@ -5212,10 +5398,10 @@
         <v>43060</v>
       </c>
       <c r="I62" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="J62" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K62" t="n">
         <v>0.097</v>
@@ -5257,22 +5443,25 @@
       <c r="X62"/>
       <c r="Y62"/>
       <c r="Z62"/>
+      <c r="AA62" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B63" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C63" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D63" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E63" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F63"/>
       <c r="G63" s="1" t="n">
@@ -5282,10 +5471,10 @@
         <v>42104</v>
       </c>
       <c r="I63" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J63" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K63" t="n">
         <v>0.06</v>
@@ -5327,22 +5516,25 @@
       <c r="X63"/>
       <c r="Y63"/>
       <c r="Z63"/>
+      <c r="AA63" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B64" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C64" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D64" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E64" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F64"/>
       <c r="G64" s="1" t="n">
@@ -5352,10 +5544,10 @@
         <v>42114</v>
       </c>
       <c r="I64" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J64" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K64" t="n">
         <v>0.5</v>
@@ -5397,22 +5589,25 @@
       <c r="X64"/>
       <c r="Y64"/>
       <c r="Z64"/>
+      <c r="AA64" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B65" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C65" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D65" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E65" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F65"/>
       <c r="G65" s="1" t="n">
@@ -5422,10 +5617,10 @@
         <v>42144</v>
       </c>
       <c r="I65" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J65" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K65" t="n">
         <v>2.1</v>
@@ -5467,22 +5662,25 @@
       <c r="X65"/>
       <c r="Y65"/>
       <c r="Z65"/>
+      <c r="AA65" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B66" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C66" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D66" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E66" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F66"/>
       <c r="G66" s="1" t="n">
@@ -5492,10 +5690,10 @@
         <v>42104</v>
       </c>
       <c r="I66" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J66" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K66" t="n">
         <v>0.025</v>
@@ -5537,22 +5735,25 @@
       <c r="X66"/>
       <c r="Y66"/>
       <c r="Z66"/>
+      <c r="AA66" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B67" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C67" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D67" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E67" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F67"/>
       <c r="G67" s="1" t="n">
@@ -5562,10 +5763,10 @@
         <v>42228</v>
       </c>
       <c r="I67" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J67" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K67" t="n">
         <v>2.349884</v>
@@ -5607,22 +5808,25 @@
       <c r="X67"/>
       <c r="Y67"/>
       <c r="Z67"/>
+      <c r="AA67" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B68" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C68" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D68" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E68" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F68"/>
       <c r="G68" s="1" t="n">
@@ -5632,10 +5836,10 @@
         <v>42144</v>
       </c>
       <c r="I68" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J68" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K68"/>
       <c r="L68"/>
@@ -5673,22 +5877,25 @@
       <c r="X68"/>
       <c r="Y68"/>
       <c r="Z68"/>
+      <c r="AA68" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B69" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C69" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D69" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E69" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F69"/>
       <c r="G69" s="1" t="n">
@@ -5698,10 +5905,10 @@
         <v>42115</v>
       </c>
       <c r="I69" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J69" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K69"/>
       <c r="L69"/>
@@ -5739,22 +5946,25 @@
       <c r="X69"/>
       <c r="Y69"/>
       <c r="Z69"/>
+      <c r="AA69" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B70" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C70" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D70" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E70" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F70"/>
       <c r="G70" s="1" t="n">
@@ -5764,10 +5974,10 @@
         <v>42115</v>
       </c>
       <c r="I70" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J70" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K70"/>
       <c r="L70"/>
@@ -5805,22 +6015,25 @@
       <c r="X70"/>
       <c r="Y70"/>
       <c r="Z70"/>
+      <c r="AA70" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B71" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C71" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D71" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E71" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F71"/>
       <c r="G71" s="1" t="n">
@@ -5830,10 +6043,10 @@
         <v>42094</v>
       </c>
       <c r="I71" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J71" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K71"/>
       <c r="L71"/>
@@ -5871,22 +6084,25 @@
       <c r="X71"/>
       <c r="Y71"/>
       <c r="Z71"/>
+      <c r="AA71" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B72" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C72" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D72" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E72" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F72"/>
       <c r="G72" s="1" t="n">
@@ -5896,10 +6112,10 @@
         <v>42982</v>
       </c>
       <c r="I72" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J72" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K72"/>
       <c r="L72"/>
@@ -5937,22 +6153,25 @@
       <c r="X72"/>
       <c r="Y72"/>
       <c r="Z72"/>
+      <c r="AA72" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B73" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C73" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D73" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E73" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F73"/>
       <c r="G73" s="1" t="n">
@@ -5962,10 +6181,10 @@
         <v>42094</v>
       </c>
       <c r="I73" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J73" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K73"/>
       <c r="L73"/>
@@ -6003,22 +6222,25 @@
       <c r="X73"/>
       <c r="Y73"/>
       <c r="Z73"/>
+      <c r="AA73" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B74" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C74" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D74" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E74" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F74"/>
       <c r="G74" s="1" t="n">
@@ -6028,10 +6250,10 @@
         <v>42115</v>
       </c>
       <c r="I74" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J74" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K74"/>
       <c r="L74"/>
@@ -6069,22 +6291,25 @@
       <c r="X74"/>
       <c r="Y74"/>
       <c r="Z74"/>
+      <c r="AA74" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B75" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C75" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D75" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E75" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F75"/>
       <c r="G75" s="1" t="n">
@@ -6094,10 +6319,10 @@
         <v>43060</v>
       </c>
       <c r="I75" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J75" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K75"/>
       <c r="L75"/>
@@ -6135,22 +6360,25 @@
       <c r="X75"/>
       <c r="Y75"/>
       <c r="Z75"/>
+      <c r="AA75" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B76" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C76" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D76" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E76" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F76"/>
       <c r="G76" s="1" t="n">
@@ -6160,10 +6388,10 @@
         <v>42093</v>
       </c>
       <c r="I76" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J76" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K76"/>
       <c r="L76"/>
@@ -6201,22 +6429,25 @@
       <c r="X76"/>
       <c r="Y76"/>
       <c r="Z76"/>
+      <c r="AA76" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B77" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C77" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D77" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E77" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F77"/>
       <c r="G77" s="1" t="n">
@@ -6226,10 +6457,10 @@
         <v>42104</v>
       </c>
       <c r="I77" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J77" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K77" t="n">
         <v>2</v>
@@ -6271,22 +6502,25 @@
       <c r="X77"/>
       <c r="Y77"/>
       <c r="Z77"/>
+      <c r="AA77" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B78" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C78" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D78" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F78"/>
       <c r="G78" s="1" t="n">
@@ -6296,10 +6530,10 @@
         <v>42124</v>
       </c>
       <c r="I78" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J78" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K78"/>
       <c r="L78"/>
@@ -6337,22 +6571,25 @@
       <c r="X78"/>
       <c r="Y78"/>
       <c r="Z78"/>
+      <c r="AA78" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B79" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C79" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D79" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F79"/>
       <c r="G79" s="1" t="n">
@@ -6362,10 +6599,10 @@
         <v>42124</v>
       </c>
       <c r="I79" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J79" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K79"/>
       <c r="L79"/>
@@ -6403,22 +6640,25 @@
       <c r="X79"/>
       <c r="Y79"/>
       <c r="Z79"/>
+      <c r="AA79" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B80" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C80" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D80" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F80"/>
       <c r="G80" s="1" t="n">
@@ -6428,10 +6668,10 @@
         <v>42124</v>
       </c>
       <c r="I80" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J80" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K80"/>
       <c r="L80"/>
@@ -6469,22 +6709,25 @@
       <c r="X80"/>
       <c r="Y80"/>
       <c r="Z80"/>
+      <c r="AA80" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B81" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C81" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D81" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E81" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F81"/>
       <c r="G81" s="1" t="n">
@@ -6494,10 +6737,10 @@
         <v>42144</v>
       </c>
       <c r="I81" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J81" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K81" t="n">
         <v>0.029</v>
@@ -6539,22 +6782,25 @@
       <c r="X81"/>
       <c r="Y81"/>
       <c r="Z81"/>
+      <c r="AA81" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B82" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C82" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D82" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E82" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F82"/>
       <c r="G82" s="1" t="n">
@@ -6564,10 +6810,10 @@
         <v>42157</v>
       </c>
       <c r="I82" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J82" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K82"/>
       <c r="L82"/>
@@ -6605,22 +6851,25 @@
       <c r="X82"/>
       <c r="Y82"/>
       <c r="Z82"/>
+      <c r="AA82" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B83" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C83" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D83" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E83" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F83"/>
       <c r="G83" s="1" t="n">
@@ -6630,10 +6879,10 @@
         <v>42157</v>
       </c>
       <c r="I83" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="J83" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K83"/>
       <c r="L83"/>
@@ -6671,22 +6920,25 @@
       <c r="X83"/>
       <c r="Y83"/>
       <c r="Z83"/>
+      <c r="AA83" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B84" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C84" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D84" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E84" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F84"/>
       <c r="G84" s="1" t="n">
@@ -6696,10 +6948,10 @@
         <v>42250</v>
       </c>
       <c r="I84" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J84" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K84" t="n">
         <v>0.5</v>
@@ -6741,22 +6993,25 @@
       <c r="X84"/>
       <c r="Y84"/>
       <c r="Z84"/>
+      <c r="AA84" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B85" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C85" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D85" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E85" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F85"/>
       <c r="G85" s="1" t="n">
@@ -6766,10 +7021,10 @@
         <v>43060</v>
       </c>
       <c r="I85" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J85" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K85"/>
       <c r="L85"/>
@@ -6807,22 +7062,25 @@
       <c r="X85"/>
       <c r="Y85"/>
       <c r="Z85"/>
+      <c r="AA85" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B86" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C86" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D86" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E86" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F86"/>
       <c r="G86" s="1" t="n">
@@ -6832,10 +7090,10 @@
         <v>42263</v>
       </c>
       <c r="I86" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J86" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K86"/>
       <c r="L86"/>
@@ -6873,22 +7131,25 @@
       <c r="X86"/>
       <c r="Y86"/>
       <c r="Z86"/>
+      <c r="AA86" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B87" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C87" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D87" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E87" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F87"/>
       <c r="G87" s="1" t="n">
@@ -6898,10 +7159,10 @@
         <v>43060</v>
       </c>
       <c r="I87" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J87" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K87" t="n">
         <v>1.62</v>
@@ -6943,22 +7204,25 @@
       <c r="X87"/>
       <c r="Y87"/>
       <c r="Z87"/>
+      <c r="AA87" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B88" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C88" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D88" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E88" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F88"/>
       <c r="G88" s="1" t="n">
@@ -6968,10 +7232,10 @@
         <v>42104</v>
       </c>
       <c r="I88" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J88" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K88" t="n">
         <v>1.27176</v>
@@ -7013,22 +7277,25 @@
       <c r="X88"/>
       <c r="Y88"/>
       <c r="Z88"/>
+      <c r="AA88" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B89" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C89" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D89" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F89"/>
       <c r="G89" s="1" t="n">
@@ -7038,10 +7305,10 @@
         <v>42124</v>
       </c>
       <c r="I89" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J89" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K89"/>
       <c r="L89"/>
@@ -7079,22 +7346,25 @@
       <c r="X89"/>
       <c r="Y89"/>
       <c r="Z89"/>
+      <c r="AA89" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B90" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C90" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D90" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E90" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F90"/>
       <c r="G90" s="1" t="n">
@@ -7104,10 +7374,10 @@
         <v>42156</v>
       </c>
       <c r="I90" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="J90" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K90" t="n">
         <v>0.05</v>
@@ -7149,22 +7419,25 @@
       <c r="X90"/>
       <c r="Y90"/>
       <c r="Z90"/>
+      <c r="AA90" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B91" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C91" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D91" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E91" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F91"/>
       <c r="G91" s="1" t="n">
@@ -7174,10 +7447,10 @@
         <v>43060</v>
       </c>
       <c r="I91" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J91" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K91"/>
       <c r="L91"/>
@@ -7215,22 +7488,25 @@
       <c r="X91"/>
       <c r="Y91"/>
       <c r="Z91"/>
+      <c r="AA91" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B92" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C92" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D92" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E92" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F92"/>
       <c r="G92" s="1" t="n">
@@ -7240,10 +7516,10 @@
         <v>43060</v>
       </c>
       <c r="I92" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J92" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K92"/>
       <c r="L92"/>
@@ -7281,22 +7557,25 @@
       <c r="X92"/>
       <c r="Y92"/>
       <c r="Z92"/>
+      <c r="AA92" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C93" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D93" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E93" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F93"/>
       <c r="G93" s="1" t="n">
@@ -7306,10 +7585,10 @@
         <v>42263</v>
       </c>
       <c r="I93" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="J93" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K93"/>
       <c r="L93"/>
@@ -7347,22 +7626,25 @@
       <c r="X93"/>
       <c r="Y93"/>
       <c r="Z93"/>
+      <c r="AA93" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B94" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C94" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D94" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E94" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F94"/>
       <c r="G94" s="1" t="n">
@@ -7372,10 +7654,10 @@
         <v>42263</v>
       </c>
       <c r="I94" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J94" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K94"/>
       <c r="L94"/>
@@ -7413,22 +7695,25 @@
       <c r="X94"/>
       <c r="Y94"/>
       <c r="Z94"/>
+      <c r="AA94" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B95" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C95" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D95" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E95" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F95"/>
       <c r="G95" s="1" t="n">
@@ -7438,10 +7723,10 @@
         <v>42263</v>
       </c>
       <c r="I95" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J95" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K95"/>
       <c r="L95"/>
@@ -7479,22 +7764,25 @@
       <c r="X95"/>
       <c r="Y95"/>
       <c r="Z95"/>
+      <c r="AA95" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B96" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C96" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D96" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E96" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F96"/>
       <c r="G96" s="1" t="n">
@@ -7504,10 +7792,10 @@
         <v>43060</v>
       </c>
       <c r="I96" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J96" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K96"/>
       <c r="L96"/>
@@ -7545,22 +7833,25 @@
       <c r="X96"/>
       <c r="Y96"/>
       <c r="Z96"/>
+      <c r="AA96" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B97" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C97" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D97" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E97" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F97"/>
       <c r="G97" s="1" t="n">
@@ -7570,10 +7861,10 @@
         <v>42263</v>
       </c>
       <c r="I97" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="J97" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K97"/>
       <c r="L97"/>
@@ -7611,22 +7902,25 @@
       <c r="X97"/>
       <c r="Y97"/>
       <c r="Z97"/>
+      <c r="AA97" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B98" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C98" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D98" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E98" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F98"/>
       <c r="G98" s="1" t="n">
@@ -7636,10 +7930,10 @@
         <v>42110</v>
       </c>
       <c r="I98" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J98" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K98" t="n">
         <v>0.4995</v>
@@ -7681,22 +7975,25 @@
       <c r="X98"/>
       <c r="Y98"/>
       <c r="Z98"/>
+      <c r="AA98" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B99" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C99" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D99" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E99" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F99"/>
       <c r="G99" s="1" t="n">
@@ -7706,10 +8003,10 @@
         <v>42110</v>
       </c>
       <c r="I99" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J99" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K99"/>
       <c r="L99"/>
@@ -7747,22 +8044,25 @@
       <c r="X99"/>
       <c r="Y99"/>
       <c r="Z99"/>
+      <c r="AA99" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B100" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C100" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D100" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E100" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F100"/>
       <c r="G100" s="1" t="n">
@@ -7772,10 +8072,10 @@
         <v>42110</v>
       </c>
       <c r="I100" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J100" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K100"/>
       <c r="L100"/>
@@ -7813,22 +8113,25 @@
       <c r="X100"/>
       <c r="Y100"/>
       <c r="Z100"/>
+      <c r="AA100" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B101" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C101" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D101" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E101" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F101"/>
       <c r="G101" s="1" t="n">
@@ -7838,10 +8141,10 @@
         <v>42110</v>
       </c>
       <c r="I101" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J101" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K101" t="n">
         <v>0.135</v>
@@ -7883,22 +8186,25 @@
       <c r="X101"/>
       <c r="Y101"/>
       <c r="Z101"/>
+      <c r="AA101" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B102" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C102" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D102" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E102" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F102"/>
       <c r="G102" s="1" t="n">
@@ -7908,10 +8214,10 @@
         <v>43056</v>
       </c>
       <c r="I102" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J102" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K102" t="n">
         <v>0.01</v>
@@ -7953,22 +8259,25 @@
       <c r="X102"/>
       <c r="Y102"/>
       <c r="Z102"/>
+      <c r="AA102" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B103" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C103" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D103" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E103" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F103"/>
       <c r="G103" s="1" t="n">
@@ -7978,10 +8287,10 @@
         <v>42115</v>
       </c>
       <c r="I103" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J103" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K103"/>
       <c r="L103"/>
@@ -8019,22 +8328,25 @@
       <c r="X103"/>
       <c r="Y103"/>
       <c r="Z103"/>
+      <c r="AA103" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B104" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C104" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D104" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E104" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F104"/>
       <c r="G104" s="1" t="n">
@@ -8044,10 +8356,10 @@
         <v>42114</v>
       </c>
       <c r="I104" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J104" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K104"/>
       <c r="L104"/>
@@ -8085,22 +8397,25 @@
       <c r="X104"/>
       <c r="Y104"/>
       <c r="Z104"/>
+      <c r="AA104" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B105" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C105" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D105" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E105" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F105"/>
       <c r="G105" s="1" t="n">
@@ -8110,10 +8425,10 @@
         <v>43060</v>
       </c>
       <c r="I105" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J105" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K105"/>
       <c r="L105"/>
@@ -8151,22 +8466,25 @@
       <c r="X105"/>
       <c r="Y105"/>
       <c r="Z105"/>
+      <c r="AA105" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B106" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C106" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D106" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E106" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F106"/>
       <c r="G106" s="1" t="n">
@@ -8176,10 +8494,10 @@
         <v>42115</v>
       </c>
       <c r="I106" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J106" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K106"/>
       <c r="L106"/>
@@ -8217,22 +8535,25 @@
       <c r="X106"/>
       <c r="Y106"/>
       <c r="Z106"/>
+      <c r="AA106" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B107" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C107" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D107" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E107" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F107"/>
       <c r="G107" s="1" t="n">
@@ -8242,10 +8563,10 @@
         <v>42115</v>
       </c>
       <c r="I107" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J107" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K107"/>
       <c r="L107"/>
@@ -8283,22 +8604,25 @@
       <c r="X107"/>
       <c r="Y107"/>
       <c r="Z107"/>
+      <c r="AA107" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B108" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C108" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D108" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E108" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F108"/>
       <c r="G108" s="1" t="n">
@@ -8308,10 +8632,10 @@
         <v>42115</v>
       </c>
       <c r="I108" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J108" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K108"/>
       <c r="L108"/>
@@ -8349,22 +8673,25 @@
       <c r="X108"/>
       <c r="Y108"/>
       <c r="Z108"/>
+      <c r="AA108" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B109" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C109" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D109" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E109" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F109"/>
       <c r="G109" s="1" t="n">
@@ -8374,10 +8701,10 @@
         <v>43060</v>
       </c>
       <c r="I109" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J109" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K109"/>
       <c r="L109"/>
@@ -8415,22 +8742,25 @@
       <c r="X109"/>
       <c r="Y109"/>
       <c r="Z109"/>
+      <c r="AA109" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B110" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C110" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D110" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E110" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F110"/>
       <c r="G110" s="1" t="n">
@@ -8440,10 +8770,10 @@
         <v>42115</v>
       </c>
       <c r="I110" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J110" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K110"/>
       <c r="L110"/>
@@ -8481,22 +8811,25 @@
       <c r="X110"/>
       <c r="Y110"/>
       <c r="Z110"/>
+      <c r="AA110" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B111" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C111" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D111" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E111" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F111"/>
       <c r="G111" s="1" t="n">
@@ -8506,10 +8839,10 @@
         <v>42123</v>
       </c>
       <c r="I111" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J111" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K111" t="n">
         <v>1.62417</v>
@@ -8551,22 +8884,25 @@
       <c r="X111"/>
       <c r="Y111"/>
       <c r="Z111"/>
+      <c r="AA111" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B112" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C112" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D112" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E112" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F112"/>
       <c r="G112" s="1" t="n">
@@ -8576,10 +8912,10 @@
         <v>42123</v>
       </c>
       <c r="I112" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J112" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K112" t="n">
         <v>0.52416</v>
@@ -8621,22 +8957,25 @@
       <c r="X112"/>
       <c r="Y112"/>
       <c r="Z112"/>
+      <c r="AA112" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B113" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C113" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D113" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E113" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F113"/>
       <c r="G113" s="1" t="n">
@@ -8646,10 +8985,10 @@
         <v>42144</v>
       </c>
       <c r="I113" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="J113" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K113" t="n">
         <v>0.05</v>
@@ -8691,22 +9030,25 @@
       <c r="X113"/>
       <c r="Y113"/>
       <c r="Z113"/>
+      <c r="AA113" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B114" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C114" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D114" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E114" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F114"/>
       <c r="G114" s="1" t="n">
@@ -8716,10 +9058,10 @@
         <v>42199</v>
       </c>
       <c r="I114" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="J114" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K114" t="n">
         <v>0.238238</v>
@@ -8761,22 +9103,25 @@
       <c r="X114"/>
       <c r="Y114"/>
       <c r="Z114"/>
+      <c r="AA114" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B115" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C115" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D115" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E115" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F115"/>
       <c r="G115" s="1" t="n">
@@ -8786,10 +9131,10 @@
         <v>42440</v>
       </c>
       <c r="I115" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="J115" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K115" t="n">
         <v>0.04</v>
@@ -8831,22 +9176,25 @@
       <c r="X115"/>
       <c r="Y115"/>
       <c r="Z115"/>
+      <c r="AA115" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B116" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C116" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D116" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E116" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F116"/>
       <c r="G116" s="1" t="n">
@@ -8856,10 +9204,10 @@
         <v>42124</v>
       </c>
       <c r="I116" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J116" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K116"/>
       <c r="L116"/>
@@ -8897,22 +9245,25 @@
       <c r="X116"/>
       <c r="Y116"/>
       <c r="Z116"/>
+      <c r="AA116" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B117" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C117" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D117" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E117" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F117"/>
       <c r="G117" s="1" t="n">
@@ -8922,10 +9273,10 @@
         <v>42125</v>
       </c>
       <c r="I117" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J117" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K117" t="n">
         <v>0.2</v>
@@ -8967,22 +9318,25 @@
       <c r="X117"/>
       <c r="Y117"/>
       <c r="Z117"/>
+      <c r="AA117" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B118" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C118" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D118" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E118" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F118"/>
       <c r="G118" s="1" t="n">
@@ -8992,10 +9346,10 @@
         <v>42125</v>
       </c>
       <c r="I118" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J118" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K118" t="n">
         <v>1</v>
@@ -9037,22 +9391,25 @@
       <c r="X118"/>
       <c r="Y118"/>
       <c r="Z118"/>
+      <c r="AA118" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B119" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C119" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D119" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E119" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F119"/>
       <c r="G119" s="1" t="n">
@@ -9062,10 +9419,10 @@
         <v>42125</v>
       </c>
       <c r="I119" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="J119" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K119" t="n">
         <v>1</v>
@@ -9107,22 +9464,25 @@
       <c r="X119"/>
       <c r="Y119"/>
       <c r="Z119"/>
+      <c r="AA119" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B120" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C120" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D120" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E120" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F120"/>
       <c r="G120" s="1" t="n">
@@ -9132,10 +9492,10 @@
         <v>42157</v>
       </c>
       <c r="I120" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J120" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K120"/>
       <c r="L120"/>
@@ -9173,22 +9533,25 @@
       <c r="X120"/>
       <c r="Y120"/>
       <c r="Z120"/>
+      <c r="AA120" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B121" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C121" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D121" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E121" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F121"/>
       <c r="G121" s="1" t="n">
@@ -9198,10 +9561,10 @@
         <v>42212</v>
       </c>
       <c r="I121" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J121" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K121" t="n">
         <v>0.22656</v>
@@ -9243,22 +9606,25 @@
       <c r="X121"/>
       <c r="Y121"/>
       <c r="Z121"/>
+      <c r="AA121" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B122" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C122" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D122" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E122" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F122"/>
       <c r="G122" s="1" t="n">
@@ -9268,10 +9634,10 @@
         <v>42157</v>
       </c>
       <c r="I122" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J122" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K122" t="n">
         <v>0.2</v>
@@ -9313,22 +9679,25 @@
       <c r="X122"/>
       <c r="Y122"/>
       <c r="Z122"/>
+      <c r="AA122" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B123" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C123" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D123" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E123" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F123"/>
       <c r="G123" s="1" t="n">
@@ -9338,10 +9707,10 @@
         <v>42228</v>
       </c>
       <c r="I123" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J123" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K123" t="n">
         <v>0.011282</v>
@@ -9383,22 +9752,25 @@
       <c r="X123"/>
       <c r="Y123"/>
       <c r="Z123"/>
+      <c r="AA123" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B124" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C124" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D124" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E124" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F124"/>
       <c r="G124" s="1" t="n">
@@ -9408,10 +9780,10 @@
         <v>42333</v>
       </c>
       <c r="I124" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J124" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K124" t="n">
         <v>1</v>
@@ -9453,22 +9825,25 @@
       <c r="X124"/>
       <c r="Y124"/>
       <c r="Z124"/>
+      <c r="AA124" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B125" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C125" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D125" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E125" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F125"/>
       <c r="G125" s="1" t="n">
@@ -9478,10 +9853,10 @@
         <v>43060</v>
       </c>
       <c r="I125" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J125" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K125" t="n">
         <v>0.239835</v>
@@ -9523,22 +9898,25 @@
       <c r="X125"/>
       <c r="Y125"/>
       <c r="Z125"/>
+      <c r="AA125" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B126" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C126" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D126" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E126" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F126"/>
       <c r="G126" s="1" t="n">
@@ -9548,10 +9926,10 @@
         <v>42250</v>
       </c>
       <c r="I126" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J126" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K126" t="n">
         <v>0.002196</v>
@@ -9593,22 +9971,25 @@
       <c r="X126"/>
       <c r="Y126"/>
       <c r="Z126"/>
+      <c r="AA126" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B127" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C127" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D127" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E127" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F127"/>
       <c r="G127" s="1" t="n">
@@ -9618,10 +9999,10 @@
         <v>42250</v>
       </c>
       <c r="I127" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J127" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K127"/>
       <c r="L127"/>
@@ -9659,22 +10040,25 @@
       <c r="X127"/>
       <c r="Y127"/>
       <c r="Z127"/>
+      <c r="AA127" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B128" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C128" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D128" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E128" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F128"/>
       <c r="G128" s="1" t="n">
@@ -9684,10 +10068,10 @@
         <v>42228</v>
       </c>
       <c r="I128" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J128" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K128" t="n">
         <v>0.005</v>
@@ -9729,22 +10113,25 @@
       <c r="X128"/>
       <c r="Y128"/>
       <c r="Z128"/>
+      <c r="AA128" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B129" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C129" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D129" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E129" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F129"/>
       <c r="G129" s="1" t="n">
@@ -9754,10 +10141,10 @@
         <v>42226</v>
       </c>
       <c r="I129" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="J129" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K129"/>
       <c r="L129"/>
@@ -9795,22 +10182,25 @@
       <c r="X129"/>
       <c r="Y129"/>
       <c r="Z129"/>
+      <c r="AA129" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B130" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C130" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D130" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E130" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F130"/>
       <c r="G130" s="1" t="n">
@@ -9820,10 +10210,10 @@
         <v>42250</v>
       </c>
       <c r="I130" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J130" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K130" t="n">
         <v>0.004</v>
@@ -9865,22 +10255,25 @@
       <c r="X130"/>
       <c r="Y130"/>
       <c r="Z130"/>
+      <c r="AA130" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B131" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C131" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D131" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E131" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F131"/>
       <c r="G131" s="1" t="n">
@@ -9890,10 +10283,10 @@
         <v>42321</v>
       </c>
       <c r="I131" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J131" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K131"/>
       <c r="L131"/>
@@ -9931,6 +10324,9 @@
       <c r="X131"/>
       <c r="Y131"/>
       <c r="Z131"/>
+      <c r="AA131" t="b">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/output/Vanuatu_formatted.xlsx
+++ b/output/Vanuatu_formatted.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="212">
   <si>
     <t xml:space="preserve">Country Code</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t xml:space="preserve">potential_duplication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flow ID</t>
   </si>
   <si>
     <t xml:space="preserve">VUT</t>
@@ -1065,22 +1068,25 @@
       <c r="AA1" t="s">
         <v>26</v>
       </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F2"/>
       <c r="G2" s="1" t="n">
@@ -1090,10 +1096,10 @@
         <v>42268</v>
       </c>
       <c r="I2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K2" t="n">
         <v>1</v>
@@ -1138,22 +1144,25 @@
       <c r="AA2" t="b">
         <v>0</v>
       </c>
+      <c r="AB2" t="n">
+        <v>126056</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F3"/>
       <c r="G3" s="1" t="n">
@@ -1163,10 +1172,10 @@
         <v>42088</v>
       </c>
       <c r="I3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K3" t="n">
         <v>0.05</v>
@@ -1211,22 +1220,25 @@
       <c r="AA3" t="b">
         <v>0</v>
       </c>
+      <c r="AB3" t="n">
+        <v>126308</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F4"/>
       <c r="G4" s="1" t="n">
@@ -1236,10 +1248,10 @@
         <v>42088</v>
       </c>
       <c r="I4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K4" t="n">
         <v>0.3</v>
@@ -1284,22 +1296,25 @@
       <c r="AA4" t="b">
         <v>0</v>
       </c>
+      <c r="AB4" t="n">
+        <v>126283</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F5"/>
       <c r="G5" s="1" t="n">
@@ -1309,10 +1324,10 @@
         <v>42115</v>
       </c>
       <c r="I5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K5" t="n">
         <v>0.0066</v>
@@ -1357,22 +1372,25 @@
       <c r="AA5" t="b">
         <v>0</v>
       </c>
+      <c r="AB5" t="n">
+        <v>127670</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F6"/>
       <c r="G6" s="1" t="n">
@@ -1382,10 +1400,10 @@
         <v>42115</v>
       </c>
       <c r="I6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K6" t="n">
         <v>0.28</v>
@@ -1430,22 +1448,25 @@
       <c r="AA6" t="b">
         <v>0</v>
       </c>
+      <c r="AB6" t="n">
+        <v>127672</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F7"/>
       <c r="G7" s="1" t="n">
@@ -1455,10 +1476,10 @@
         <v>42115</v>
       </c>
       <c r="I7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K7" t="n">
         <v>0.05</v>
@@ -1503,22 +1524,25 @@
       <c r="AA7" t="b">
         <v>0</v>
       </c>
+      <c r="AB7" t="n">
+        <v>127673</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8"/>
       <c r="G8" s="1" t="n">
@@ -1528,10 +1552,10 @@
         <v>42115</v>
       </c>
       <c r="I8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K8" t="n">
         <v>0.2</v>
@@ -1576,22 +1600,25 @@
       <c r="AA8" t="b">
         <v>0</v>
       </c>
+      <c r="AB8" t="n">
+        <v>127675</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F9"/>
       <c r="G9" s="1" t="n">
@@ -1601,10 +1628,10 @@
         <v>42080</v>
       </c>
       <c r="I9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K9" t="n">
         <v>20</v>
@@ -1649,22 +1676,25 @@
       <c r="AA9" t="b">
         <v>0</v>
       </c>
+      <c r="AB9" t="n">
+        <v>125812</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F10"/>
       <c r="G10" s="1" t="n">
@@ -1674,10 +1704,10 @@
         <v>42115</v>
       </c>
       <c r="I10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K10" t="n">
         <v>0.653</v>
@@ -1722,22 +1752,25 @@
       <c r="AA10" t="b">
         <v>0</v>
       </c>
+      <c r="AB10" t="n">
+        <v>127665</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F11"/>
       <c r="G11" s="1" t="n">
@@ -1747,10 +1780,10 @@
         <v>42115</v>
       </c>
       <c r="I11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K11" t="n">
         <v>0.122</v>
@@ -1795,22 +1828,25 @@
       <c r="AA11" t="b">
         <v>0</v>
       </c>
+      <c r="AB11" t="n">
+        <v>127667</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F12"/>
       <c r="G12" s="1" t="n">
@@ -1820,10 +1856,10 @@
         <v>42115</v>
       </c>
       <c r="I12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K12" t="n">
         <v>1</v>
@@ -1868,22 +1904,25 @@
       <c r="AA12" t="b">
         <v>0</v>
       </c>
+      <c r="AB12" t="n">
+        <v>127669</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F13"/>
       <c r="G13" s="1" t="n">
@@ -1893,10 +1932,10 @@
         <v>42209</v>
       </c>
       <c r="I13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K13"/>
       <c r="L13"/>
@@ -1937,22 +1976,25 @@
       <c r="AA13" t="b">
         <v>0</v>
       </c>
+      <c r="AB13" t="n">
+        <v>131888</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F14"/>
       <c r="G14" s="1" t="n">
@@ -1962,10 +2004,10 @@
         <v>42083</v>
       </c>
       <c r="I14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K14" t="n">
         <v>0.16</v>
@@ -2010,22 +2052,25 @@
       <c r="AA14" t="b">
         <v>0</v>
       </c>
+      <c r="AB14" t="n">
+        <v>126091</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F15"/>
       <c r="G15" s="1" t="n">
@@ -2035,10 +2080,10 @@
         <v>42088</v>
       </c>
       <c r="I15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K15" t="n">
         <v>0.05</v>
@@ -2083,22 +2128,25 @@
       <c r="AA15" t="b">
         <v>0</v>
       </c>
+      <c r="AB15" t="n">
+        <v>126309</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F16"/>
       <c r="G16" s="1" t="n">
@@ -2108,10 +2156,10 @@
         <v>42359</v>
       </c>
       <c r="I16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K16" t="n">
         <v>0.2884</v>
@@ -2156,22 +2204,25 @@
       <c r="AA16" t="b">
         <v>0</v>
       </c>
+      <c r="AB16" t="n">
+        <v>127154</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F17"/>
       <c r="G17" s="1" t="n">
@@ -2181,10 +2232,10 @@
         <v>42131</v>
       </c>
       <c r="I17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K17"/>
       <c r="L17"/>
@@ -2225,22 +2276,25 @@
       <c r="AA17" t="b">
         <v>0</v>
       </c>
+      <c r="AB17" t="n">
+        <v>127155</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F18"/>
       <c r="G18" s="1" t="n">
@@ -2250,10 +2304,10 @@
         <v>42090</v>
       </c>
       <c r="I18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K18" t="n">
         <v>0.3</v>
@@ -2298,22 +2352,25 @@
       <c r="AA18" t="b">
         <v>0</v>
       </c>
+      <c r="AB18" t="n">
+        <v>125945</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E19" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F19"/>
       <c r="G19" s="1" t="n">
@@ -2323,10 +2380,10 @@
         <v>42082</v>
       </c>
       <c r="I19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K19" t="n">
         <v>0.5</v>
@@ -2371,22 +2428,25 @@
       <c r="AA19" t="b">
         <v>0</v>
       </c>
+      <c r="AB19" t="n">
+        <v>125941</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F20"/>
       <c r="G20" s="1" t="n">
@@ -2396,10 +2456,10 @@
         <v>42226</v>
       </c>
       <c r="I20" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K20"/>
       <c r="L20"/>
@@ -2440,22 +2500,25 @@
       <c r="AA20" t="b">
         <v>0</v>
       </c>
+      <c r="AB20" t="n">
+        <v>125887</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F21"/>
       <c r="G21" s="1" t="n">
@@ -2465,10 +2528,10 @@
         <v>42088</v>
       </c>
       <c r="I21" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K21" t="n">
         <v>0.15</v>
@@ -2513,22 +2576,25 @@
       <c r="AA21" t="b">
         <v>0</v>
       </c>
+      <c r="AB21" t="n">
+        <v>126304</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F22"/>
       <c r="G22" s="1" t="n">
@@ -2538,10 +2604,10 @@
         <v>42088</v>
       </c>
       <c r="I22" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K22"/>
       <c r="L22"/>
@@ -2582,22 +2648,25 @@
       <c r="AA22" t="b">
         <v>0</v>
       </c>
+      <c r="AB22" t="n">
+        <v>126312</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F23"/>
       <c r="G23" s="1" t="n">
@@ -2607,10 +2676,10 @@
         <v>42088</v>
       </c>
       <c r="I23" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K23"/>
       <c r="L23"/>
@@ -2651,22 +2720,25 @@
       <c r="AA23" t="b">
         <v>0</v>
       </c>
+      <c r="AB23" t="n">
+        <v>126317</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E24" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F24"/>
       <c r="G24" s="1" t="n">
@@ -2676,10 +2748,10 @@
         <v>42355</v>
       </c>
       <c r="I24" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J24" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K24" t="n">
         <v>0.05</v>
@@ -2724,22 +2796,25 @@
       <c r="AA24" t="b">
         <v>0</v>
       </c>
+      <c r="AB24" t="n">
+        <v>136624</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E25" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F25"/>
       <c r="G25" s="1" t="n">
@@ -2749,10 +2824,10 @@
         <v>42082</v>
       </c>
       <c r="I25" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K25"/>
       <c r="L25"/>
@@ -2793,22 +2868,25 @@
       <c r="AA25" t="b">
         <v>0</v>
       </c>
+      <c r="AB25" t="n">
+        <v>126009</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F26"/>
       <c r="G26" s="1" t="n">
@@ -2818,10 +2896,10 @@
         <v>42082</v>
       </c>
       <c r="I26" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K26"/>
       <c r="L26"/>
@@ -2862,22 +2940,25 @@
       <c r="AA26" t="b">
         <v>0</v>
       </c>
+      <c r="AB26" t="n">
+        <v>126015</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E27" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F27"/>
       <c r="G27" s="1" t="n">
@@ -2887,10 +2968,10 @@
         <v>42082</v>
       </c>
       <c r="I27" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K27" t="n">
         <v>1.1</v>
@@ -2935,22 +3016,25 @@
       <c r="AA27" t="b">
         <v>0</v>
       </c>
+      <c r="AB27" t="n">
+        <v>126010</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F28"/>
       <c r="G28" s="1" t="n">
@@ -2960,10 +3044,10 @@
         <v>43060</v>
       </c>
       <c r="I28" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K28" t="n">
         <v>0.13</v>
@@ -3008,22 +3092,25 @@
       <c r="AA28" t="b">
         <v>0</v>
       </c>
+      <c r="AB28" t="n">
+        <v>126285</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F29"/>
       <c r="G29" s="1" t="n">
@@ -3033,10 +3120,10 @@
         <v>42088</v>
       </c>
       <c r="I29" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K29"/>
       <c r="L29"/>
@@ -3077,22 +3164,25 @@
       <c r="AA29" t="b">
         <v>0</v>
       </c>
+      <c r="AB29" t="n">
+        <v>126315</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D30" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E30" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F30"/>
       <c r="G30" s="1" t="n">
@@ -3102,10 +3192,10 @@
         <v>42088</v>
       </c>
       <c r="I30" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J30" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K30" t="n">
         <v>1.5</v>
@@ -3150,22 +3240,25 @@
       <c r="AA30" t="b">
         <v>0</v>
       </c>
+      <c r="AB30" t="n">
+        <v>126282</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F31"/>
       <c r="G31" s="1" t="n">
@@ -3175,10 +3268,10 @@
         <v>42083</v>
       </c>
       <c r="I31" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J31" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K31"/>
       <c r="L31"/>
@@ -3219,22 +3312,25 @@
       <c r="AA31" t="b">
         <v>0</v>
       </c>
+      <c r="AB31" t="n">
+        <v>126096</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C32" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D32" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F32"/>
       <c r="G32" s="1" t="n">
@@ -3244,10 +3340,10 @@
         <v>42088</v>
       </c>
       <c r="I32" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J32" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K32"/>
       <c r="L32"/>
@@ -3288,22 +3384,25 @@
       <c r="AA32" t="b">
         <v>0</v>
       </c>
+      <c r="AB32" t="n">
+        <v>126305</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B33" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C33" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D33" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F33"/>
       <c r="G33" s="1" t="n">
@@ -3313,10 +3412,10 @@
         <v>42088</v>
       </c>
       <c r="I33" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J33" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K33"/>
       <c r="L33"/>
@@ -3357,22 +3456,25 @@
       <c r="AA33" t="b">
         <v>0</v>
       </c>
+      <c r="AB33" t="n">
+        <v>126306</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B34" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C34" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D34" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E34" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F34"/>
       <c r="G34" s="1" t="n">
@@ -3382,10 +3484,10 @@
         <v>42250</v>
       </c>
       <c r="I34" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J34" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K34" t="n">
         <v>1.403751</v>
@@ -3430,22 +3532,25 @@
       <c r="AA34" t="b">
         <v>0</v>
       </c>
+      <c r="AB34" t="n">
+        <v>127147</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B35" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C35" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D35" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E35" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F35"/>
       <c r="G35" s="1" t="n">
@@ -3455,10 +3560,10 @@
         <v>42104</v>
       </c>
       <c r="I35" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J35" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K35" t="n">
         <v>12.127</v>
@@ -3503,22 +3608,25 @@
       <c r="AA35" t="b">
         <v>0</v>
       </c>
+      <c r="AB35" t="n">
+        <v>127150</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B36" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C36" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D36" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F36"/>
       <c r="G36" s="1" t="n">
@@ -3528,10 +3636,10 @@
         <v>42088</v>
       </c>
       <c r="I36" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J36" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K36" t="n">
         <v>3</v>
@@ -3576,22 +3684,25 @@
       <c r="AA36" t="b">
         <v>0</v>
       </c>
+      <c r="AB36" t="n">
+        <v>126303</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B37" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C37" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D37" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E37" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F37"/>
       <c r="G37" s="1" t="n">
@@ -3601,10 +3712,10 @@
         <v>42087</v>
       </c>
       <c r="I37" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J37" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K37" t="n">
         <v>0.43059</v>
@@ -3649,22 +3760,25 @@
       <c r="AA37" t="b">
         <v>0</v>
       </c>
+      <c r="AB37" t="n">
+        <v>126244</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B38" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C38" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D38" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E38" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F38"/>
       <c r="G38" s="1" t="n">
@@ -3674,10 +3788,10 @@
         <v>42087</v>
       </c>
       <c r="I38" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J38" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K38" t="n">
         <v>1.08336</v>
@@ -3722,22 +3836,25 @@
       <c r="AA38" t="b">
         <v>0</v>
       </c>
+      <c r="AB38" t="n">
+        <v>126245</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B39" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C39" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D39" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E39" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F39"/>
       <c r="G39" s="1" t="n">
@@ -3747,10 +3864,10 @@
         <v>42093</v>
       </c>
       <c r="I39" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J39" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K39" t="n">
         <v>0.5</v>
@@ -3795,22 +3912,25 @@
       <c r="AA39" t="b">
         <v>0</v>
       </c>
+      <c r="AB39" t="n">
+        <v>126471</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B40" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C40" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D40" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E40" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F40"/>
       <c r="G40" s="1" t="n">
@@ -3820,10 +3940,10 @@
         <v>42144</v>
       </c>
       <c r="I40" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J40" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K40" t="n">
         <v>0.2</v>
@@ -3868,22 +3988,25 @@
       <c r="AA40" t="b">
         <v>0</v>
       </c>
+      <c r="AB40" t="n">
+        <v>127149</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B41" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C41" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D41" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E41" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F41"/>
       <c r="G41" s="1" t="n">
@@ -3893,10 +4016,10 @@
         <v>42115</v>
       </c>
       <c r="I41" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K41" t="n">
         <v>0.025</v>
@@ -3941,22 +4064,25 @@
       <c r="AA41" t="b">
         <v>0</v>
       </c>
+      <c r="AB41" t="n">
+        <v>127662</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B42" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C42" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D42" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E42" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F42"/>
       <c r="G42" s="1" t="n">
@@ -3966,10 +4092,10 @@
         <v>42815</v>
       </c>
       <c r="I42" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J42" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K42" t="n">
         <v>0.116763</v>
@@ -4014,22 +4140,25 @@
       <c r="AA42" t="b">
         <v>0</v>
       </c>
+      <c r="AB42" t="n">
+        <v>127663</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B43" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C43" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D43" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E43" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F43"/>
       <c r="G43" s="1" t="n">
@@ -4039,10 +4168,10 @@
         <v>42815</v>
       </c>
       <c r="I43" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J43" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K43" t="n">
         <v>0.171184</v>
@@ -4087,22 +4216,25 @@
       <c r="AA43" t="b">
         <v>0</v>
       </c>
+      <c r="AB43" t="n">
+        <v>127664</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B44" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C44" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D44" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E44" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F44"/>
       <c r="G44" s="1" t="n">
@@ -4112,10 +4244,10 @@
         <v>42086</v>
       </c>
       <c r="I44" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J44" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K44"/>
       <c r="L44"/>
@@ -4156,22 +4288,25 @@
       <c r="AA44" t="b">
         <v>0</v>
       </c>
+      <c r="AB44" t="n">
+        <v>126207</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B45" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C45" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D45" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E45" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F45"/>
       <c r="G45" s="1" t="n">
@@ -4181,10 +4316,10 @@
         <v>43060</v>
       </c>
       <c r="I45" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J45" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K45" t="n">
         <v>0.24</v>
@@ -4229,22 +4364,25 @@
       <c r="AA45" t="b">
         <v>0</v>
       </c>
+      <c r="AB45" t="n">
+        <v>126208</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B46" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C46" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D46" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E46" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F46"/>
       <c r="G46" s="1" t="n">
@@ -4254,10 +4392,10 @@
         <v>42088</v>
       </c>
       <c r="I46" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J46" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K46" t="n">
         <v>1.2</v>
@@ -4302,22 +4440,25 @@
       <c r="AA46" t="b">
         <v>0</v>
       </c>
+      <c r="AB46" t="n">
+        <v>125886</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B47" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C47" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D47" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E47" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F47"/>
       <c r="G47" s="1" t="n">
@@ -4327,10 +4468,10 @@
         <v>42086</v>
       </c>
       <c r="I47" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J47" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K47" t="n">
         <v>0.5</v>
@@ -4375,22 +4516,25 @@
       <c r="AA47" t="b">
         <v>0</v>
       </c>
+      <c r="AB47" t="n">
+        <v>126211</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B48" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C48" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D48" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E48" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F48"/>
       <c r="G48" s="1" t="n">
@@ -4400,10 +4544,10 @@
         <v>42114</v>
       </c>
       <c r="I48" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J48" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K48" t="n">
         <v>0.5</v>
@@ -4448,22 +4592,25 @@
       <c r="AA48" t="b">
         <v>0</v>
       </c>
+      <c r="AB48" t="n">
+        <v>126212</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B49" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C49" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D49" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E49" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F49"/>
       <c r="G49" s="1" t="n">
@@ -4473,10 +4620,10 @@
         <v>42088</v>
       </c>
       <c r="I49" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J49" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K49" t="n">
         <v>1</v>
@@ -4521,22 +4668,25 @@
       <c r="AA49" t="b">
         <v>0</v>
       </c>
+      <c r="AB49" t="n">
+        <v>126270</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B50" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C50" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D50" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E50" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F50"/>
       <c r="G50" s="1" t="n">
@@ -4546,10 +4696,10 @@
         <v>42088</v>
       </c>
       <c r="I50" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J50" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K50" t="n">
         <v>0.3</v>
@@ -4594,22 +4744,25 @@
       <c r="AA50" t="b">
         <v>0</v>
       </c>
+      <c r="AB50" t="n">
+        <v>126271</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B51" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C51" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D51" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E51" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F51"/>
       <c r="G51" s="1" t="n">
@@ -4619,10 +4772,10 @@
         <v>42088</v>
       </c>
       <c r="I51" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J51" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K51" t="n">
         <v>0.25</v>
@@ -4667,22 +4820,25 @@
       <c r="AA51" t="b">
         <v>0</v>
       </c>
+      <c r="AB51" t="n">
+        <v>126272</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B52" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C52" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D52" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E52" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F52"/>
       <c r="G52" s="1" t="n">
@@ -4692,10 +4848,10 @@
         <v>42088</v>
       </c>
       <c r="I52" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J52" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K52" t="n">
         <v>0.25</v>
@@ -4740,22 +4896,25 @@
       <c r="AA52" t="b">
         <v>0</v>
       </c>
+      <c r="AB52" t="n">
+        <v>126273</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B53" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C53" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D53" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E53" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F53"/>
       <c r="G53" s="1" t="n">
@@ -4765,10 +4924,10 @@
         <v>42104</v>
       </c>
       <c r="I53" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J53" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K53"/>
       <c r="L53"/>
@@ -4809,22 +4968,25 @@
       <c r="AA53" t="b">
         <v>0</v>
       </c>
+      <c r="AB53" t="n">
+        <v>127156</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B54" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C54" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D54" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E54" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F54"/>
       <c r="G54" s="1" t="n">
@@ -4834,10 +4996,10 @@
         <v>42144</v>
       </c>
       <c r="I54" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J54" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K54" t="n">
         <v>0.006249</v>
@@ -4882,22 +5044,25 @@
       <c r="AA54" t="b">
         <v>0</v>
       </c>
+      <c r="AB54" t="n">
+        <v>129330</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B55" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C55" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D55" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E55" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F55"/>
       <c r="G55" s="1" t="n">
@@ -4907,10 +5072,10 @@
         <v>42213</v>
       </c>
       <c r="I55" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J55" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K55" t="n">
         <v>0.7</v>
@@ -4955,22 +5120,25 @@
       <c r="AA55" t="b">
         <v>0</v>
       </c>
+      <c r="AB55" t="n">
+        <v>132003</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B56" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C56" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D56" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E56" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F56"/>
       <c r="G56" s="1" t="n">
@@ -4980,10 +5148,10 @@
         <v>42104</v>
       </c>
       <c r="I56" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J56" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K56"/>
       <c r="L56"/>
@@ -5024,22 +5192,25 @@
       <c r="AA56" t="b">
         <v>0</v>
       </c>
+      <c r="AB56" t="n">
+        <v>126209</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B57" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C57" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D57" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F57"/>
       <c r="G57" s="1" t="n">
@@ -5049,10 +5220,10 @@
         <v>42094</v>
       </c>
       <c r="I57" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J57" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K57"/>
       <c r="L57"/>
@@ -5093,22 +5264,25 @@
       <c r="AA57" t="b">
         <v>0</v>
       </c>
+      <c r="AB57" t="n">
+        <v>126579</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B58" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C58" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D58" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E58" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F58"/>
       <c r="G58" s="1" t="n">
@@ -5118,10 +5292,10 @@
         <v>42104</v>
       </c>
       <c r="I58" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J58" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K58"/>
       <c r="L58"/>
@@ -5162,22 +5336,25 @@
       <c r="AA58" t="b">
         <v>0</v>
       </c>
+      <c r="AB58" t="n">
+        <v>127158</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B59" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C59" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D59" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E59" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F59"/>
       <c r="G59" s="1" t="n">
@@ -5187,10 +5364,10 @@
         <v>43060</v>
       </c>
       <c r="I59" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J59" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K59"/>
       <c r="L59"/>
@@ -5231,22 +5408,25 @@
       <c r="AA59" t="b">
         <v>0</v>
       </c>
+      <c r="AB59" t="n">
+        <v>126385</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B60" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C60" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D60" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E60" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F60"/>
       <c r="G60" s="1" t="n">
@@ -5256,10 +5436,10 @@
         <v>42089</v>
       </c>
       <c r="I60" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J60" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K60"/>
       <c r="L60"/>
@@ -5300,22 +5480,25 @@
       <c r="AA60" t="b">
         <v>0</v>
       </c>
+      <c r="AB60" t="n">
+        <v>126386</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B61" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C61" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D61" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E61" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F61"/>
       <c r="G61" s="1" t="n">
@@ -5325,10 +5508,10 @@
         <v>42094</v>
       </c>
       <c r="I61" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J61" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K61" t="n">
         <v>0.05</v>
@@ -5373,22 +5556,25 @@
       <c r="AA61" t="b">
         <v>0</v>
       </c>
+      <c r="AB61" t="n">
+        <v>126582</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B62" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C62" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D62" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F62"/>
       <c r="G62" s="1" t="n">
@@ -5398,10 +5584,10 @@
         <v>43060</v>
       </c>
       <c r="I62" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J62" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K62" t="n">
         <v>0.097</v>
@@ -5446,22 +5632,25 @@
       <c r="AA62" t="b">
         <v>0</v>
       </c>
+      <c r="AB62" t="n">
+        <v>126578</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B63" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C63" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D63" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E63" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F63"/>
       <c r="G63" s="1" t="n">
@@ -5471,10 +5660,10 @@
         <v>42104</v>
       </c>
       <c r="I63" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J63" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K63" t="n">
         <v>0.06</v>
@@ -5519,22 +5708,25 @@
       <c r="AA63" t="b">
         <v>0</v>
       </c>
+      <c r="AB63" t="n">
+        <v>127120</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B64" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C64" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D64" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E64" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F64"/>
       <c r="G64" s="1" t="n">
@@ -5544,10 +5736,10 @@
         <v>42114</v>
       </c>
       <c r="I64" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J64" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K64" t="n">
         <v>0.5</v>
@@ -5592,22 +5784,25 @@
       <c r="AA64" t="b">
         <v>0</v>
       </c>
+      <c r="AB64" t="n">
+        <v>127159</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B65" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C65" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D65" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E65" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F65"/>
       <c r="G65" s="1" t="n">
@@ -5617,10 +5812,10 @@
         <v>42144</v>
       </c>
       <c r="I65" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J65" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K65" t="n">
         <v>2.1</v>
@@ -5665,22 +5860,25 @@
       <c r="AA65" t="b">
         <v>0</v>
       </c>
+      <c r="AB65" t="n">
+        <v>129262</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B66" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C66" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D66" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E66" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F66"/>
       <c r="G66" s="1" t="n">
@@ -5690,10 +5888,10 @@
         <v>42104</v>
       </c>
       <c r="I66" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J66" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K66" t="n">
         <v>0.025</v>
@@ -5738,22 +5936,25 @@
       <c r="AA66" t="b">
         <v>0</v>
       </c>
+      <c r="AB66" t="n">
+        <v>127152</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B67" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C67" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D67" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E67" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F67"/>
       <c r="G67" s="1" t="n">
@@ -5763,10 +5964,10 @@
         <v>42228</v>
       </c>
       <c r="I67" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J67" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K67" t="n">
         <v>2.349884</v>
@@ -5811,22 +6012,25 @@
       <c r="AA67" t="b">
         <v>0</v>
       </c>
+      <c r="AB67" t="n">
+        <v>127153</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B68" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C68" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D68" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E68" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F68"/>
       <c r="G68" s="1" t="n">
@@ -5836,10 +6040,10 @@
         <v>42144</v>
       </c>
       <c r="I68" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J68" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K68"/>
       <c r="L68"/>
@@ -5880,22 +6084,25 @@
       <c r="AA68" t="b">
         <v>0</v>
       </c>
+      <c r="AB68" t="n">
+        <v>129327</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B69" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C69" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D69" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E69" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F69"/>
       <c r="G69" s="1" t="n">
@@ -5905,10 +6112,10 @@
         <v>42115</v>
       </c>
       <c r="I69" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="J69" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K69"/>
       <c r="L69"/>
@@ -5949,22 +6156,25 @@
       <c r="AA69" t="b">
         <v>0</v>
       </c>
+      <c r="AB69" t="n">
+        <v>126522</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B70" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C70" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D70" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E70" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F70"/>
       <c r="G70" s="1" t="n">
@@ -5974,10 +6184,10 @@
         <v>42115</v>
       </c>
       <c r="I70" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J70" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K70"/>
       <c r="L70"/>
@@ -6018,22 +6228,25 @@
       <c r="AA70" t="b">
         <v>0</v>
       </c>
+      <c r="AB70" t="n">
+        <v>126525</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B71" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C71" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D71" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E71" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F71"/>
       <c r="G71" s="1" t="n">
@@ -6043,10 +6256,10 @@
         <v>42094</v>
       </c>
       <c r="I71" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J71" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K71"/>
       <c r="L71"/>
@@ -6087,22 +6300,25 @@
       <c r="AA71" t="b">
         <v>0</v>
       </c>
+      <c r="AB71" t="n">
+        <v>126569</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B72" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C72" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D72" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E72" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F72"/>
       <c r="G72" s="1" t="n">
@@ -6112,10 +6328,10 @@
         <v>42982</v>
       </c>
       <c r="I72" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J72" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K72"/>
       <c r="L72"/>
@@ -6156,22 +6372,25 @@
       <c r="AA72" t="b">
         <v>0</v>
       </c>
+      <c r="AB72" t="n">
+        <v>126570</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B73" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C73" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D73" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E73" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F73"/>
       <c r="G73" s="1" t="n">
@@ -6181,10 +6400,10 @@
         <v>42094</v>
       </c>
       <c r="I73" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J73" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K73"/>
       <c r="L73"/>
@@ -6225,22 +6444,25 @@
       <c r="AA73" t="b">
         <v>0</v>
       </c>
+      <c r="AB73" t="n">
+        <v>126571</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B74" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C74" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D74" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E74" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F74"/>
       <c r="G74" s="1" t="n">
@@ -6250,10 +6472,10 @@
         <v>42115</v>
       </c>
       <c r="I74" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J74" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K74"/>
       <c r="L74"/>
@@ -6294,22 +6516,25 @@
       <c r="AA74" t="b">
         <v>0</v>
       </c>
+      <c r="AB74" t="n">
+        <v>127629</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B75" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C75" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D75" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E75" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F75"/>
       <c r="G75" s="1" t="n">
@@ -6319,10 +6544,10 @@
         <v>43060</v>
       </c>
       <c r="I75" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J75" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K75"/>
       <c r="L75"/>
@@ -6363,22 +6588,25 @@
       <c r="AA75" t="b">
         <v>0</v>
       </c>
+      <c r="AB75" t="n">
+        <v>127630</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B76" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C76" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D76" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E76" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F76"/>
       <c r="G76" s="1" t="n">
@@ -6388,10 +6616,10 @@
         <v>42093</v>
       </c>
       <c r="I76" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J76" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K76"/>
       <c r="L76"/>
@@ -6432,22 +6660,25 @@
       <c r="AA76" t="b">
         <v>0</v>
       </c>
+      <c r="AB76" t="n">
+        <v>126483</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B77" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C77" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D77" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E77" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F77"/>
       <c r="G77" s="1" t="n">
@@ -6457,10 +6688,10 @@
         <v>42104</v>
       </c>
       <c r="I77" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J77" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K77" t="n">
         <v>2</v>
@@ -6505,22 +6736,25 @@
       <c r="AA77" t="b">
         <v>0</v>
       </c>
+      <c r="AB77" t="n">
+        <v>127085</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B78" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C78" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D78" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F78"/>
       <c r="G78" s="1" t="n">
@@ -6530,10 +6764,10 @@
         <v>42124</v>
       </c>
       <c r="I78" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J78" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K78"/>
       <c r="L78"/>
@@ -6574,22 +6808,25 @@
       <c r="AA78" t="b">
         <v>0</v>
       </c>
+      <c r="AB78" t="n">
+        <v>127160</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B79" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C79" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D79" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F79"/>
       <c r="G79" s="1" t="n">
@@ -6599,10 +6836,10 @@
         <v>42124</v>
       </c>
       <c r="I79" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J79" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K79"/>
       <c r="L79"/>
@@ -6643,22 +6880,25 @@
       <c r="AA79" t="b">
         <v>0</v>
       </c>
+      <c r="AB79" t="n">
+        <v>127616</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B80" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C80" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D80" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F80"/>
       <c r="G80" s="1" t="n">
@@ -6668,10 +6908,10 @@
         <v>42124</v>
       </c>
       <c r="I80" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J80" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K80"/>
       <c r="L80"/>
@@ -6712,22 +6952,25 @@
       <c r="AA80" t="b">
         <v>0</v>
       </c>
+      <c r="AB80" t="n">
+        <v>127617</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B81" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C81" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D81" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E81" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F81"/>
       <c r="G81" s="1" t="n">
@@ -6737,10 +6980,10 @@
         <v>42144</v>
       </c>
       <c r="I81" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J81" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K81" t="n">
         <v>0.029</v>
@@ -6785,22 +7028,25 @@
       <c r="AA81" t="b">
         <v>0</v>
       </c>
+      <c r="AB81" t="n">
+        <v>129332</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B82" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C82" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D82" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E82" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F82"/>
       <c r="G82" s="1" t="n">
@@ -6810,10 +7056,10 @@
         <v>42157</v>
       </c>
       <c r="I82" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="J82" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K82"/>
       <c r="L82"/>
@@ -6854,22 +7100,25 @@
       <c r="AA82" t="b">
         <v>0</v>
       </c>
+      <c r="AB82" t="n">
+        <v>129328</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B83" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C83" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D83" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E83" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F83"/>
       <c r="G83" s="1" t="n">
@@ -6879,10 +7128,10 @@
         <v>42157</v>
       </c>
       <c r="I83" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J83" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K83"/>
       <c r="L83"/>
@@ -6923,22 +7172,25 @@
       <c r="AA83" t="b">
         <v>0</v>
       </c>
+      <c r="AB83" t="n">
+        <v>129331</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B84" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C84" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D84" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E84" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F84"/>
       <c r="G84" s="1" t="n">
@@ -6948,10 +7200,10 @@
         <v>42250</v>
       </c>
       <c r="I84" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J84" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K84" t="n">
         <v>0.5</v>
@@ -6996,22 +7248,25 @@
       <c r="AA84" t="b">
         <v>0</v>
       </c>
+      <c r="AB84" t="n">
+        <v>133170</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B85" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C85" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D85" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E85" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F85"/>
       <c r="G85" s="1" t="n">
@@ -7021,10 +7276,10 @@
         <v>43060</v>
       </c>
       <c r="I85" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="J85" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K85"/>
       <c r="L85"/>
@@ -7065,22 +7320,25 @@
       <c r="AA85" t="b">
         <v>0</v>
       </c>
+      <c r="AB85" t="n">
+        <v>126523</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B86" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C86" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D86" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E86" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F86"/>
       <c r="G86" s="1" t="n">
@@ -7090,10 +7348,10 @@
         <v>42263</v>
       </c>
       <c r="I86" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="J86" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K86"/>
       <c r="L86"/>
@@ -7134,22 +7392,25 @@
       <c r="AA86" t="b">
         <v>0</v>
       </c>
+      <c r="AB86" t="n">
+        <v>126524</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B87" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C87" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D87" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E87" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F87"/>
       <c r="G87" s="1" t="n">
@@ -7159,10 +7420,10 @@
         <v>43060</v>
       </c>
       <c r="I87" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J87" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K87" t="n">
         <v>1.62</v>
@@ -7207,22 +7468,25 @@
       <c r="AA87" t="b">
         <v>0</v>
       </c>
+      <c r="AB87" t="n">
+        <v>127083</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B88" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C88" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D88" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E88" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F88"/>
       <c r="G88" s="1" t="n">
@@ -7232,10 +7496,10 @@
         <v>42104</v>
       </c>
       <c r="I88" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J88" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K88" t="n">
         <v>1.27176</v>
@@ -7280,22 +7544,25 @@
       <c r="AA88" t="b">
         <v>0</v>
       </c>
+      <c r="AB88" t="n">
+        <v>127084</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B89" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C89" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D89" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F89"/>
       <c r="G89" s="1" t="n">
@@ -7305,10 +7572,10 @@
         <v>42124</v>
       </c>
       <c r="I89" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J89" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K89"/>
       <c r="L89"/>
@@ -7349,22 +7616,25 @@
       <c r="AA89" t="b">
         <v>0</v>
       </c>
+      <c r="AB89" t="n">
+        <v>128162</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B90" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C90" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D90" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E90" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F90"/>
       <c r="G90" s="1" t="n">
@@ -7374,10 +7644,10 @@
         <v>42156</v>
       </c>
       <c r="I90" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J90" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K90" t="n">
         <v>0.05</v>
@@ -7422,22 +7692,25 @@
       <c r="AA90" t="b">
         <v>0</v>
       </c>
+      <c r="AB90" t="n">
+        <v>129841</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B91" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C91" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D91" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E91" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F91"/>
       <c r="G91" s="1" t="n">
@@ -7447,10 +7720,10 @@
         <v>43060</v>
       </c>
       <c r="I91" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="J91" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K91"/>
       <c r="L91"/>
@@ -7491,22 +7764,25 @@
       <c r="AA91" t="b">
         <v>0</v>
       </c>
+      <c r="AB91" t="n">
+        <v>126447</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B92" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C92" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D92" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E92" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F92"/>
       <c r="G92" s="1" t="n">
@@ -7516,10 +7792,10 @@
         <v>43060</v>
       </c>
       <c r="I92" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J92" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K92"/>
       <c r="L92"/>
@@ -7560,22 +7836,25 @@
       <c r="AA92" t="b">
         <v>0</v>
       </c>
+      <c r="AB92" t="n">
+        <v>126448</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B93" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C93" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D93" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E93" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F93"/>
       <c r="G93" s="1" t="n">
@@ -7585,10 +7864,10 @@
         <v>42263</v>
       </c>
       <c r="I93" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J93" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K93"/>
       <c r="L93"/>
@@ -7629,22 +7908,25 @@
       <c r="AA93" t="b">
         <v>0</v>
       </c>
+      <c r="AB93" t="n">
+        <v>126449</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C94" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D94" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E94" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F94"/>
       <c r="G94" s="1" t="n">
@@ -7654,10 +7936,10 @@
         <v>42263</v>
       </c>
       <c r="I94" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J94" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K94"/>
       <c r="L94"/>
@@ -7698,22 +7980,25 @@
       <c r="AA94" t="b">
         <v>0</v>
       </c>
+      <c r="AB94" t="n">
+        <v>126452</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B95" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C95" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D95" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E95" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F95"/>
       <c r="G95" s="1" t="n">
@@ -7723,10 +8008,10 @@
         <v>42263</v>
       </c>
       <c r="I95" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="J95" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K95"/>
       <c r="L95"/>
@@ -7767,22 +8052,25 @@
       <c r="AA95" t="b">
         <v>0</v>
       </c>
+      <c r="AB95" t="n">
+        <v>126453</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B96" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C96" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D96" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E96" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F96"/>
       <c r="G96" s="1" t="n">
@@ -7792,10 +8080,10 @@
         <v>43060</v>
       </c>
       <c r="I96" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="J96" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K96"/>
       <c r="L96"/>
@@ -7836,22 +8124,25 @@
       <c r="AA96" t="b">
         <v>0</v>
       </c>
+      <c r="AB96" t="n">
+        <v>126457</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B97" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C97" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D97" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E97" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F97"/>
       <c r="G97" s="1" t="n">
@@ -7861,10 +8152,10 @@
         <v>42263</v>
       </c>
       <c r="I97" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="J97" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K97"/>
       <c r="L97"/>
@@ -7905,22 +8196,25 @@
       <c r="AA97" t="b">
         <v>0</v>
       </c>
+      <c r="AB97" t="n">
+        <v>126526</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B98" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C98" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D98" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E98" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F98"/>
       <c r="G98" s="1" t="n">
@@ -7930,10 +8224,10 @@
         <v>42110</v>
       </c>
       <c r="I98" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J98" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K98" t="n">
         <v>0.4995</v>
@@ -7978,22 +8272,25 @@
       <c r="AA98" t="b">
         <v>0</v>
       </c>
+      <c r="AB98" t="n">
+        <v>127415</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B99" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C99" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D99" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E99" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F99"/>
       <c r="G99" s="1" t="n">
@@ -8003,10 +8300,10 @@
         <v>42110</v>
       </c>
       <c r="I99" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J99" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K99"/>
       <c r="L99"/>
@@ -8047,22 +8344,25 @@
       <c r="AA99" t="b">
         <v>0</v>
       </c>
+      <c r="AB99" t="n">
+        <v>127474</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B100" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C100" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D100" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E100" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F100"/>
       <c r="G100" s="1" t="n">
@@ -8072,10 +8372,10 @@
         <v>42110</v>
       </c>
       <c r="I100" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J100" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K100"/>
       <c r="L100"/>
@@ -8116,22 +8416,25 @@
       <c r="AA100" t="b">
         <v>0</v>
       </c>
+      <c r="AB100" t="n">
+        <v>127475</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B101" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C101" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D101" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E101" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F101"/>
       <c r="G101" s="1" t="n">
@@ -8141,10 +8444,10 @@
         <v>42110</v>
       </c>
       <c r="I101" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J101" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K101" t="n">
         <v>0.135</v>
@@ -8189,22 +8492,25 @@
       <c r="AA101" t="b">
         <v>0</v>
       </c>
+      <c r="AB101" t="n">
+        <v>127414</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B102" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C102" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D102" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E102" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F102"/>
       <c r="G102" s="1" t="n">
@@ -8214,10 +8520,10 @@
         <v>43056</v>
       </c>
       <c r="I102" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J102" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K102" t="n">
         <v>0.01</v>
@@ -8262,22 +8568,25 @@
       <c r="AA102" t="b">
         <v>0</v>
       </c>
+      <c r="AB102" t="n">
+        <v>132659</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B103" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C103" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D103" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E103" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F103"/>
       <c r="G103" s="1" t="n">
@@ -8287,10 +8596,10 @@
         <v>42115</v>
       </c>
       <c r="I103" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J103" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K103"/>
       <c r="L103"/>
@@ -8331,22 +8640,25 @@
       <c r="AA103" t="b">
         <v>0</v>
       </c>
+      <c r="AB103" t="n">
+        <v>127636</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B104" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C104" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D104" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E104" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F104"/>
       <c r="G104" s="1" t="n">
@@ -8356,10 +8668,10 @@
         <v>42114</v>
       </c>
       <c r="I104" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J104" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K104"/>
       <c r="L104"/>
@@ -8400,22 +8712,25 @@
       <c r="AA104" t="b">
         <v>0</v>
       </c>
+      <c r="AB104" t="n">
+        <v>127620</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B105" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C105" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D105" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E105" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F105"/>
       <c r="G105" s="1" t="n">
@@ -8425,10 +8740,10 @@
         <v>43060</v>
       </c>
       <c r="I105" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J105" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K105"/>
       <c r="L105"/>
@@ -8469,22 +8784,25 @@
       <c r="AA105" t="b">
         <v>0</v>
       </c>
+      <c r="AB105" t="n">
+        <v>127619</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B106" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C106" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D106" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E106" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F106"/>
       <c r="G106" s="1" t="n">
@@ -8494,10 +8812,10 @@
         <v>42115</v>
       </c>
       <c r="I106" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J106" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K106"/>
       <c r="L106"/>
@@ -8538,22 +8856,25 @@
       <c r="AA106" t="b">
         <v>0</v>
       </c>
+      <c r="AB106" t="n">
+        <v>127631</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B107" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C107" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D107" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E107" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F107"/>
       <c r="G107" s="1" t="n">
@@ -8563,10 +8884,10 @@
         <v>42115</v>
       </c>
       <c r="I107" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J107" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K107"/>
       <c r="L107"/>
@@ -8607,22 +8928,25 @@
       <c r="AA107" t="b">
         <v>0</v>
       </c>
+      <c r="AB107" t="n">
+        <v>127632</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B108" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C108" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D108" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E108" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F108"/>
       <c r="G108" s="1" t="n">
@@ -8632,10 +8956,10 @@
         <v>42115</v>
       </c>
       <c r="I108" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J108" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K108"/>
       <c r="L108"/>
@@ -8676,22 +9000,25 @@
       <c r="AA108" t="b">
         <v>0</v>
       </c>
+      <c r="AB108" t="n">
+        <v>127633</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B109" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C109" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D109" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E109" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F109"/>
       <c r="G109" s="1" t="n">
@@ -8701,10 +9028,10 @@
         <v>43060</v>
       </c>
       <c r="I109" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J109" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K109"/>
       <c r="L109"/>
@@ -8745,22 +9072,25 @@
       <c r="AA109" t="b">
         <v>0</v>
       </c>
+      <c r="AB109" t="n">
+        <v>127634</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B110" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C110" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D110" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E110" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F110"/>
       <c r="G110" s="1" t="n">
@@ -8770,10 +9100,10 @@
         <v>42115</v>
       </c>
       <c r="I110" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J110" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K110"/>
       <c r="L110"/>
@@ -8814,22 +9144,25 @@
       <c r="AA110" t="b">
         <v>0</v>
       </c>
+      <c r="AB110" t="n">
+        <v>127635</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B111" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C111" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D111" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E111" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F111"/>
       <c r="G111" s="1" t="n">
@@ -8839,10 +9172,10 @@
         <v>42123</v>
       </c>
       <c r="I111" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J111" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K111" t="n">
         <v>1.62417</v>
@@ -8887,22 +9220,25 @@
       <c r="AA111" t="b">
         <v>0</v>
       </c>
+      <c r="AB111" t="n">
+        <v>128068</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B112" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C112" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D112" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E112" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F112"/>
       <c r="G112" s="1" t="n">
@@ -8912,10 +9248,10 @@
         <v>42123</v>
       </c>
       <c r="I112" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J112" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K112" t="n">
         <v>0.52416</v>
@@ -8960,22 +9296,25 @@
       <c r="AA112" t="b">
         <v>0</v>
       </c>
+      <c r="AB112" t="n">
+        <v>128070</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B113" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C113" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D113" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E113" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F113"/>
       <c r="G113" s="1" t="n">
@@ -8985,10 +9324,10 @@
         <v>42144</v>
       </c>
       <c r="I113" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J113" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K113" t="n">
         <v>0.05</v>
@@ -9033,22 +9372,25 @@
       <c r="AA113" t="b">
         <v>0</v>
       </c>
+      <c r="AB113" t="n">
+        <v>129326</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B114" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C114" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D114" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E114" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F114"/>
       <c r="G114" s="1" t="n">
@@ -9058,10 +9400,10 @@
         <v>42199</v>
       </c>
       <c r="I114" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J114" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K114" t="n">
         <v>0.238238</v>
@@ -9106,22 +9448,25 @@
       <c r="AA114" t="b">
         <v>0</v>
       </c>
+      <c r="AB114" t="n">
+        <v>129329</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B115" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C115" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D115" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E115" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F115"/>
       <c r="G115" s="1" t="n">
@@ -9131,10 +9476,10 @@
         <v>42440</v>
       </c>
       <c r="I115" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J115" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K115" t="n">
         <v>0.04</v>
@@ -9179,22 +9524,25 @@
       <c r="AA115" t="b">
         <v>0</v>
       </c>
+      <c r="AB115" t="n">
+        <v>139055</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B116" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C116" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D116" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E116" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F116"/>
       <c r="G116" s="1" t="n">
@@ -9204,10 +9552,10 @@
         <v>42124</v>
       </c>
       <c r="I116" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J116" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K116"/>
       <c r="L116"/>
@@ -9248,22 +9596,25 @@
       <c r="AA116" t="b">
         <v>0</v>
       </c>
+      <c r="AB116" t="n">
+        <v>128163</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B117" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C117" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D117" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E117" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F117"/>
       <c r="G117" s="1" t="n">
@@ -9273,10 +9624,10 @@
         <v>42125</v>
       </c>
       <c r="I117" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J117" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K117" t="n">
         <v>0.2</v>
@@ -9321,22 +9672,25 @@
       <c r="AA117" t="b">
         <v>0</v>
       </c>
+      <c r="AB117" t="n">
+        <v>128292</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B118" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C118" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D118" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E118" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F118"/>
       <c r="G118" s="1" t="n">
@@ -9346,10 +9700,10 @@
         <v>42125</v>
       </c>
       <c r="I118" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="J118" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K118" t="n">
         <v>1</v>
@@ -9394,22 +9748,25 @@
       <c r="AA118" t="b">
         <v>0</v>
       </c>
+      <c r="AB118" t="n">
+        <v>128293</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B119" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C119" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D119" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E119" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F119"/>
       <c r="G119" s="1" t="n">
@@ -9419,10 +9776,10 @@
         <v>42125</v>
       </c>
       <c r="I119" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J119" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K119" t="n">
         <v>1</v>
@@ -9467,22 +9824,25 @@
       <c r="AA119" t="b">
         <v>0</v>
       </c>
+      <c r="AB119" t="n">
+        <v>128294</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B120" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C120" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D120" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E120" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F120"/>
       <c r="G120" s="1" t="n">
@@ -9492,10 +9852,10 @@
         <v>42157</v>
       </c>
       <c r="I120" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="J120" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K120"/>
       <c r="L120"/>
@@ -9536,22 +9896,25 @@
       <c r="AA120" t="b">
         <v>0</v>
       </c>
+      <c r="AB120" t="n">
+        <v>130040</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B121" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C121" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D121" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E121" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F121"/>
       <c r="G121" s="1" t="n">
@@ -9561,10 +9924,10 @@
         <v>42212</v>
       </c>
       <c r="I121" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J121" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K121" t="n">
         <v>0.22656</v>
@@ -9609,22 +9972,25 @@
       <c r="AA121" t="b">
         <v>0</v>
       </c>
+      <c r="AB121" t="n">
+        <v>131957</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B122" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C122" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D122" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E122" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F122"/>
       <c r="G122" s="1" t="n">
@@ -9634,10 +10000,10 @@
         <v>42157</v>
       </c>
       <c r="I122" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J122" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K122" t="n">
         <v>0.2</v>
@@ -9682,22 +10048,25 @@
       <c r="AA122" t="b">
         <v>0</v>
       </c>
+      <c r="AB122" t="n">
+        <v>130041</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B123" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C123" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D123" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E123" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F123"/>
       <c r="G123" s="1" t="n">
@@ -9707,10 +10076,10 @@
         <v>42228</v>
       </c>
       <c r="I123" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J123" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K123" t="n">
         <v>0.011282</v>
@@ -9755,22 +10124,25 @@
       <c r="AA123" t="b">
         <v>0</v>
       </c>
+      <c r="AB123" t="n">
+        <v>132465</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B124" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C124" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D124" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E124" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F124"/>
       <c r="G124" s="1" t="n">
@@ -9780,10 +10152,10 @@
         <v>42333</v>
       </c>
       <c r="I124" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="J124" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K124" t="n">
         <v>1</v>
@@ -9828,22 +10200,25 @@
       <c r="AA124" t="b">
         <v>0</v>
       </c>
+      <c r="AB124" t="n">
+        <v>129287</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B125" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C125" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D125" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E125" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F125"/>
       <c r="G125" s="1" t="n">
@@ -9853,10 +10228,10 @@
         <v>43060</v>
       </c>
       <c r="I125" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J125" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K125" t="n">
         <v>0.239835</v>
@@ -9901,22 +10276,25 @@
       <c r="AA125" t="b">
         <v>0</v>
       </c>
+      <c r="AB125" t="n">
+        <v>130455</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B126" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C126" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D126" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E126" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F126"/>
       <c r="G126" s="1" t="n">
@@ -9926,10 +10304,10 @@
         <v>42250</v>
       </c>
       <c r="I126" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J126" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K126" t="n">
         <v>0.002196</v>
@@ -9974,22 +10352,25 @@
       <c r="AA126" t="b">
         <v>0</v>
       </c>
+      <c r="AB126" t="n">
+        <v>133167</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B127" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C127" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D127" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E127" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F127"/>
       <c r="G127" s="1" t="n">
@@ -9999,10 +10380,10 @@
         <v>42250</v>
       </c>
       <c r="I127" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J127" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K127"/>
       <c r="L127"/>
@@ -10043,22 +10424,25 @@
       <c r="AA127" t="b">
         <v>0</v>
       </c>
+      <c r="AB127" t="n">
+        <v>132464</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B128" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C128" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D128" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E128" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F128"/>
       <c r="G128" s="1" t="n">
@@ -10068,10 +10452,10 @@
         <v>42228</v>
       </c>
       <c r="I128" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J128" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K128" t="n">
         <v>0.005</v>
@@ -10116,22 +10500,25 @@
       <c r="AA128" t="b">
         <v>0</v>
       </c>
+      <c r="AB128" t="n">
+        <v>132466</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B129" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C129" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D129" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E129" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F129"/>
       <c r="G129" s="1" t="n">
@@ -10141,10 +10528,10 @@
         <v>42226</v>
       </c>
       <c r="I129" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J129" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K129"/>
       <c r="L129"/>
@@ -10185,22 +10572,25 @@
       <c r="AA129" t="b">
         <v>0</v>
       </c>
+      <c r="AB129" t="n">
+        <v>132415</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B130" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C130" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D130" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E130" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F130"/>
       <c r="G130" s="1" t="n">
@@ -10210,10 +10600,10 @@
         <v>42250</v>
       </c>
       <c r="I130" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J130" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K130" t="n">
         <v>0.004</v>
@@ -10258,22 +10648,25 @@
       <c r="AA130" t="b">
         <v>0</v>
       </c>
+      <c r="AB130" t="n">
+        <v>133168</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B131" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C131" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D131" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E131" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F131"/>
       <c r="G131" s="1" t="n">
@@ -10283,10 +10676,10 @@
         <v>42321</v>
       </c>
       <c r="I131" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J131" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K131"/>
       <c r="L131"/>
@@ -10326,6 +10719,9 @@
       <c r="Z131"/>
       <c r="AA131" t="b">
         <v>0</v>
+      </c>
+      <c r="AB131" t="n">
+        <v>135440</v>
       </c>
     </row>
   </sheetData>

--- a/output/Vanuatu_formatted.xlsx
+++ b/output/Vanuatu_formatted.xlsx
@@ -8802,29 +8802,33 @@
         <v>31</v>
       </c>
       <c r="E106" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="F106"/>
       <c r="G106" s="1" t="n">
-        <v>42114</v>
+        <v>42115</v>
       </c>
       <c r="H106" s="1" t="n">
-        <v>42115</v>
+        <v>42123</v>
       </c>
       <c r="I106" t="s">
-        <v>109</v>
+        <v>189</v>
       </c>
       <c r="J106" t="s">
-        <v>37</v>
-      </c>
-      <c r="K106"/>
-      <c r="L106"/>
+        <v>190</v>
+      </c>
+      <c r="K106" t="n">
+        <v>1.62417</v>
+      </c>
+      <c r="L106" t="n">
+        <v>0.923</v>
+      </c>
       <c r="M106" t="n">
-        <v>0.430644</v>
+        <v>1.759664</v>
       </c>
       <c r="N106"/>
       <c r="O106" t="n">
-        <v>0.430644</v>
+        <v>1.759664</v>
       </c>
       <c r="P106" t="n">
         <v>1</v>
@@ -8833,7 +8837,7 @@
         <v>0</v>
       </c>
       <c r="R106" t="n">
-        <v>0.430644</v>
+        <v>1.759664</v>
       </c>
       <c r="S106" t="n">
         <v>0</v>
@@ -8848,7 +8852,7 @@
         <v>0</v>
       </c>
       <c r="W106" t="n">
-        <v>0.430644</v>
+        <v>1.759664</v>
       </c>
       <c r="X106"/>
       <c r="Y106"/>
@@ -8857,7 +8861,7 @@
         <v>0</v>
       </c>
       <c r="AB106" t="n">
-        <v>127631</v>
+        <v>128068</v>
       </c>
     </row>
     <row r="107">
@@ -8874,29 +8878,33 @@
         <v>31</v>
       </c>
       <c r="E107" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="F107"/>
       <c r="G107" s="1" t="n">
-        <v>42114</v>
+        <v>42115</v>
       </c>
       <c r="H107" s="1" t="n">
-        <v>42115</v>
+        <v>42123</v>
       </c>
       <c r="I107" t="s">
-        <v>142</v>
+        <v>189</v>
       </c>
       <c r="J107" t="s">
-        <v>37</v>
-      </c>
-      <c r="K107"/>
-      <c r="L107"/>
+        <v>190</v>
+      </c>
+      <c r="K107" t="n">
+        <v>0.52416</v>
+      </c>
+      <c r="L107" t="n">
+        <v>0.923</v>
+      </c>
       <c r="M107" t="n">
-        <v>0.162461</v>
+        <v>0.567887</v>
       </c>
       <c r="N107"/>
       <c r="O107" t="n">
-        <v>0.162461</v>
+        <v>0.567887</v>
       </c>
       <c r="P107" t="n">
         <v>1</v>
@@ -8905,7 +8913,7 @@
         <v>0</v>
       </c>
       <c r="R107" t="n">
-        <v>0.162461</v>
+        <v>0.567887</v>
       </c>
       <c r="S107" t="n">
         <v>0</v>
@@ -8920,7 +8928,7 @@
         <v>0</v>
       </c>
       <c r="W107" t="n">
-        <v>0.162461</v>
+        <v>0.567887</v>
       </c>
       <c r="X107"/>
       <c r="Y107"/>
@@ -8929,7 +8937,7 @@
         <v>0</v>
       </c>
       <c r="AB107" t="n">
-        <v>127632</v>
+        <v>128070</v>
       </c>
     </row>
     <row r="108">
@@ -8946,29 +8954,33 @@
         <v>31</v>
       </c>
       <c r="E108" t="s">
-        <v>187</v>
+        <v>78</v>
       </c>
       <c r="F108"/>
       <c r="G108" s="1" t="n">
-        <v>42114</v>
+        <v>42118</v>
       </c>
       <c r="H108" s="1" t="n">
-        <v>42115</v>
+        <v>42144</v>
       </c>
       <c r="I108" t="s">
-        <v>111</v>
+        <v>191</v>
       </c>
       <c r="J108" t="s">
         <v>37</v>
       </c>
-      <c r="K108"/>
-      <c r="L108"/>
+      <c r="K108" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="L108" t="n">
+        <v>1.305995</v>
+      </c>
       <c r="M108" t="n">
-        <v>0.301417</v>
+        <v>0.038285</v>
       </c>
       <c r="N108"/>
       <c r="O108" t="n">
-        <v>0.301417</v>
+        <v>0.038285</v>
       </c>
       <c r="P108" t="n">
         <v>1</v>
@@ -8977,7 +8989,7 @@
         <v>0</v>
       </c>
       <c r="R108" t="n">
-        <v>0.301417</v>
+        <v>0.038285</v>
       </c>
       <c r="S108" t="n">
         <v>0</v>
@@ -8992,7 +9004,7 @@
         <v>0</v>
       </c>
       <c r="W108" t="n">
-        <v>0.301417</v>
+        <v>0.038285</v>
       </c>
       <c r="X108"/>
       <c r="Y108"/>
@@ -9001,7 +9013,7 @@
         <v>0</v>
       </c>
       <c r="AB108" t="n">
-        <v>127633</v>
+        <v>129326</v>
       </c>
     </row>
     <row r="109">
@@ -9018,29 +9030,33 @@
         <v>31</v>
       </c>
       <c r="E109" t="s">
-        <v>187</v>
+        <v>41</v>
       </c>
       <c r="F109"/>
       <c r="G109" s="1" t="n">
-        <v>42114</v>
+        <v>42118</v>
       </c>
       <c r="H109" s="1" t="n">
-        <v>43060</v>
+        <v>42199</v>
       </c>
       <c r="I109" t="s">
-        <v>143</v>
+        <v>191</v>
       </c>
       <c r="J109" t="s">
         <v>37</v>
       </c>
-      <c r="K109"/>
-      <c r="L109"/>
+      <c r="K109" t="n">
+        <v>0.238238</v>
+      </c>
+      <c r="L109" t="n">
+        <v>1.328004</v>
+      </c>
       <c r="M109" t="n">
-        <v>0.24009</v>
+        <v>0.179396</v>
       </c>
       <c r="N109"/>
       <c r="O109" t="n">
-        <v>0.24009</v>
+        <v>0.179396</v>
       </c>
       <c r="P109" t="n">
         <v>1</v>
@@ -9049,7 +9065,7 @@
         <v>0</v>
       </c>
       <c r="R109" t="n">
-        <v>0.24009</v>
+        <v>0.179396</v>
       </c>
       <c r="S109" t="n">
         <v>0</v>
@@ -9064,7 +9080,7 @@
         <v>0</v>
       </c>
       <c r="W109" t="n">
-        <v>0.24009</v>
+        <v>0.179396</v>
       </c>
       <c r="X109"/>
       <c r="Y109"/>
@@ -9073,7 +9089,7 @@
         <v>0</v>
       </c>
       <c r="AB109" t="n">
-        <v>127634</v>
+        <v>129329</v>
       </c>
     </row>
     <row r="110">
@@ -9090,29 +9106,33 @@
         <v>31</v>
       </c>
       <c r="E110" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="F110"/>
       <c r="G110" s="1" t="n">
-        <v>42114</v>
+        <v>42123</v>
       </c>
       <c r="H110" s="1" t="n">
-        <v>42115</v>
+        <v>42440</v>
       </c>
       <c r="I110" t="s">
-        <v>148</v>
+        <v>193</v>
       </c>
       <c r="J110" t="s">
-        <v>37</v>
-      </c>
-      <c r="K110"/>
-      <c r="L110"/>
+        <v>194</v>
+      </c>
+      <c r="K110" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="L110" t="n">
+        <v>0.904</v>
+      </c>
       <c r="M110" t="n">
-        <v>0.344981</v>
+        <v>0.044248</v>
       </c>
       <c r="N110"/>
       <c r="O110" t="n">
-        <v>0.344981</v>
+        <v>0.044248</v>
       </c>
       <c r="P110" t="n">
         <v>1</v>
@@ -9121,7 +9141,7 @@
         <v>0</v>
       </c>
       <c r="R110" t="n">
-        <v>0.344981</v>
+        <v>0.044248</v>
       </c>
       <c r="S110" t="n">
         <v>0</v>
@@ -9136,7 +9156,7 @@
         <v>0</v>
       </c>
       <c r="W110" t="n">
-        <v>0.344981</v>
+        <v>0.044248</v>
       </c>
       <c r="X110"/>
       <c r="Y110"/>
@@ -9145,7 +9165,7 @@
         <v>0</v>
       </c>
       <c r="AB110" t="n">
-        <v>127635</v>
+        <v>139055</v>
       </c>
     </row>
     <row r="111">
@@ -9162,33 +9182,29 @@
         <v>31</v>
       </c>
       <c r="E111" t="s">
-        <v>177</v>
+        <v>48</v>
       </c>
       <c r="F111"/>
       <c r="G111" s="1" t="n">
-        <v>42115</v>
+        <v>42124</v>
       </c>
       <c r="H111" s="1" t="n">
-        <v>42123</v>
+        <v>42124</v>
       </c>
       <c r="I111" t="s">
-        <v>189</v>
+        <v>159</v>
       </c>
       <c r="J111" t="s">
-        <v>190</v>
-      </c>
-      <c r="K111" t="n">
-        <v>1.62417</v>
-      </c>
-      <c r="L111" t="n">
-        <v>0.923</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="K111"/>
+      <c r="L111"/>
       <c r="M111" t="n">
-        <v>1.759664</v>
+        <v>0.34</v>
       </c>
       <c r="N111"/>
       <c r="O111" t="n">
-        <v>1.759664</v>
+        <v>0.34</v>
       </c>
       <c r="P111" t="n">
         <v>1</v>
@@ -9197,7 +9213,7 @@
         <v>0</v>
       </c>
       <c r="R111" t="n">
-        <v>1.759664</v>
+        <v>0.34</v>
       </c>
       <c r="S111" t="n">
         <v>0</v>
@@ -9212,7 +9228,7 @@
         <v>0</v>
       </c>
       <c r="W111" t="n">
-        <v>1.759664</v>
+        <v>0.34</v>
       </c>
       <c r="X111"/>
       <c r="Y111"/>
@@ -9221,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="AB111" t="n">
-        <v>128068</v>
+        <v>128163</v>
       </c>
     </row>
     <row r="112">
@@ -9238,33 +9254,33 @@
         <v>31</v>
       </c>
       <c r="E112" t="s">
-        <v>177</v>
+        <v>41</v>
       </c>
       <c r="F112"/>
       <c r="G112" s="1" t="n">
-        <v>42115</v>
+        <v>42124</v>
       </c>
       <c r="H112" s="1" t="n">
-        <v>42123</v>
+        <v>42125</v>
       </c>
       <c r="I112" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="J112" t="s">
-        <v>190</v>
+        <v>37</v>
       </c>
       <c r="K112" t="n">
-        <v>0.52416</v>
+        <v>0.2</v>
       </c>
       <c r="L112" t="n">
-        <v>0.923</v>
+        <v>1.298</v>
       </c>
       <c r="M112" t="n">
-        <v>0.567887</v>
+        <v>0.154083</v>
       </c>
       <c r="N112"/>
       <c r="O112" t="n">
-        <v>0.567887</v>
+        <v>0.154083</v>
       </c>
       <c r="P112" t="n">
         <v>1</v>
@@ -9273,7 +9289,7 @@
         <v>0</v>
       </c>
       <c r="R112" t="n">
-        <v>0.567887</v>
+        <v>0.154083</v>
       </c>
       <c r="S112" t="n">
         <v>0</v>
@@ -9288,7 +9304,7 @@
         <v>0</v>
       </c>
       <c r="W112" t="n">
-        <v>0.567887</v>
+        <v>0.154083</v>
       </c>
       <c r="X112"/>
       <c r="Y112"/>
@@ -9297,7 +9313,7 @@
         <v>0</v>
       </c>
       <c r="AB112" t="n">
-        <v>128070</v>
+        <v>128292</v>
       </c>
     </row>
     <row r="113">
@@ -9314,33 +9330,33 @@
         <v>31</v>
       </c>
       <c r="E113" t="s">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="F113"/>
       <c r="G113" s="1" t="n">
-        <v>42118</v>
+        <v>42124</v>
       </c>
       <c r="H113" s="1" t="n">
-        <v>42144</v>
+        <v>42125</v>
       </c>
       <c r="I113" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="J113" t="s">
         <v>37</v>
       </c>
       <c r="K113" t="n">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="L113" t="n">
-        <v>1.305995</v>
+        <v>1.298</v>
       </c>
       <c r="M113" t="n">
-        <v>0.038285</v>
+        <v>0.770416</v>
       </c>
       <c r="N113"/>
       <c r="O113" t="n">
-        <v>0.038285</v>
+        <v>0.770416</v>
       </c>
       <c r="P113" t="n">
         <v>1</v>
@@ -9349,7 +9365,7 @@
         <v>0</v>
       </c>
       <c r="R113" t="n">
-        <v>0.038285</v>
+        <v>0.770416</v>
       </c>
       <c r="S113" t="n">
         <v>0</v>
@@ -9364,7 +9380,7 @@
         <v>0</v>
       </c>
       <c r="W113" t="n">
-        <v>0.038285</v>
+        <v>0.770416</v>
       </c>
       <c r="X113"/>
       <c r="Y113"/>
@@ -9373,7 +9389,7 @@
         <v>0</v>
       </c>
       <c r="AB113" t="n">
-        <v>129326</v>
+        <v>128293</v>
       </c>
     </row>
     <row r="114">
@@ -9394,29 +9410,29 @@
       </c>
       <c r="F114"/>
       <c r="G114" s="1" t="n">
-        <v>42118</v>
+        <v>42124</v>
       </c>
       <c r="H114" s="1" t="n">
-        <v>42199</v>
+        <v>42125</v>
       </c>
       <c r="I114" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="J114" t="s">
         <v>37</v>
       </c>
       <c r="K114" t="n">
-        <v>0.238238</v>
+        <v>1</v>
       </c>
       <c r="L114" t="n">
-        <v>1.328004</v>
+        <v>1.298</v>
       </c>
       <c r="M114" t="n">
-        <v>0.179396</v>
+        <v>0.770416</v>
       </c>
       <c r="N114"/>
       <c r="O114" t="n">
-        <v>0.179396</v>
+        <v>0.770416</v>
       </c>
       <c r="P114" t="n">
         <v>1</v>
@@ -9425,7 +9441,7 @@
         <v>0</v>
       </c>
       <c r="R114" t="n">
-        <v>0.179396</v>
+        <v>0.770416</v>
       </c>
       <c r="S114" t="n">
         <v>0</v>
@@ -9440,7 +9456,7 @@
         <v>0</v>
       </c>
       <c r="W114" t="n">
-        <v>0.179396</v>
+        <v>0.770416</v>
       </c>
       <c r="X114"/>
       <c r="Y114"/>
@@ -9449,7 +9465,7 @@
         <v>0</v>
       </c>
       <c r="AB114" t="n">
-        <v>129329</v>
+        <v>128294</v>
       </c>
     </row>
     <row r="115">
@@ -9466,33 +9482,29 @@
         <v>31</v>
       </c>
       <c r="E115" t="s">
-        <v>192</v>
+        <v>35</v>
       </c>
       <c r="F115"/>
       <c r="G115" s="1" t="n">
-        <v>42123</v>
+        <v>42125</v>
       </c>
       <c r="H115" s="1" t="n">
-        <v>42440</v>
+        <v>42157</v>
       </c>
       <c r="I115" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="J115" t="s">
-        <v>194</v>
-      </c>
-      <c r="K115" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="L115" t="n">
-        <v>0.904</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="K115"/>
+      <c r="L115"/>
       <c r="M115" t="n">
-        <v>0.044248</v>
+        <v>0.008038</v>
       </c>
       <c r="N115"/>
       <c r="O115" t="n">
-        <v>0.044248</v>
+        <v>0.008038</v>
       </c>
       <c r="P115" t="n">
         <v>1</v>
@@ -9501,10 +9513,10 @@
         <v>0</v>
       </c>
       <c r="R115" t="n">
-        <v>0.044248</v>
+        <v>0</v>
       </c>
       <c r="S115" t="n">
-        <v>0</v>
+        <v>0.008038</v>
       </c>
       <c r="T115" t="n">
         <v>0</v>
@@ -9516,7 +9528,7 @@
         <v>0</v>
       </c>
       <c r="W115" t="n">
-        <v>0.044248</v>
+        <v>0.008038</v>
       </c>
       <c r="X115"/>
       <c r="Y115"/>
@@ -9525,7 +9537,7 @@
         <v>0</v>
       </c>
       <c r="AB115" t="n">
-        <v>139055</v>
+        <v>130040</v>
       </c>
     </row>
     <row r="116">
@@ -9542,29 +9554,33 @@
         <v>31</v>
       </c>
       <c r="E116" t="s">
-        <v>48</v>
+        <v>199</v>
       </c>
       <c r="F116"/>
       <c r="G116" s="1" t="n">
-        <v>42124</v>
+        <v>42125</v>
       </c>
       <c r="H116" s="1" t="n">
-        <v>42124</v>
+        <v>42212</v>
       </c>
       <c r="I116" t="s">
-        <v>159</v>
+        <v>200</v>
       </c>
       <c r="J116" t="s">
-        <v>37</v>
-      </c>
-      <c r="K116"/>
-      <c r="L116"/>
+        <v>201</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0.22656</v>
+      </c>
+      <c r="L116" t="n">
+        <v>0.948</v>
+      </c>
       <c r="M116" t="n">
-        <v>0.34</v>
+        <v>0.238987</v>
       </c>
       <c r="N116"/>
       <c r="O116" t="n">
-        <v>0.34</v>
+        <v>0.238987</v>
       </c>
       <c r="P116" t="n">
         <v>1</v>
@@ -9573,10 +9589,10 @@
         <v>0</v>
       </c>
       <c r="R116" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="S116" t="n">
-        <v>0</v>
+        <v>0.238987</v>
       </c>
       <c r="T116" t="n">
         <v>0</v>
@@ -9588,7 +9604,7 @@
         <v>0</v>
       </c>
       <c r="W116" t="n">
-        <v>0.34</v>
+        <v>0.238987</v>
       </c>
       <c r="X116"/>
       <c r="Y116"/>
@@ -9597,7 +9613,7 @@
         <v>0</v>
       </c>
       <c r="AB116" t="n">
-        <v>128163</v>
+        <v>131957</v>
       </c>
     </row>
     <row r="117">
@@ -9614,17 +9630,17 @@
         <v>31</v>
       </c>
       <c r="E117" t="s">
-        <v>41</v>
+        <v>202</v>
       </c>
       <c r="F117"/>
       <c r="G117" s="1" t="n">
-        <v>42124</v>
+        <v>42129</v>
       </c>
       <c r="H117" s="1" t="n">
-        <v>42125</v>
+        <v>42157</v>
       </c>
       <c r="I117" t="s">
-        <v>195</v>
+        <v>61</v>
       </c>
       <c r="J117" t="s">
         <v>37</v>
@@ -9633,14 +9649,14 @@
         <v>0.2</v>
       </c>
       <c r="L117" t="n">
-        <v>1.298</v>
+        <v>0.904</v>
       </c>
       <c r="M117" t="n">
-        <v>0.154083</v>
+        <v>0.221239</v>
       </c>
       <c r="N117"/>
       <c r="O117" t="n">
-        <v>0.154083</v>
+        <v>0.221239</v>
       </c>
       <c r="P117" t="n">
         <v>1</v>
@@ -9649,10 +9665,10 @@
         <v>0</v>
       </c>
       <c r="R117" t="n">
-        <v>0.154083</v>
+        <v>0</v>
       </c>
       <c r="S117" t="n">
-        <v>0</v>
+        <v>0.221239</v>
       </c>
       <c r="T117" t="n">
         <v>0</v>
@@ -9664,7 +9680,7 @@
         <v>0</v>
       </c>
       <c r="W117" t="n">
-        <v>0.154083</v>
+        <v>0.221239</v>
       </c>
       <c r="X117"/>
       <c r="Y117"/>
@@ -9673,7 +9689,7 @@
         <v>0</v>
       </c>
       <c r="AB117" t="n">
-        <v>128292</v>
+        <v>130041</v>
       </c>
     </row>
     <row r="118">
@@ -9690,33 +9706,33 @@
         <v>31</v>
       </c>
       <c r="E118" t="s">
-        <v>41</v>
+        <v>203</v>
       </c>
       <c r="F118"/>
       <c r="G118" s="1" t="n">
-        <v>42124</v>
+        <v>42131</v>
       </c>
       <c r="H118" s="1" t="n">
-        <v>42125</v>
+        <v>42228</v>
       </c>
       <c r="I118" t="s">
-        <v>196</v>
+        <v>61</v>
       </c>
       <c r="J118" t="s">
         <v>37</v>
       </c>
       <c r="K118" t="n">
-        <v>1</v>
+        <v>0.011282</v>
       </c>
       <c r="L118" t="n">
-        <v>1.298</v>
+        <v>0.917982</v>
       </c>
       <c r="M118" t="n">
-        <v>0.770416</v>
+        <v>0.01229</v>
       </c>
       <c r="N118"/>
       <c r="O118" t="n">
-        <v>0.770416</v>
+        <v>0.01229</v>
       </c>
       <c r="P118" t="n">
         <v>1</v>
@@ -9725,10 +9741,10 @@
         <v>0</v>
       </c>
       <c r="R118" t="n">
-        <v>0.770416</v>
+        <v>0</v>
       </c>
       <c r="S118" t="n">
-        <v>0</v>
+        <v>0.01229</v>
       </c>
       <c r="T118" t="n">
         <v>0</v>
@@ -9740,7 +9756,7 @@
         <v>0</v>
       </c>
       <c r="W118" t="n">
-        <v>0.770416</v>
+        <v>0.01229</v>
       </c>
       <c r="X118"/>
       <c r="Y118"/>
@@ -9749,7 +9765,7 @@
         <v>0</v>
       </c>
       <c r="AB118" t="n">
-        <v>128293</v>
+        <v>132465</v>
       </c>
     </row>
     <row r="119">
@@ -9766,33 +9782,33 @@
         <v>31</v>
       </c>
       <c r="E119" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F119"/>
       <c r="G119" s="1" t="n">
-        <v>42124</v>
+        <v>42137</v>
       </c>
       <c r="H119" s="1" t="n">
-        <v>42125</v>
+        <v>42333</v>
       </c>
       <c r="I119" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="J119" t="s">
-        <v>37</v>
+        <v>205</v>
       </c>
       <c r="K119" t="n">
         <v>1</v>
       </c>
       <c r="L119" t="n">
-        <v>1.298</v>
+        <v>0.904</v>
       </c>
       <c r="M119" t="n">
-        <v>0.770416</v>
+        <v>1.106195</v>
       </c>
       <c r="N119"/>
       <c r="O119" t="n">
-        <v>0.770416</v>
+        <v>1.106195</v>
       </c>
       <c r="P119" t="n">
         <v>1</v>
@@ -9801,10 +9817,10 @@
         <v>0</v>
       </c>
       <c r="R119" t="n">
-        <v>0.770416</v>
+        <v>0</v>
       </c>
       <c r="S119" t="n">
-        <v>0</v>
+        <v>1.106195</v>
       </c>
       <c r="T119" t="n">
         <v>0</v>
@@ -9816,7 +9832,7 @@
         <v>0</v>
       </c>
       <c r="W119" t="n">
-        <v>0.770416</v>
+        <v>1.106195</v>
       </c>
       <c r="X119"/>
       <c r="Y119"/>
@@ -9825,7 +9841,7 @@
         <v>0</v>
       </c>
       <c r="AB119" t="n">
-        <v>128294</v>
+        <v>129287</v>
       </c>
     </row>
     <row r="120">
@@ -9842,29 +9858,33 @@
         <v>31</v>
       </c>
       <c r="E120" t="s">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="F120"/>
       <c r="G120" s="1" t="n">
-        <v>42125</v>
+        <v>42160</v>
       </c>
       <c r="H120" s="1" t="n">
-        <v>42157</v>
+        <v>43060</v>
       </c>
       <c r="I120" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="J120" t="s">
-        <v>37</v>
-      </c>
-      <c r="K120"/>
-      <c r="L120"/>
+        <v>207</v>
+      </c>
+      <c r="K120" t="n">
+        <v>0.239835</v>
+      </c>
+      <c r="L120" t="n">
+        <v>0.918</v>
+      </c>
       <c r="M120" t="n">
-        <v>0.008038</v>
+        <v>0.261258</v>
       </c>
       <c r="N120"/>
       <c r="O120" t="n">
-        <v>0.008038</v>
+        <v>0.261258</v>
       </c>
       <c r="P120" t="n">
         <v>1</v>
@@ -9876,10 +9896,10 @@
         <v>0</v>
       </c>
       <c r="S120" t="n">
-        <v>0.008038</v>
+        <v>0</v>
       </c>
       <c r="T120" t="n">
-        <v>0</v>
+        <v>0.261258</v>
       </c>
       <c r="U120" t="n">
         <v>0</v>
@@ -9888,7 +9908,7 @@
         <v>0</v>
       </c>
       <c r="W120" t="n">
-        <v>0.008038</v>
+        <v>0.261258</v>
       </c>
       <c r="X120"/>
       <c r="Y120"/>
@@ -9897,7 +9917,7 @@
         <v>0</v>
       </c>
       <c r="AB120" t="n">
-        <v>130040</v>
+        <v>130455</v>
       </c>
     </row>
     <row r="121">
@@ -9914,33 +9934,33 @@
         <v>31</v>
       </c>
       <c r="E121" t="s">
-        <v>199</v>
+        <v>115</v>
       </c>
       <c r="F121"/>
       <c r="G121" s="1" t="n">
-        <v>42125</v>
+        <v>42168</v>
       </c>
       <c r="H121" s="1" t="n">
-        <v>42212</v>
+        <v>42250</v>
       </c>
       <c r="I121" t="s">
-        <v>200</v>
+        <v>61</v>
       </c>
       <c r="J121" t="s">
-        <v>201</v>
+        <v>37</v>
       </c>
       <c r="K121" t="n">
-        <v>0.22656</v>
+        <v>0.002196</v>
       </c>
       <c r="L121" t="n">
-        <v>0.948</v>
+        <v>1.18319</v>
       </c>
       <c r="M121" t="n">
-        <v>0.238987</v>
+        <v>0.001856</v>
       </c>
       <c r="N121"/>
       <c r="O121" t="n">
-        <v>0.238987</v>
+        <v>0.001856</v>
       </c>
       <c r="P121" t="n">
         <v>1</v>
@@ -9952,10 +9972,10 @@
         <v>0</v>
       </c>
       <c r="S121" t="n">
-        <v>0.238987</v>
+        <v>0</v>
       </c>
       <c r="T121" t="n">
-        <v>0</v>
+        <v>0.001856</v>
       </c>
       <c r="U121" t="n">
         <v>0</v>
@@ -9964,7 +9984,7 @@
         <v>0</v>
       </c>
       <c r="W121" t="n">
-        <v>0.238987</v>
+        <v>0.001856</v>
       </c>
       <c r="X121"/>
       <c r="Y121"/>
@@ -9973,7 +9993,7 @@
         <v>0</v>
       </c>
       <c r="AB121" t="n">
-        <v>131957</v>
+        <v>133167</v>
       </c>
     </row>
     <row r="122">
@@ -9990,14 +10010,14 @@
         <v>31</v>
       </c>
       <c r="E122" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="F122"/>
       <c r="G122" s="1" t="n">
-        <v>42129</v>
+        <v>42186</v>
       </c>
       <c r="H122" s="1" t="n">
-        <v>42157</v>
+        <v>42250</v>
       </c>
       <c r="I122" t="s">
         <v>61</v>
@@ -10005,18 +10025,14 @@
       <c r="J122" t="s">
         <v>37</v>
       </c>
-      <c r="K122" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="L122" t="n">
-        <v>0.904</v>
-      </c>
+      <c r="K122"/>
+      <c r="L122"/>
       <c r="M122" t="n">
-        <v>0.221239</v>
+        <v>0.109211</v>
       </c>
       <c r="N122"/>
       <c r="O122" t="n">
-        <v>0.221239</v>
+        <v>0.109211</v>
       </c>
       <c r="P122" t="n">
         <v>1</v>
@@ -10028,19 +10044,19 @@
         <v>0</v>
       </c>
       <c r="S122" t="n">
-        <v>0.221239</v>
+        <v>0</v>
       </c>
       <c r="T122" t="n">
         <v>0</v>
       </c>
       <c r="U122" t="n">
-        <v>0</v>
+        <v>0.109211</v>
       </c>
       <c r="V122" t="n">
         <v>0</v>
       </c>
       <c r="W122" t="n">
-        <v>0.221239</v>
+        <v>0.109211</v>
       </c>
       <c r="X122"/>
       <c r="Y122"/>
@@ -10049,7 +10065,7 @@
         <v>0</v>
       </c>
       <c r="AB122" t="n">
-        <v>130041</v>
+        <v>132464</v>
       </c>
     </row>
     <row r="123">
@@ -10066,11 +10082,11 @@
         <v>31</v>
       </c>
       <c r="E123" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="F123"/>
       <c r="G123" s="1" t="n">
-        <v>42131</v>
+        <v>42193</v>
       </c>
       <c r="H123" s="1" t="n">
         <v>42228</v>
@@ -10082,17 +10098,17 @@
         <v>37</v>
       </c>
       <c r="K123" t="n">
-        <v>0.011282</v>
+        <v>0.005</v>
       </c>
       <c r="L123" t="n">
-        <v>0.917982</v>
+        <v>0.893975</v>
       </c>
       <c r="M123" t="n">
-        <v>0.01229</v>
+        <v>0.005593</v>
       </c>
       <c r="N123"/>
       <c r="O123" t="n">
-        <v>0.01229</v>
+        <v>0.005593</v>
       </c>
       <c r="P123" t="n">
         <v>1</v>
@@ -10104,19 +10120,19 @@
         <v>0</v>
       </c>
       <c r="S123" t="n">
-        <v>0.01229</v>
+        <v>0</v>
       </c>
       <c r="T123" t="n">
         <v>0</v>
       </c>
       <c r="U123" t="n">
-        <v>0</v>
+        <v>0.005593</v>
       </c>
       <c r="V123" t="n">
         <v>0</v>
       </c>
       <c r="W123" t="n">
-        <v>0.01229</v>
+        <v>0.005593</v>
       </c>
       <c r="X123"/>
       <c r="Y123"/>
@@ -10125,7 +10141,7 @@
         <v>0</v>
       </c>
       <c r="AB123" t="n">
-        <v>132465</v>
+        <v>132466</v>
       </c>
     </row>
     <row r="124">
@@ -10142,33 +10158,29 @@
         <v>31</v>
       </c>
       <c r="E124" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="F124"/>
       <c r="G124" s="1" t="n">
-        <v>42137</v>
+        <v>42201</v>
       </c>
       <c r="H124" s="1" t="n">
-        <v>42333</v>
+        <v>42226</v>
       </c>
       <c r="I124" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="J124" t="s">
-        <v>205</v>
-      </c>
-      <c r="K124" t="n">
-        <v>1</v>
-      </c>
-      <c r="L124" t="n">
-        <v>0.904</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="K124"/>
+      <c r="L124"/>
       <c r="M124" t="n">
-        <v>1.106195</v>
+        <v>0.1</v>
       </c>
       <c r="N124"/>
       <c r="O124" t="n">
-        <v>1.106195</v>
+        <v>0.1</v>
       </c>
       <c r="P124" t="n">
         <v>1</v>
@@ -10180,19 +10192,19 @@
         <v>0</v>
       </c>
       <c r="S124" t="n">
-        <v>1.106195</v>
+        <v>0</v>
       </c>
       <c r="T124" t="n">
         <v>0</v>
       </c>
       <c r="U124" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="V124" t="n">
         <v>0</v>
       </c>
       <c r="W124" t="n">
-        <v>1.106195</v>
+        <v>0.1</v>
       </c>
       <c r="X124"/>
       <c r="Y124"/>
@@ -10201,7 +10213,7 @@
         <v>0</v>
       </c>
       <c r="AB124" t="n">
-        <v>129287</v>
+        <v>132415</v>
       </c>
     </row>
     <row r="125">
@@ -10218,33 +10230,33 @@
         <v>31</v>
       </c>
       <c r="E125" t="s">
-        <v>105</v>
+        <v>211</v>
       </c>
       <c r="F125"/>
       <c r="G125" s="1" t="n">
-        <v>42160</v>
+        <v>42213</v>
       </c>
       <c r="H125" s="1" t="n">
-        <v>43060</v>
+        <v>42250</v>
       </c>
       <c r="I125" t="s">
-        <v>206</v>
+        <v>61</v>
       </c>
       <c r="J125" t="s">
-        <v>207</v>
+        <v>37</v>
       </c>
       <c r="K125" t="n">
-        <v>0.239835</v>
+        <v>0.004</v>
       </c>
       <c r="L125" t="n">
-        <v>0.918</v>
+        <v>0.914913</v>
       </c>
       <c r="M125" t="n">
-        <v>0.261258</v>
+        <v>0.004372</v>
       </c>
       <c r="N125"/>
       <c r="O125" t="n">
-        <v>0.261258</v>
+        <v>0.004372</v>
       </c>
       <c r="P125" t="n">
         <v>1</v>
@@ -10259,16 +10271,16 @@
         <v>0</v>
       </c>
       <c r="T125" t="n">
-        <v>0.261258</v>
+        <v>0</v>
       </c>
       <c r="U125" t="n">
-        <v>0</v>
+        <v>0.004372</v>
       </c>
       <c r="V125" t="n">
         <v>0</v>
       </c>
       <c r="W125" t="n">
-        <v>0.261258</v>
+        <v>0.004372</v>
       </c>
       <c r="X125"/>
       <c r="Y125"/>
@@ -10277,7 +10289,7 @@
         <v>0</v>
       </c>
       <c r="AB125" t="n">
-        <v>130455</v>
+        <v>133168</v>
       </c>
     </row>
     <row r="126">
@@ -10294,14 +10306,14 @@
         <v>31</v>
       </c>
       <c r="E126" t="s">
-        <v>115</v>
+        <v>144</v>
       </c>
       <c r="F126"/>
       <c r="G126" s="1" t="n">
-        <v>42168</v>
+        <v>42304</v>
       </c>
       <c r="H126" s="1" t="n">
-        <v>42250</v>
+        <v>42321</v>
       </c>
       <c r="I126" t="s">
         <v>61</v>
@@ -10309,18 +10321,14 @@
       <c r="J126" t="s">
         <v>37</v>
       </c>
-      <c r="K126" t="n">
-        <v>0.002196</v>
-      </c>
-      <c r="L126" t="n">
-        <v>1.18319</v>
-      </c>
+      <c r="K126"/>
+      <c r="L126"/>
       <c r="M126" t="n">
-        <v>0.001856</v>
+        <v>0.5</v>
       </c>
       <c r="N126"/>
       <c r="O126" t="n">
-        <v>0.001856</v>
+        <v>0.5</v>
       </c>
       <c r="P126" t="n">
         <v>1</v>
@@ -10335,16 +10343,16 @@
         <v>0</v>
       </c>
       <c r="T126" t="n">
-        <v>0.001856</v>
+        <v>0</v>
       </c>
       <c r="U126" t="n">
         <v>0</v>
       </c>
       <c r="V126" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="W126" t="n">
-        <v>0.001856</v>
+        <v>0.5</v>
       </c>
       <c r="X126"/>
       <c r="Y126"/>
@@ -10353,374 +10361,6 @@
         <v>0</v>
       </c>
       <c r="AB126" t="n">
-        <v>133167</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="s">
-        <v>28</v>
-      </c>
-      <c r="B127" t="s">
-        <v>29</v>
-      </c>
-      <c r="C127" t="s">
-        <v>30</v>
-      </c>
-      <c r="D127" t="s">
-        <v>31</v>
-      </c>
-      <c r="E127" t="s">
-        <v>208</v>
-      </c>
-      <c r="F127"/>
-      <c r="G127" s="1" t="n">
-        <v>42186</v>
-      </c>
-      <c r="H127" s="1" t="n">
-        <v>42250</v>
-      </c>
-      <c r="I127" t="s">
-        <v>61</v>
-      </c>
-      <c r="J127" t="s">
-        <v>37</v>
-      </c>
-      <c r="K127"/>
-      <c r="L127"/>
-      <c r="M127" t="n">
-        <v>0.109211</v>
-      </c>
-      <c r="N127"/>
-      <c r="O127" t="n">
-        <v>0.109211</v>
-      </c>
-      <c r="P127" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q127" t="n">
-        <v>0</v>
-      </c>
-      <c r="R127" t="n">
-        <v>0</v>
-      </c>
-      <c r="S127" t="n">
-        <v>0</v>
-      </c>
-      <c r="T127" t="n">
-        <v>0</v>
-      </c>
-      <c r="U127" t="n">
-        <v>0.109211</v>
-      </c>
-      <c r="V127" t="n">
-        <v>0</v>
-      </c>
-      <c r="W127" t="n">
-        <v>0.109211</v>
-      </c>
-      <c r="X127"/>
-      <c r="Y127"/>
-      <c r="Z127"/>
-      <c r="AA127" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB127" t="n">
-        <v>132464</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="s">
-        <v>28</v>
-      </c>
-      <c r="B128" t="s">
-        <v>29</v>
-      </c>
-      <c r="C128" t="s">
-        <v>30</v>
-      </c>
-      <c r="D128" t="s">
-        <v>31</v>
-      </c>
-      <c r="E128" t="s">
-        <v>209</v>
-      </c>
-      <c r="F128"/>
-      <c r="G128" s="1" t="n">
-        <v>42193</v>
-      </c>
-      <c r="H128" s="1" t="n">
-        <v>42228</v>
-      </c>
-      <c r="I128" t="s">
-        <v>61</v>
-      </c>
-      <c r="J128" t="s">
-        <v>37</v>
-      </c>
-      <c r="K128" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="L128" t="n">
-        <v>0.893975</v>
-      </c>
-      <c r="M128" t="n">
-        <v>0.005593</v>
-      </c>
-      <c r="N128"/>
-      <c r="O128" t="n">
-        <v>0.005593</v>
-      </c>
-      <c r="P128" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q128" t="n">
-        <v>0</v>
-      </c>
-      <c r="R128" t="n">
-        <v>0</v>
-      </c>
-      <c r="S128" t="n">
-        <v>0</v>
-      </c>
-      <c r="T128" t="n">
-        <v>0</v>
-      </c>
-      <c r="U128" t="n">
-        <v>0.005593</v>
-      </c>
-      <c r="V128" t="n">
-        <v>0</v>
-      </c>
-      <c r="W128" t="n">
-        <v>0.005593</v>
-      </c>
-      <c r="X128"/>
-      <c r="Y128"/>
-      <c r="Z128"/>
-      <c r="AA128" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB128" t="n">
-        <v>132466</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="s">
-        <v>28</v>
-      </c>
-      <c r="B129" t="s">
-        <v>29</v>
-      </c>
-      <c r="C129" t="s">
-        <v>30</v>
-      </c>
-      <c r="D129" t="s">
-        <v>31</v>
-      </c>
-      <c r="E129" t="s">
-        <v>69</v>
-      </c>
-      <c r="F129"/>
-      <c r="G129" s="1" t="n">
-        <v>42201</v>
-      </c>
-      <c r="H129" s="1" t="n">
-        <v>42226</v>
-      </c>
-      <c r="I129" t="s">
-        <v>210</v>
-      </c>
-      <c r="J129" t="s">
-        <v>37</v>
-      </c>
-      <c r="K129"/>
-      <c r="L129"/>
-      <c r="M129" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="N129"/>
-      <c r="O129" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="P129" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q129" t="n">
-        <v>0</v>
-      </c>
-      <c r="R129" t="n">
-        <v>0</v>
-      </c>
-      <c r="S129" t="n">
-        <v>0</v>
-      </c>
-      <c r="T129" t="n">
-        <v>0</v>
-      </c>
-      <c r="U129" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="V129" t="n">
-        <v>0</v>
-      </c>
-      <c r="W129" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="X129"/>
-      <c r="Y129"/>
-      <c r="Z129"/>
-      <c r="AA129" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB129" t="n">
-        <v>132415</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="s">
-        <v>28</v>
-      </c>
-      <c r="B130" t="s">
-        <v>29</v>
-      </c>
-      <c r="C130" t="s">
-        <v>30</v>
-      </c>
-      <c r="D130" t="s">
-        <v>31</v>
-      </c>
-      <c r="E130" t="s">
-        <v>211</v>
-      </c>
-      <c r="F130"/>
-      <c r="G130" s="1" t="n">
-        <v>42213</v>
-      </c>
-      <c r="H130" s="1" t="n">
-        <v>42250</v>
-      </c>
-      <c r="I130" t="s">
-        <v>61</v>
-      </c>
-      <c r="J130" t="s">
-        <v>37</v>
-      </c>
-      <c r="K130" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="L130" t="n">
-        <v>0.914913</v>
-      </c>
-      <c r="M130" t="n">
-        <v>0.004372</v>
-      </c>
-      <c r="N130"/>
-      <c r="O130" t="n">
-        <v>0.004372</v>
-      </c>
-      <c r="P130" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q130" t="n">
-        <v>0</v>
-      </c>
-      <c r="R130" t="n">
-        <v>0</v>
-      </c>
-      <c r="S130" t="n">
-        <v>0</v>
-      </c>
-      <c r="T130" t="n">
-        <v>0</v>
-      </c>
-      <c r="U130" t="n">
-        <v>0.004372</v>
-      </c>
-      <c r="V130" t="n">
-        <v>0</v>
-      </c>
-      <c r="W130" t="n">
-        <v>0.004372</v>
-      </c>
-      <c r="X130"/>
-      <c r="Y130"/>
-      <c r="Z130"/>
-      <c r="AA130" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB130" t="n">
-        <v>133168</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="s">
-        <v>28</v>
-      </c>
-      <c r="B131" t="s">
-        <v>29</v>
-      </c>
-      <c r="C131" t="s">
-        <v>30</v>
-      </c>
-      <c r="D131" t="s">
-        <v>31</v>
-      </c>
-      <c r="E131" t="s">
-        <v>144</v>
-      </c>
-      <c r="F131"/>
-      <c r="G131" s="1" t="n">
-        <v>42304</v>
-      </c>
-      <c r="H131" s="1" t="n">
-        <v>42321</v>
-      </c>
-      <c r="I131" t="s">
-        <v>61</v>
-      </c>
-      <c r="J131" t="s">
-        <v>37</v>
-      </c>
-      <c r="K131"/>
-      <c r="L131"/>
-      <c r="M131" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N131"/>
-      <c r="O131" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="P131" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q131" t="n">
-        <v>0</v>
-      </c>
-      <c r="R131" t="n">
-        <v>0</v>
-      </c>
-      <c r="S131" t="n">
-        <v>0</v>
-      </c>
-      <c r="T131" t="n">
-        <v>0</v>
-      </c>
-      <c r="U131" t="n">
-        <v>0</v>
-      </c>
-      <c r="V131" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="W131" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="X131"/>
-      <c r="Y131"/>
-      <c r="Z131"/>
-      <c r="AA131" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB131" t="n">
         <v>135440</v>
       </c>
     </row>

--- a/output/Vanuatu_formatted.xlsx
+++ b/output/Vanuatu_formatted.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="242">
   <si>
     <t xml:space="preserve">Country Code</t>
   </si>
@@ -98,6 +98,12 @@
     <t xml:space="preserve">Flow ID</t>
   </si>
   <si>
+    <t xml:space="preserve">Recipient Organisation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recipient Organisation Type</t>
+  </si>
+  <si>
     <t xml:space="preserve">VUT</t>
   </si>
   <si>
@@ -119,6 +125,12 @@
     <t xml:space="preserve">ECHO/-XA/BUD/2015/91006, [EDRIS:-30748]</t>
   </si>
   <si>
+    <t xml:space="preserve">Save the Children</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NGO</t>
+  </si>
+  <si>
     <t xml:space="preserve">Private (individuals &amp; organizations)</t>
   </si>
   <si>
@@ -128,6 +140,24 @@
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">New Zealand, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deployment of a Disaster Manager from the NZ Ministry of Civil Defence and Emergency Management to support the National Disaster Management Office of Vanuatu.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Replenishment of relief supplies rapidly distributed by in country NGOs. Supplies were distributed in Port Villa and Tanna by ADRA, World Vision and UNICEF.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A12188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transport of NZ Government and NZ Red Cross supplies including generators, chainsaw packs, tarpaulins, collapsible water bottles and first aid kits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A12194</t>
+  </si>
+  <si>
     <t xml:space="preserve">Denmark, Government of</t>
   </si>
   <si>
@@ -137,25 +167,37 @@
     <t xml:space="preserve">46.H.7-4-147, [EDRIS:69942]</t>
   </si>
   <si>
-    <t xml:space="preserve">New Zealand, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deployment of a Disaster Manager from the NZ Ministry of Civil Defence and Emergency Management to support the National Disaster Management Office of Vanuatu.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Replenishment of relief supplies rapidly distributed by in country NGOs. Supplies were distributed in Port Villa and Tanna by ADRA, World Vision and UNICEF.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A12188</t>
-  </si>
-  <si>
     <t xml:space="preserve">Contribution through the High Commission to the Government of Vanuatu following Tropical Cyclone Pam.</t>
   </si>
   <si>
-    <t xml:space="preserve">Transport of NZ Government and NZ Red Cross supplies including generators, chainsaw packs, tarpaulins, collapsible water bottles and first aid kits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A12194</t>
+    <t xml:space="preserve">Vanuatu, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Government</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deployment of NZ Government relief supplies including building supplies and food on board the HMNZF Canterbury.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deployment of NZ Government supplies and NZ Red Cross supplies on NZ Defence Force assets.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NZ Government contribution through NZ NGOs working through in country partners.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A12187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Korea, Republic of, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vanuatu Emergency Response For Internally Displaced Persons And Technical Assistance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">International Organization for Migration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UN agency</t>
   </si>
   <si>
     <t xml:space="preserve">Japan, Government of</t>
@@ -164,22 +206,19 @@
     <t xml:space="preserve">Emergency Assistance to Vanuatu in Response to the Cyclone Disaster (Sleeping pads, Plastic sheets)</t>
   </si>
   <si>
-    <t xml:space="preserve">Deployment of NZ Government relief supplies including building supplies and food on board the HMNZF Canterbury.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deployment of NZ Government supplies and NZ Red Cross supplies on NZ Defence Force assets.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NZ Government contribution through NZ NGOs working through in country partners.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A12187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Korea, Republic of, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vanuatu Emergency Response For Internally Displaced Persons And Technical Assistance</t>
+    <t xml:space="preserve">Commonwealth Bank today announced that it will be accepting donations at all branches across Australia for the Red Cross appeal to support relief efforts in Vanuatu following the devastation of Cyclone Pam. To kick start the donations, Commonwealth Bank will also be making a A$50,000 donation to the Red Cross appeal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNICEF National Committee/United Kingdom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to be allocated to specific projects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Nations Children's Fund</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US Fund for UNICEF</t>
   </si>
   <si>
     <t xml:space="preserve">Canada, Government of</t>
@@ -191,16 +230,37 @@
     <t xml:space="preserve">D000396</t>
   </si>
   <si>
-    <t xml:space="preserve">Commonwealth Bank today announced that it will be accepting donations at all branches across Australia for the Red Cross appeal to support relief efforts in Vanuatu following the devastation of Cyclone Pam. To kick start the donations, Commonwealth Bank will also be making a A$50,000 donation to the Red Cross appeal.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNICEF National Committee/United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to be allocated to specific projects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US Fund for UNICEF</t>
+    <t xml:space="preserve">International Federation of Red Cross and Red Crescent Societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Red Cross/Red Crescent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Royal Caribbean made a donation of AUD$100,000 to the Australian Red Cross to help with aid efforts on cyclone-ravaged Vanuatu.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Australian Red Cross</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United States of America, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To support WASH activities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">French Red Cross</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carnival Australia's CEO Ann Sherry pledged A$150,000 as an immediate contribution to cyclone ravaged Vanuatu, with an immediate focus is to work with Save the Children to deliver urgently needed help on the ground in places where villages have been wiped out.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estonia, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contribution of 50 000 euros to UNICEF for the humanitarian emergency in Vanuatu to answer to the immediate humanitarian needs of Vanuatu children and women affected by the crises.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[EDRIS:74057]</t>
   </si>
   <si>
     <t xml:space="preserve">Italy, Government of</t>
@@ -221,28 +281,10 @@
     <t xml:space="preserve">[EDRIS:69765]</t>
   </si>
   <si>
-    <t xml:space="preserve">United States of America, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To support WASH activities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carnival Australia's CEO Ann Sherry pledged A$150,000 as an immediate contribution to cyclone ravaged Vanuatu, with an immediate focus is to work with Save the Children to deliver urgently needed help on the ground in places where villages have been wiped out.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Royal Caribbean made a donation of AUD$100,000 to the Australian Red Cross to help with aid efforts on cyclone-ravaged Vanuatu.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Rally organisers World Cruising Club (WCC) have kicked off a fund raising appeal amongst previous participants with a $10,000 donation from the company. The appeal is being made to sailors who have visited the islands, and especially Tanna, which has close links with the World ARC rally. Funds raised will be used to help rebuild the tourist and marine economy in these small communities, a vital source of cash income for many families.</t>
   </si>
   <si>
-    <t xml:space="preserve">Estonia, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contribution of 50 000 euros to UNICEF for the humanitarian emergency in Vanuatu to answer to the immediate humanitarian needs of Vanuatu children and women affected by the crises.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[EDRIS:74057]</t>
+    <t xml:space="preserve">Office for the Coordination of Humanitarian Affairs</t>
   </si>
   <si>
     <t xml:space="preserve">in kind - deploy three additional humanitarian experts to the region to ensure a strong and coordinated response from Commonwealth partners</t>
@@ -257,42 +299,54 @@
     <t xml:space="preserve">RAF heavy lift C-17 to join the Australian-led relief supplies airlift (Amberley/Vanuatu).</t>
   </si>
   <si>
+    <t xml:space="preserve">In-kind - Public charging stations are being deployed across the islands so that customers can power their phones and Digicel is providing US$250,000 in free credit so that customers can get in touch with their loved ones as services are restored. The off-island fibre connectivity has been fully restored (as of March 18th) and bandwidth capacity over satellite has been increased by 500%, ensuring domestic towers have sufficient network capacity available.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sweden, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNDAC IHP Light ICT Modules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[EDRIS:69939]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swedish Civil Contingencies Agency (MSB)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Small-scale/epid. / Humanitarian assistance in emergency telecommunications for populations affected by Cyclone Pam in Vanuatu. (ECHO/DRF/BUD/2015/91004)</t>
   </si>
   <si>
     <t xml:space="preserve">ECHO/DRF/BUD/2015/91004, [EDRIS:-31192]</t>
   </si>
   <si>
-    <t xml:space="preserve">In-kind - Public charging stations are being deployed across the islands so that customers can power their phones and Digicel is providing US$250,000 in free credit so that customers can get in touch with their loved ones as services are restored. The off-island fibre connectivity has been fully restored (as of March 18th) and bandwidth capacity over satellite has been increased by 500%, ensuring domestic towers have sufficient network capacity available.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sweden, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNDAC IHP Light ICT Modules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[EDRIS:69939]</t>
+    <t xml:space="preserve">Telecom Sans Frontieres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yacht Aid Global were monitoring the long range forecasts and started to action aid for Vanuatu via the yachting community even before the cyclone had hit. Their focus is on food, water, shelter and first aid for immediate action. They are seeking donations of any kind to YachtAidGlobal (YAG), and are currently matching donations up to $5,000 USD.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNICEF National Committee/Australia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNICEF National Committee/Japan</t>
   </si>
   <si>
     <t xml:space="preserve">in kind - dispatch two Japan Disaster Relief (JDR) advance and medical teams; and additional survey team to Vanuatu in order to identify the needs of the affected areas and coordinate the possibility of further assistance</t>
   </si>
   <si>
-    <t xml:space="preserve">Yacht Aid Global were monitoring the long range forecasts and started to action aid for Vanuatu via the yachting community even before the cyclone had hit. Their focus is on food, water, shelter and first aid for immediate action. They are seeking donations of any kind to YachtAidGlobal (YAG), and are currently matching donations up to $5,000 USD.</t>
-  </si>
-  <si>
     <t xml:space="preserve">AFT?s affiliated companies, including The Global Companies, South Pacific Tuna Corporation and Atlantic Natural Foods, LLC, which owns the Loma Linda brand, are committed to providing more than $100,000 USD in foodstuffs to Vanuatu residents. The company will organize its aid distribution through the government and private agencies that are coordinating relief efforts.</t>
   </si>
   <si>
-    <t xml:space="preserve">UNICEF National Committee/Australia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNICEF National Committee/Japan</t>
+    <t xml:space="preserve">Purchase of in country building supplies.</t>
   </si>
   <si>
     <t xml:space="preserve">Toyota Motor Corporation contributed 3 million yen as a donation for the Vanuatu cyclone Pam, through an international a Japanese NGO.</t>
   </si>
   <si>
+    <t xml:space="preserve">Japan Emergency NGO</t>
+  </si>
+  <si>
     <t xml:space="preserve">Secondment of Recovery Advisors, Debris Management to UNDP</t>
   </si>
   <si>
@@ -305,22 +359,34 @@
     <t xml:space="preserve">[EDRIS:69879]</t>
   </si>
   <si>
+    <t xml:space="preserve">UNICEF National Committee/France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deployment of NZ Fire Service Urban Search and Rescue Team</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deployment of a NZ Medical Assistance Team.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Emergency Relief items to support communities affected by Cyclone Pam  (D002352)</t>
   </si>
   <si>
     <t xml:space="preserve">D002352</t>
   </si>
   <si>
-    <t xml:space="preserve">UNICEF National Committee/France</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Purchase of in country building supplies.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deployment of NZ Fire Service Urban Search and Rescue Team</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deployment of a NZ Medical Assistance Team.</t>
+    <t xml:space="preserve">World Vision Vanuatu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Germany, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emergency measures for the affected islands in the region</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deutsche Gesellschaft für Internationale Zusammenarbeit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Private organization/foundation</t>
   </si>
   <si>
     <t xml:space="preserve">India, Government of</t>
@@ -329,31 +395,43 @@
     <t xml:space="preserve">Immediate cash assistance to help in the relief and rehabilitation efforts</t>
   </si>
   <si>
-    <t xml:space="preserve">Germany, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emergency measures for the affected islands in the region</t>
+    <t xml:space="preserve">Emergency Food Relief and Livelihoods Recovery for the Cyclone Affected Population in Vanuatu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emergency maternal and newborn health support for Tropical Cyclone Pam affected areas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emergency food assistance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">World Food Programme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emergency life saving WASH Assistance to Tropical Cyclone PAM affected Populations in Tafea Province</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARE International</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emergency life saving Shelter Assistance to Tropical Cyclone PAM affected Populations in Tafea Province</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASH Assistance to Tropical Cyclone PAM affected Populations in Vanuatu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OXFAM</t>
   </si>
   <si>
     <t xml:space="preserve">Emergency Relief items to support communities affected by Cyclone Pam</t>
   </si>
   <si>
-    <t xml:space="preserve">Emergency food assistance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emergency maternal and newborn health support for Tropical Cyclone Pam affected areas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emergency Food Relief and Livelihoods Recovery for the Cyclone Affected Population in Vanuatu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WASH Assistance to Tropical Cyclone PAM affected Populations in Vanuatu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emergency life saving WASH Assistance to Tropical Cyclone PAM affected Populations in Tafea Province</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emergency life saving Shelter Assistance to Tropical Cyclone PAM affected Populations in Tafea Province</t>
+    <t xml:space="preserve">Support to IFRC's efforts in Vanuatu. Shelter, Water and sanitation (2014-32208)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-32208, [EDRIS:72244]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Danish Red Cross</t>
   </si>
   <si>
     <t xml:space="preserve">to be allocated to specific projects (One-off donations individuals)</t>
@@ -362,10 +440,7 @@
     <t xml:space="preserve">UNICEF National Committee/New Zealand</t>
   </si>
   <si>
-    <t xml:space="preserve">Support to IFRC's efforts in Vanuatu. Shelter, Water and sanitation (2014-32208)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014-32208, [EDRIS:72244]</t>
+    <t xml:space="preserve">to be allocated to specific projects (through UNICEF/Brazil)</t>
   </si>
   <si>
     <t xml:space="preserve">United Arab Emirates, Government of</t>
@@ -380,9 +455,6 @@
     <t xml:space="preserve">The P&amp;O cruise ship Pacific Dawn has arrived in Port Vila , Vanuatu it's the first cruise ship to visit since the the capital was devastated by Cyclone Pam. The Pacific Dawn delivered aid and donations from the passengers aboard the ship.The close to 2000 guests onboard donated canned fruit, toiletries, clothes and toys totalling 6 pallet loads of goods. The Pacific Dawn also delivered 75 tents , 192 tarpaulins , bottled water, cleaning products , and three industrial grade mulchers . Also with the aim of carrying relief supplies for Vanuatu, Pacific Pearl is csheduled to arrive in port on 28 Mar. Collaborating with Save the Children. Carrying a supply of bottled water and a generator. Plans are currently being developed for Carnival Australia ships sailing to Vanuatu to also carry building materials</t>
   </si>
   <si>
-    <t xml:space="preserve">to be allocated to specific projects (through UNICEF/Brazil)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Logistics augmentation in response to Cyclone Pam</t>
   </si>
   <si>
@@ -398,21 +470,39 @@
     <t xml:space="preserve">MDRVU002, [EDRIS:70080]</t>
   </si>
   <si>
+    <t xml:space="preserve">IFRC Regional Appeal - Cyclone Pam in South Pacific (D000396)</t>
+  </si>
+  <si>
     <t xml:space="preserve">The company spent $97,000 getting two Christchurch-based BK117 and Squirrel AS350 helicopters and four crew to Vanuatu. They arrived on Friday and are assisting two other helicopters operated by Vanuatu Helicopters, a company owned by Garden City Helicopters. Also, Vanuatu Helicopters has launched an online funding campaign to raise $200,000 so work can continue.</t>
   </si>
   <si>
-    <t xml:space="preserve">IFRC Regional Appeal - Cyclone Pam in South Pacific (D000396)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Contribution to ACT Appeal VUT151 -   Shelter and non-food items   (through ACT Alliance / Church of Sweden)</t>
   </si>
   <si>
+    <t xml:space="preserve">ACT Alliance / Act for Peace</t>
+  </si>
+  <si>
     <t xml:space="preserve">UNICEF National Committee/Netherlands</t>
   </si>
   <si>
     <t xml:space="preserve">UNICEF National Committee/Korea (Republic of)</t>
   </si>
   <si>
+    <t xml:space="preserve">Western Union Foundation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Western Union Foundation together with two of Western Union Agents in New Zealand pledged a grant of US$20,000 to the New Zealand Red Cross to support the organization's immediate response activities in these islands. Moreover, under the Western Union Foundation Business Partner Giving program, the Foundation will provide a dollar-for-dollar match of qualifying contributions from its employees to NGOs providing disaster relief support in the impacted region.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Zealand Red Cross</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The team behind the invention of Flow Hive has raised $97,300 to assist their emergency efforts in Vanuatu and has donated the amount to Oxfam Australia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OXFAM Australia</t>
+  </si>
+  <si>
     <t xml:space="preserve">Central Emergency Response Fund</t>
   </si>
   <si>
@@ -428,22 +518,19 @@
     <t xml:space="preserve">1148:15-RR-CEF-040:vut-15/h/78710/124</t>
   </si>
   <si>
-    <t xml:space="preserve">Western Union Foundation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Western Union Foundation together with two of Western Union Agents in New Zealand pledged a grant of US$20,000 to the New Zealand Red Cross to support the organization's immediate response activities in these islands. Moreover, under the Western Union Foundation Business Partner Giving program, the Foundation will provide a dollar-for-dollar match of qualifying contributions from its employees to NGOs providing disaster relief support in the impacted region.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The team behind the invention of Flow Hive has raised $97,300 to assist their emergency efforts in Vanuatu and has donated the amount to Oxfam Australia</t>
+    <t xml:space="preserve">Nutrition support for cyclone PAM affected areas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSS and Prevention, Response to Violence for cyclone PAM affected areas</t>
   </si>
   <si>
     <t xml:space="preserve">Lynden Air Cargo's L-100 Hercules aircraft is being put to use flying relief supplies to Vanuatu after Tropical Cyclone Pam devastated the South Pacific Islands March 13. Communications company Digicel Fiji chartered a Lynden Air Cargo plane from Nadi, Fiji, to the capital city of Port Vila within days of the cyclone. It was loaded with food rations and technical equipment to repair towers and networks to restore communications throughout the islands. Now working with the World Food Programme (WFP), Lynden continues to pick up more supplies from Brisbane, Australia, for air delivery to Port Vila in support of humanitarian efforts.</t>
   </si>
   <si>
-    <t xml:space="preserve">Nutrition support for cyclone PAM affected areas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSS and Prevention, Response to Violence for cyclone PAM affected areas</t>
+    <t xml:space="preserve">Restoration of access to education opportunities for affected children</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNICEF National Committee/Canada</t>
   </si>
   <si>
     <t xml:space="preserve">Russian Federation, Government of</t>
@@ -458,10 +545,7 @@
     <t xml:space="preserve">[EDRIS:70223]</t>
   </si>
   <si>
-    <t xml:space="preserve">Restoration of access to education opportunities for affected children</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNICEF National Committee/Canada</t>
+    <t xml:space="preserve">ACT Alliance / Church of Sweden</t>
   </si>
   <si>
     <t xml:space="preserve">to be allocated to specific projects (through UNICEF/Philippines)</t>
@@ -470,27 +554,30 @@
     <t xml:space="preserve">to be allocated to specific projects (International On-line donations)</t>
   </si>
   <si>
+    <t xml:space="preserve">Secondment of 2 Logistics Officers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[EDRIS:70225]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disaster Waste Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[EDRIS:70224]</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ensuring lifesaving sexual reproductive health including GBV services in cyclone affected provinces</t>
   </si>
   <si>
     <t xml:space="preserve">1147:15-RR-FPA-013:VUT-15/P-HR-RL/78705/1171</t>
   </si>
   <si>
+    <t xml:space="preserve">United Nations Population Fund</t>
+  </si>
+  <si>
     <t xml:space="preserve">1147:15-RR-FPA-013:VUT-15/H/78728/1171</t>
   </si>
   <si>
-    <t xml:space="preserve">Secondment of 2 Logistics Officers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[EDRIS:70225]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disaster Waste Management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[EDRIS:70224]</t>
-  </si>
-  <si>
     <t xml:space="preserve">Emergency Grant Aid to Vanuatu in Response to the Cyclone Disaster</t>
   </si>
   <si>
@@ -503,6 +590,12 @@
     <t xml:space="preserve">AH/FICR/2015/0002, [EDRIS:71556]</t>
   </si>
   <si>
+    <t xml:space="preserve">Provision of Emergency Shelter and NFI Support to Communities Affected by Cyclone Pam (PESCA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1152:15-RR-IOM-013:VUT-15/S-NF/78714/298</t>
+  </si>
+  <si>
     <t xml:space="preserve">Telecommunications augmentation in response to Cyclone Pam</t>
   </si>
   <si>
@@ -521,24 +614,24 @@
     <t xml:space="preserve">1144:15-RR-WFP-027:VUT-15/f/78702/561</t>
   </si>
   <si>
-    <t xml:space="preserve">Provision of Emergency Shelter and NFI Support to Communities Affected by Cyclone Pam (PESCA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1152:15-RR-IOM-013:VUT-15/S-NF/78714/298</t>
-  </si>
-  <si>
     <t xml:space="preserve">Restoration and Improvement of health services and public health interventions in cyclone affected areas</t>
   </si>
   <si>
     <t xml:space="preserve">1151:15-RR-WHO-012:VUT-15/H/78711/122</t>
   </si>
   <si>
+    <t xml:space="preserve">World Health Organization</t>
+  </si>
+  <si>
     <t xml:space="preserve">Immediate assistance to re-establish food security in communities affected by TC Pam</t>
   </si>
   <si>
     <t xml:space="preserve">1145:15-RR-FAO-016:VUT-15/F/78698/123</t>
   </si>
   <si>
+    <t xml:space="preserve">Food &amp; Agriculture Organization of the United Nations</t>
+  </si>
+  <si>
     <t xml:space="preserve">Vanuatu Cyclone Pam Water Supply, Sanitation and Hygiene (WASH) response</t>
   </si>
   <si>
@@ -575,9 +668,6 @@
     <t xml:space="preserve">[EDRIS:72520]</t>
   </si>
   <si>
-    <t xml:space="preserve">United Nations Children's Fund</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cross sectoral</t>
   </si>
   <si>
@@ -599,13 +689,13 @@
     <t xml:space="preserve">3197/25/2015, [EDRIS:75619]</t>
   </si>
   <si>
+    <t xml:space="preserve">to leverage private sector donations of goods or skills for the recovery</t>
+  </si>
+  <si>
     <t xml:space="preserve">to procure additional recovery planning and management expertise and relief distribution costs</t>
   </si>
   <si>
     <t xml:space="preserve">to help meet on going humanitarian needs by the purchase and supply of food sourced from New Zealand at concessional rates;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to leverage private sector donations of goods or skills for the recovery</t>
   </si>
   <si>
     <t xml:space="preserve">to be allocated to specific projects (UNICEF/Indonesia)</t>
@@ -1071,22 +1161,28 @@
       <c r="AB1" t="s">
         <v>27</v>
       </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F2"/>
       <c r="G2" s="1" t="n">
@@ -1096,10 +1192,10 @@
         <v>42268</v>
       </c>
       <c r="I2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K2" t="n">
         <v>1</v>
@@ -1147,22 +1243,28 @@
       <c r="AB2" t="n">
         <v>126056</v>
       </c>
+      <c r="AC2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F3"/>
       <c r="G3" s="1" t="n">
@@ -1172,10 +1274,10 @@
         <v>42088</v>
       </c>
       <c r="I3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="J3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K3" t="n">
         <v>0.05</v>
@@ -1223,54 +1325,60 @@
       <c r="AB3" t="n">
         <v>126308</v>
       </c>
+      <c r="AC3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F4"/>
       <c r="G4" s="1" t="n">
         <v>42077</v>
       </c>
       <c r="H4" s="1" t="n">
-        <v>42088</v>
+        <v>42115</v>
       </c>
       <c r="I4" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3</v>
+        <v>0.0066</v>
       </c>
       <c r="L4" t="n">
-        <v>6.651</v>
+        <v>1.382</v>
       </c>
       <c r="M4" t="n">
-        <v>0.045106</v>
+        <v>0.004776</v>
       </c>
       <c r="N4"/>
       <c r="O4" t="n">
-        <v>0.045106</v>
+        <v>0.004776</v>
       </c>
       <c r="P4" t="n">
         <v>1</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.045106</v>
+        <v>0.004776</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -1288,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0.045106</v>
+        <v>0.004776</v>
       </c>
       <c r="X4"/>
       <c r="Y4"/>
@@ -1297,24 +1405,28 @@
         <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>126283</v>
-      </c>
+        <v>127670</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F5"/>
       <c r="G5" s="1" t="n">
@@ -1324,29 +1436,29 @@
         <v>42115</v>
       </c>
       <c r="I5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J5" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0066</v>
+        <v>0.28</v>
       </c>
       <c r="L5" t="n">
         <v>1.382</v>
       </c>
       <c r="M5" t="n">
-        <v>0.004776</v>
+        <v>0.202605</v>
       </c>
       <c r="N5"/>
       <c r="O5" t="n">
-        <v>0.004776</v>
+        <v>0.202605</v>
       </c>
       <c r="P5" t="n">
         <v>1</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.004776</v>
+        <v>0.202605</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1364,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.004776</v>
+        <v>0.202605</v>
       </c>
       <c r="X5"/>
       <c r="Y5"/>
@@ -1373,24 +1485,28 @@
         <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>127670</v>
-      </c>
+        <v>127672</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F6"/>
       <c r="G6" s="1" t="n">
@@ -1400,29 +1516,29 @@
         <v>42115</v>
       </c>
       <c r="I6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K6" t="n">
-        <v>0.28</v>
+        <v>0.2</v>
       </c>
       <c r="L6" t="n">
         <v>1.382</v>
       </c>
       <c r="M6" t="n">
-        <v>0.202605</v>
+        <v>0.144718</v>
       </c>
       <c r="N6"/>
       <c r="O6" t="n">
-        <v>0.202605</v>
+        <v>0.144718</v>
       </c>
       <c r="P6" t="n">
         <v>1</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.202605</v>
+        <v>0.144718</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1440,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0.202605</v>
+        <v>0.144718</v>
       </c>
       <c r="X6"/>
       <c r="Y6"/>
@@ -1449,56 +1565,60 @@
         <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>127672</v>
-      </c>
+        <v>127675</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F7"/>
       <c r="G7" s="1" t="n">
         <v>42077</v>
       </c>
       <c r="H7" s="1" t="n">
-        <v>42115</v>
+        <v>42088</v>
       </c>
       <c r="I7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="J7" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="K7" t="n">
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
       <c r="L7" t="n">
-        <v>1.382</v>
+        <v>6.651</v>
       </c>
       <c r="M7" t="n">
-        <v>0.036179</v>
+        <v>0.045106</v>
       </c>
       <c r="N7"/>
       <c r="O7" t="n">
-        <v>0.036179</v>
+        <v>0.045106</v>
       </c>
       <c r="P7" t="n">
         <v>1</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.036179</v>
+        <v>0.045106</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1516,7 +1636,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0.036179</v>
+        <v>0.045106</v>
       </c>
       <c r="X7"/>
       <c r="Y7"/>
@@ -1525,24 +1645,30 @@
         <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>127673</v>
+        <v>126283</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F8"/>
       <c r="G8" s="1" t="n">
@@ -1552,29 +1678,29 @@
         <v>42115</v>
       </c>
       <c r="I8" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="J8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="L8" t="n">
         <v>1.382</v>
       </c>
       <c r="M8" t="n">
-        <v>0.144718</v>
+        <v>0.036179</v>
       </c>
       <c r="N8"/>
       <c r="O8" t="n">
-        <v>0.144718</v>
+        <v>0.036179</v>
       </c>
       <c r="P8" t="n">
         <v>1</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.144718</v>
+        <v>0.036179</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1592,7 +1718,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0.144718</v>
+        <v>0.036179</v>
       </c>
       <c r="X8"/>
       <c r="Y8"/>
@@ -1601,56 +1727,62 @@
         <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>127675</v>
+        <v>127673</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E9" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F9"/>
       <c r="G9" s="1" t="n">
         <v>42078</v>
       </c>
       <c r="H9" s="1" t="n">
-        <v>42080</v>
+        <v>42115</v>
       </c>
       <c r="I9" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J9" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K9" t="n">
-        <v>20</v>
+        <v>0.653</v>
       </c>
       <c r="L9" t="n">
-        <v>119.1398</v>
+        <v>1.382</v>
       </c>
       <c r="M9" t="n">
-        <v>0.16787</v>
+        <v>0.472504</v>
       </c>
       <c r="N9"/>
       <c r="O9" t="n">
-        <v>0.16787</v>
+        <v>0.472504</v>
       </c>
       <c r="P9" t="n">
         <v>1</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.16787</v>
+        <v>0.472504</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1668,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0.16787</v>
+        <v>0.472504</v>
       </c>
       <c r="X9"/>
       <c r="Y9"/>
@@ -1677,24 +1809,28 @@
         <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>125812</v>
-      </c>
+        <v>127665</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F10"/>
       <c r="G10" s="1" t="n">
@@ -1704,29 +1840,29 @@
         <v>42115</v>
       </c>
       <c r="I10" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="J10" t="s">
         <v>47</v>
       </c>
       <c r="K10" t="n">
-        <v>0.653</v>
+        <v>0.122</v>
       </c>
       <c r="L10" t="n">
         <v>1.382</v>
       </c>
       <c r="M10" t="n">
-        <v>0.472504</v>
+        <v>0.088278</v>
       </c>
       <c r="N10"/>
       <c r="O10" t="n">
-        <v>0.472504</v>
+        <v>0.088278</v>
       </c>
       <c r="P10" t="n">
         <v>1</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.472504</v>
+        <v>0.088278</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1744,7 +1880,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0.472504</v>
+        <v>0.088278</v>
       </c>
       <c r="X10"/>
       <c r="Y10"/>
@@ -1753,24 +1889,28 @@
         <v>0</v>
       </c>
       <c r="AB10" t="n">
-        <v>127665</v>
-      </c>
+        <v>127667</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F11"/>
       <c r="G11" s="1" t="n">
@@ -1780,29 +1920,29 @@
         <v>42115</v>
       </c>
       <c r="I11" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="J11" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="K11" t="n">
-        <v>0.122</v>
+        <v>1</v>
       </c>
       <c r="L11" t="n">
         <v>1.382</v>
       </c>
       <c r="M11" t="n">
-        <v>0.088278</v>
+        <v>0.723589</v>
       </c>
       <c r="N11"/>
       <c r="O11" t="n">
-        <v>0.088278</v>
+        <v>0.723589</v>
       </c>
       <c r="P11" t="n">
         <v>1</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.088278</v>
+        <v>0.723589</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1820,7 +1960,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0.088278</v>
+        <v>0.723589</v>
       </c>
       <c r="X11"/>
       <c r="Y11"/>
@@ -1829,56 +1969,56 @@
         <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>127667</v>
-      </c>
+        <v>127669</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E12" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="F12"/>
       <c r="G12" s="1" t="n">
         <v>42078</v>
       </c>
       <c r="H12" s="1" t="n">
-        <v>42115</v>
+        <v>42209</v>
       </c>
       <c r="I12" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="J12" t="s">
-        <v>53</v>
-      </c>
-      <c r="K12" t="n">
-        <v>1</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1.382</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="K12"/>
+      <c r="L12"/>
       <c r="M12" t="n">
-        <v>0.723589</v>
+        <v>0.2</v>
       </c>
       <c r="N12"/>
       <c r="O12" t="n">
-        <v>0.723589</v>
+        <v>0.2</v>
       </c>
       <c r="P12" t="n">
         <v>1</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.723589</v>
+        <v>0.2</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -1896,7 +2036,7 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0.723589</v>
+        <v>0.2</v>
       </c>
       <c r="X12"/>
       <c r="Y12"/>
@@ -1905,52 +2045,62 @@
         <v>0</v>
       </c>
       <c r="AB12" t="n">
-        <v>127669</v>
+        <v>131888</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E13" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F13"/>
       <c r="G13" s="1" t="n">
         <v>42078</v>
       </c>
       <c r="H13" s="1" t="n">
-        <v>42209</v>
+        <v>42080</v>
       </c>
       <c r="I13" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="J13" t="s">
-        <v>37</v>
-      </c>
-      <c r="K13"/>
-      <c r="L13"/>
+        <v>41</v>
+      </c>
+      <c r="K13" t="n">
+        <v>20</v>
+      </c>
+      <c r="L13" t="n">
+        <v>119.1398</v>
+      </c>
       <c r="M13" t="n">
-        <v>0.2</v>
+        <v>0.16787</v>
       </c>
       <c r="N13"/>
       <c r="O13" t="n">
-        <v>0.2</v>
+        <v>0.16787</v>
       </c>
       <c r="P13" t="n">
         <v>1</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.2</v>
+        <v>0.16787</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -1968,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0.2</v>
+        <v>0.16787</v>
       </c>
       <c r="X13"/>
       <c r="Y13"/>
@@ -1977,56 +2127,62 @@
         <v>0</v>
       </c>
       <c r="AB13" t="n">
-        <v>131888</v>
+        <v>125812</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E14" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="F14"/>
       <c r="G14" s="1" t="n">
         <v>42079</v>
       </c>
       <c r="H14" s="1" t="n">
-        <v>42083</v>
+        <v>42088</v>
       </c>
       <c r="I14" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="J14" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="K14" t="n">
-        <v>0.16</v>
+        <v>0.05</v>
       </c>
       <c r="L14" t="n">
-        <v>1.249</v>
+        <v>1.314994</v>
       </c>
       <c r="M14" t="n">
-        <v>0.128102</v>
+        <v>0.038023</v>
       </c>
       <c r="N14"/>
       <c r="O14" t="n">
-        <v>0.128102</v>
+        <v>0.038023</v>
       </c>
       <c r="P14" t="n">
         <v>1</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.128102</v>
+        <v>0.038023</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -2044,7 +2200,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0.128102</v>
+        <v>0.038023</v>
       </c>
       <c r="X14"/>
       <c r="Y14"/>
@@ -2053,56 +2209,60 @@
         <v>0</v>
       </c>
       <c r="AB14" t="n">
-        <v>126091</v>
-      </c>
+        <v>126309</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D15" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E15" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="F15"/>
       <c r="G15" s="1" t="n">
         <v>42079</v>
       </c>
       <c r="H15" s="1" t="n">
-        <v>42088</v>
+        <v>42359</v>
       </c>
       <c r="I15" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="J15" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K15" t="n">
-        <v>0.05</v>
+        <v>0.2884</v>
       </c>
       <c r="L15" t="n">
-        <v>1.314994</v>
+        <v>0.667</v>
       </c>
       <c r="M15" t="n">
-        <v>0.038023</v>
+        <v>0.432384</v>
       </c>
       <c r="N15"/>
       <c r="O15" t="n">
-        <v>0.038023</v>
+        <v>0.432384</v>
       </c>
       <c r="P15" t="n">
         <v>1</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.038023</v>
+        <v>0.432384</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -2120,7 +2280,7 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0.038023</v>
+        <v>0.432384</v>
       </c>
       <c r="X15"/>
       <c r="Y15"/>
@@ -2129,56 +2289,58 @@
         <v>0</v>
       </c>
       <c r="AB15" t="n">
-        <v>126309</v>
+        <v>127154</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E16" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="F16"/>
       <c r="G16" s="1" t="n">
         <v>42079</v>
       </c>
       <c r="H16" s="1" t="n">
-        <v>42359</v>
+        <v>42131</v>
       </c>
       <c r="I16" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="J16" t="s">
-        <v>37</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.2884</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0.667</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="K16"/>
+      <c r="L16"/>
       <c r="M16" t="n">
-        <v>0.432384</v>
+        <v>0.3</v>
       </c>
       <c r="N16"/>
       <c r="O16" t="n">
-        <v>0.432384</v>
+        <v>0.3</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.432384</v>
+        <v>0.3</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -2196,7 +2358,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0.432384</v>
+        <v>0.3</v>
       </c>
       <c r="X16"/>
       <c r="Y16"/>
@@ -2205,52 +2367,62 @@
         <v>0</v>
       </c>
       <c r="AB16" t="n">
-        <v>127154</v>
+        <v>127155</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E17" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="F17"/>
       <c r="G17" s="1" t="n">
         <v>42079</v>
       </c>
       <c r="H17" s="1" t="n">
-        <v>42131</v>
+        <v>42083</v>
       </c>
       <c r="I17" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="J17" t="s">
-        <v>37</v>
-      </c>
-      <c r="K17"/>
-      <c r="L17"/>
+        <v>71</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.249</v>
+      </c>
       <c r="M17" t="n">
-        <v>0.3</v>
+        <v>0.128102</v>
       </c>
       <c r="N17"/>
       <c r="O17" t="n">
-        <v>0.3</v>
+        <v>0.128102</v>
       </c>
       <c r="P17" t="n">
         <v>1</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.3</v>
+        <v>0.128102</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -2268,7 +2440,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0.3</v>
+        <v>0.128102</v>
       </c>
       <c r="X17"/>
       <c r="Y17"/>
@@ -2277,56 +2449,58 @@
         <v>0</v>
       </c>
       <c r="AB17" t="n">
-        <v>127155</v>
+        <v>126091</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D18" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E18" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="F18"/>
       <c r="G18" s="1" t="n">
         <v>42080</v>
       </c>
       <c r="H18" s="1" t="n">
-        <v>42090</v>
+        <v>42088</v>
       </c>
       <c r="I18" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="J18" t="s">
-        <v>65</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0.891</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="K18"/>
+      <c r="L18"/>
       <c r="M18" t="n">
-        <v>0.3367</v>
+        <v>0.076254</v>
       </c>
       <c r="N18"/>
       <c r="O18" t="n">
-        <v>0.3367</v>
+        <v>0.076254</v>
       </c>
       <c r="P18" t="n">
         <v>1</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.3367</v>
+        <v>0.076254</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -2344,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0.3367</v>
+        <v>0.076254</v>
       </c>
       <c r="X18"/>
       <c r="Y18"/>
@@ -2353,56 +2527,58 @@
         <v>0</v>
       </c>
       <c r="AB18" t="n">
-        <v>125945</v>
+        <v>126312</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D19" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E19" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="F19"/>
       <c r="G19" s="1" t="n">
         <v>42080</v>
       </c>
       <c r="H19" s="1" t="n">
-        <v>42082</v>
+        <v>42226</v>
       </c>
       <c r="I19" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="J19" t="s">
-        <v>68</v>
-      </c>
-      <c r="K19" t="n">
+        <v>41</v>
+      </c>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19" t="n">
         <v>0.5</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0.649</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.770416</v>
       </c>
       <c r="N19"/>
       <c r="O19" t="n">
-        <v>0.770416</v>
+        <v>0.5</v>
       </c>
       <c r="P19" t="n">
         <v>1</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.770416</v>
+        <v>0.5</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -2420,7 +2596,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0.770416</v>
+        <v>0.5</v>
       </c>
       <c r="X19"/>
       <c r="Y19"/>
@@ -2429,52 +2605,62 @@
         <v>0</v>
       </c>
       <c r="AB19" t="n">
-        <v>125941</v>
+        <v>125887</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D20" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E20" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="F20"/>
       <c r="G20" s="1" t="n">
         <v>42080</v>
       </c>
       <c r="H20" s="1" t="n">
-        <v>42226</v>
+        <v>42088</v>
       </c>
       <c r="I20" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="J20" t="s">
-        <v>37</v>
-      </c>
-      <c r="K20"/>
-      <c r="L20"/>
+        <v>41</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.315005</v>
+      </c>
       <c r="M20" t="n">
-        <v>0.5</v>
+        <v>0.114068</v>
       </c>
       <c r="N20"/>
       <c r="O20" t="n">
-        <v>0.5</v>
+        <v>0.114068</v>
       </c>
       <c r="P20" t="n">
         <v>1</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.5</v>
+        <v>0.114068</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -2492,7 +2678,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0.5</v>
+        <v>0.114068</v>
       </c>
       <c r="X20"/>
       <c r="Y20"/>
@@ -2501,56 +2687,62 @@
         <v>0</v>
       </c>
       <c r="AB20" t="n">
-        <v>125887</v>
+        <v>126304</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D21" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E21" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="F21"/>
       <c r="G21" s="1" t="n">
         <v>42080</v>
       </c>
       <c r="H21" s="1" t="n">
-        <v>42088</v>
+        <v>42355</v>
       </c>
       <c r="I21" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="J21" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="K21" t="n">
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="L21" t="n">
-        <v>1.315005</v>
+        <v>0.923003</v>
       </c>
       <c r="M21" t="n">
-        <v>0.114068</v>
+        <v>0.054171</v>
       </c>
       <c r="N21"/>
       <c r="O21" t="n">
-        <v>0.114068</v>
+        <v>0.054171</v>
       </c>
       <c r="P21" t="n">
         <v>1</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.114068</v>
+        <v>0.054171</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -2568,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0.114068</v>
+        <v>0.054171</v>
       </c>
       <c r="X21"/>
       <c r="Y21"/>
@@ -2577,52 +2769,62 @@
         <v>0</v>
       </c>
       <c r="AB21" t="n">
-        <v>126304</v>
+        <v>136624</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D22" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E22" t="s">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="F22"/>
       <c r="G22" s="1" t="n">
         <v>42080</v>
       </c>
       <c r="H22" s="1" t="n">
-        <v>42088</v>
+        <v>42090</v>
       </c>
       <c r="I22" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="J22" t="s">
-        <v>37</v>
-      </c>
-      <c r="K22"/>
-      <c r="L22"/>
+        <v>85</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.891</v>
+      </c>
       <c r="M22" t="n">
-        <v>0.076254</v>
+        <v>0.3367</v>
       </c>
       <c r="N22"/>
       <c r="O22" t="n">
-        <v>0.076254</v>
+        <v>0.3367</v>
       </c>
       <c r="P22" t="n">
         <v>1</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.076254</v>
+        <v>0.3367</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -2640,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0.076254</v>
+        <v>0.3367</v>
       </c>
       <c r="X22"/>
       <c r="Y22"/>
@@ -2649,52 +2851,62 @@
         <v>0</v>
       </c>
       <c r="AB22" t="n">
-        <v>126312</v>
+        <v>125945</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C23" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D23" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E23" t="s">
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="F23"/>
       <c r="G23" s="1" t="n">
         <v>42080</v>
       </c>
       <c r="H23" s="1" t="n">
-        <v>42088</v>
+        <v>42082</v>
       </c>
       <c r="I23" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="J23" t="s">
-        <v>37</v>
-      </c>
-      <c r="K23"/>
-      <c r="L23"/>
+        <v>88</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.649</v>
+      </c>
       <c r="M23" t="n">
-        <v>0.01</v>
+        <v>0.770416</v>
       </c>
       <c r="N23"/>
       <c r="O23" t="n">
-        <v>0.01</v>
+        <v>0.770416</v>
       </c>
       <c r="P23" t="n">
         <v>1</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.01</v>
+        <v>0.770416</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -2712,7 +2924,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0.01</v>
+        <v>0.770416</v>
       </c>
       <c r="X23"/>
       <c r="Y23"/>
@@ -2721,56 +2933,58 @@
         <v>0</v>
       </c>
       <c r="AB23" t="n">
-        <v>126317</v>
+        <v>125941</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D24" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E24" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="F24"/>
       <c r="G24" s="1" t="n">
         <v>42080</v>
       </c>
       <c r="H24" s="1" t="n">
-        <v>42355</v>
+        <v>42088</v>
       </c>
       <c r="I24" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="J24" t="s">
-        <v>76</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0.923003</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="K24"/>
+      <c r="L24"/>
       <c r="M24" t="n">
-        <v>0.054171</v>
+        <v>0.01</v>
       </c>
       <c r="N24"/>
       <c r="O24" t="n">
-        <v>0.054171</v>
+        <v>0.01</v>
       </c>
       <c r="P24" t="n">
         <v>1</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.054171</v>
+        <v>0.01</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -2788,7 +3002,7 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0.054171</v>
+        <v>0.01</v>
       </c>
       <c r="X24"/>
       <c r="Y24"/>
@@ -2797,24 +3011,30 @@
         <v>0</v>
       </c>
       <c r="AB24" t="n">
-        <v>136624</v>
+        <v>126317</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C25" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D25" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E25" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="F25"/>
       <c r="G25" s="1" t="n">
@@ -2824,10 +3044,10 @@
         <v>42082</v>
       </c>
       <c r="I25" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="J25" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K25"/>
       <c r="L25"/>
@@ -2871,22 +3091,26 @@
       <c r="AB25" t="n">
         <v>126009</v>
       </c>
+      <c r="AC25" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E26" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="F26"/>
       <c r="G26" s="1" t="n">
@@ -2896,10 +3120,10 @@
         <v>42082</v>
       </c>
       <c r="I26" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="J26" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K26"/>
       <c r="L26"/>
@@ -2943,22 +3167,26 @@
       <c r="AB26" t="n">
         <v>126015</v>
       </c>
+      <c r="AC26" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D27" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E27" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="F27"/>
       <c r="G27" s="1" t="n">
@@ -2968,10 +3196,10 @@
         <v>42082</v>
       </c>
       <c r="I27" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="J27" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K27" t="n">
         <v>1.1</v>
@@ -3019,54 +3247,54 @@
       <c r="AB27" t="n">
         <v>126010</v>
       </c>
+      <c r="AC27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D28" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E28" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F28"/>
       <c r="G28" s="1" t="n">
         <v>42081</v>
       </c>
       <c r="H28" s="1" t="n">
-        <v>43060</v>
+        <v>42088</v>
       </c>
       <c r="I28" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="J28" t="s">
-        <v>82</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0.911002</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="K28"/>
+      <c r="L28"/>
       <c r="M28" t="n">
-        <v>0.1427</v>
+        <v>0.25</v>
       </c>
       <c r="N28"/>
       <c r="O28" t="n">
-        <v>0.1427</v>
+        <v>0.25</v>
       </c>
       <c r="P28" t="n">
         <v>1</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.1427</v>
+        <v>0.25</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -3084,7 +3312,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0.1427</v>
+        <v>0.25</v>
       </c>
       <c r="X28"/>
       <c r="Y28"/>
@@ -3093,24 +3321,28 @@
         <v>0</v>
       </c>
       <c r="AB28" t="n">
-        <v>126285</v>
-      </c>
+        <v>126315</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D29" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E29" t="s">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="F29"/>
       <c r="G29" s="1" t="n">
@@ -3120,25 +3352,29 @@
         <v>42088</v>
       </c>
       <c r="I29" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="J29" t="s">
-        <v>37</v>
-      </c>
-      <c r="K29"/>
-      <c r="L29"/>
+        <v>98</v>
+      </c>
+      <c r="K29" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="L29" t="n">
+        <v>8.366</v>
+      </c>
       <c r="M29" t="n">
-        <v>0.25</v>
+        <v>0.179297</v>
       </c>
       <c r="N29"/>
       <c r="O29" t="n">
-        <v>0.25</v>
+        <v>0.179297</v>
       </c>
       <c r="P29" t="n">
         <v>1</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.25</v>
+        <v>0.179297</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -3156,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0.25</v>
+        <v>0.179297</v>
       </c>
       <c r="X29"/>
       <c r="Y29"/>
@@ -3165,56 +3401,62 @@
         <v>0</v>
       </c>
       <c r="AB29" t="n">
-        <v>126315</v>
+        <v>126282</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>99</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D30" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E30" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="F30"/>
       <c r="G30" s="1" t="n">
         <v>42081</v>
       </c>
       <c r="H30" s="1" t="n">
-        <v>42088</v>
+        <v>43060</v>
       </c>
       <c r="I30" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="J30" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="K30" t="n">
-        <v>1.5</v>
+        <v>0.13</v>
       </c>
       <c r="L30" t="n">
-        <v>8.366</v>
+        <v>0.911002</v>
       </c>
       <c r="M30" t="n">
-        <v>0.179297</v>
+        <v>0.1427</v>
       </c>
       <c r="N30"/>
       <c r="O30" t="n">
-        <v>0.179297</v>
+        <v>0.1427</v>
       </c>
       <c r="P30" t="n">
         <v>1</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.179297</v>
+        <v>0.1427</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -3232,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0.179297</v>
+        <v>0.1427</v>
       </c>
       <c r="X30"/>
       <c r="Y30"/>
@@ -3241,52 +3483,58 @@
         <v>0</v>
       </c>
       <c r="AB30" t="n">
-        <v>126282</v>
+        <v>126285</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D31" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E31" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F31"/>
       <c r="G31" s="1" t="n">
         <v>42082</v>
       </c>
       <c r="H31" s="1" t="n">
-        <v>42083</v>
+        <v>42088</v>
       </c>
       <c r="I31" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="J31" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K31"/>
       <c r="L31"/>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="N31"/>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="P31" t="n">
         <v>1</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -3304,7 +3552,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="X31"/>
       <c r="Y31"/>
@@ -3313,52 +3561,60 @@
         <v>0</v>
       </c>
       <c r="AB31" t="n">
-        <v>126096</v>
-      </c>
+        <v>126305</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D32" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E32" t="s">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="F32"/>
       <c r="G32" s="1" t="n">
         <v>42082</v>
       </c>
       <c r="H32" s="1" t="n">
-        <v>42088</v>
+        <v>42250</v>
       </c>
       <c r="I32" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="J32" t="s">
-        <v>37</v>
-      </c>
-      <c r="K32"/>
-      <c r="L32"/>
+        <v>41</v>
+      </c>
+      <c r="K32" t="n">
+        <v>1.403751</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.315</v>
+      </c>
       <c r="M32" t="n">
-        <v>0.05</v>
+        <v>1.067491</v>
       </c>
       <c r="N32"/>
       <c r="O32" t="n">
-        <v>0.05</v>
+        <v>1.067491</v>
       </c>
       <c r="P32" t="n">
         <v>1</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.05</v>
+        <v>1.067491</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -3376,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0.05</v>
+        <v>1.067491</v>
       </c>
       <c r="X32"/>
       <c r="Y32"/>
@@ -3385,40 +3641,50 @@
         <v>0</v>
       </c>
       <c r="AB32" t="n">
-        <v>126305</v>
+        <v>127147</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D33" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E33" t="s">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="F33"/>
       <c r="G33" s="1" t="n">
         <v>42082</v>
       </c>
       <c r="H33" s="1" t="n">
-        <v>42088</v>
+        <v>42104</v>
       </c>
       <c r="I33" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="J33" t="s">
-        <v>37</v>
-      </c>
-      <c r="K33"/>
-      <c r="L33"/>
+        <v>41</v>
+      </c>
+      <c r="K33" t="n">
+        <v>12.127</v>
+      </c>
+      <c r="L33" t="n">
+        <v>121.27</v>
+      </c>
       <c r="M33" t="n">
         <v>0.1</v>
       </c>
@@ -3457,56 +3723,58 @@
         <v>0</v>
       </c>
       <c r="AB33" t="n">
-        <v>126306</v>
+        <v>127150</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C34" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D34" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="F34"/>
       <c r="G34" s="1" t="n">
         <v>42082</v>
       </c>
       <c r="H34" s="1" t="n">
-        <v>42250</v>
+        <v>42083</v>
       </c>
       <c r="I34" t="s">
-        <v>61</v>
+        <v>106</v>
       </c>
       <c r="J34" t="s">
-        <v>37</v>
-      </c>
-      <c r="K34" t="n">
-        <v>1.403751</v>
-      </c>
-      <c r="L34" t="n">
-        <v>1.315</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="K34"/>
+      <c r="L34"/>
       <c r="M34" t="n">
-        <v>1.067491</v>
+        <v>0</v>
       </c>
       <c r="N34"/>
       <c r="O34" t="n">
-        <v>1.067491</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>1</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.067491</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -3524,7 +3792,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>1.067491</v>
+        <v>0</v>
       </c>
       <c r="X34"/>
       <c r="Y34"/>
@@ -3533,44 +3801,46 @@
         <v>0</v>
       </c>
       <c r="AB34" t="n">
-        <v>127147</v>
+        <v>126096</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B35" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C35" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D35" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E35" t="s">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="F35"/>
       <c r="G35" s="1" t="n">
         <v>42082</v>
       </c>
       <c r="H35" s="1" t="n">
-        <v>42104</v>
+        <v>42088</v>
       </c>
       <c r="I35" t="s">
-        <v>61</v>
+        <v>107</v>
       </c>
       <c r="J35" t="s">
-        <v>37</v>
-      </c>
-      <c r="K35" t="n">
-        <v>12.127</v>
-      </c>
-      <c r="L35" t="n">
-        <v>121.27</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="K35"/>
+      <c r="L35"/>
       <c r="M35" t="n">
         <v>0.1</v>
       </c>
@@ -3609,56 +3879,62 @@
         <v>0</v>
       </c>
       <c r="AB35" t="n">
-        <v>127150</v>
+        <v>126306</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B36" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C36" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D36" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E36" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F36"/>
       <c r="G36" s="1" t="n">
         <v>42083</v>
       </c>
       <c r="H36" s="1" t="n">
-        <v>42088</v>
+        <v>42115</v>
       </c>
       <c r="I36" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="J36" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K36" t="n">
-        <v>3</v>
+        <v>0.025</v>
       </c>
       <c r="L36" t="n">
-        <v>121.2709</v>
+        <v>1.382</v>
       </c>
       <c r="M36" t="n">
-        <v>0.024738</v>
+        <v>0.01809</v>
       </c>
       <c r="N36"/>
       <c r="O36" t="n">
-        <v>0.024738</v>
+        <v>0.01809</v>
       </c>
       <c r="P36" t="n">
         <v>1</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.024738</v>
+        <v>0.01809</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -3676,7 +3952,7 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0.024738</v>
+        <v>0.01809</v>
       </c>
       <c r="X36"/>
       <c r="Y36"/>
@@ -3685,56 +3961,60 @@
         <v>0</v>
       </c>
       <c r="AB36" t="n">
-        <v>126303</v>
-      </c>
+        <v>127662</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD36"/>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B37" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C37" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D37" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E37" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="F37"/>
       <c r="G37" s="1" t="n">
         <v>42083</v>
       </c>
       <c r="H37" s="1" t="n">
-        <v>42087</v>
+        <v>42088</v>
       </c>
       <c r="I37" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="J37" t="s">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="K37" t="n">
-        <v>0.43059</v>
+        <v>3</v>
       </c>
       <c r="L37" t="n">
-        <v>8.366</v>
+        <v>121.2709</v>
       </c>
       <c r="M37" t="n">
-        <v>0.051469</v>
+        <v>0.024738</v>
       </c>
       <c r="N37"/>
       <c r="O37" t="n">
-        <v>0.051469</v>
+        <v>0.024738</v>
       </c>
       <c r="P37" t="n">
         <v>1</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.051469</v>
+        <v>0.024738</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -3752,7 +4032,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0.051469</v>
+        <v>0.024738</v>
       </c>
       <c r="X37"/>
       <c r="Y37"/>
@@ -3761,24 +4041,30 @@
         <v>0</v>
       </c>
       <c r="AB37" t="n">
-        <v>126244</v>
+        <v>126303</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B38" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C38" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D38" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E38" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="F38"/>
       <c r="G38" s="1" t="n">
@@ -3788,29 +4074,29 @@
         <v>42087</v>
       </c>
       <c r="I38" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="J38" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="K38" t="n">
-        <v>1.08336</v>
+        <v>0.43059</v>
       </c>
       <c r="L38" t="n">
         <v>8.366</v>
       </c>
       <c r="M38" t="n">
-        <v>0.129496</v>
+        <v>0.051469</v>
       </c>
       <c r="N38"/>
       <c r="O38" t="n">
-        <v>0.129496</v>
+        <v>0.051469</v>
       </c>
       <c r="P38" t="n">
         <v>1</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.129496</v>
+        <v>0.051469</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -3828,7 +4114,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0.129496</v>
+        <v>0.051469</v>
       </c>
       <c r="X38"/>
       <c r="Y38"/>
@@ -3837,56 +4123,62 @@
         <v>0</v>
       </c>
       <c r="AB38" t="n">
-        <v>126245</v>
+        <v>126244</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>99</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B39" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C39" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D39" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E39" t="s">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="F39"/>
       <c r="G39" s="1" t="n">
         <v>42083</v>
       </c>
       <c r="H39" s="1" t="n">
-        <v>42093</v>
+        <v>42087</v>
       </c>
       <c r="I39" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="J39" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="K39" t="n">
-        <v>0.5</v>
+        <v>1.08336</v>
       </c>
       <c r="L39" t="n">
-        <v>1.249</v>
+        <v>8.366</v>
       </c>
       <c r="M39" t="n">
-        <v>0.40032</v>
+        <v>0.129496</v>
       </c>
       <c r="N39"/>
       <c r="O39" t="n">
-        <v>0.40032</v>
+        <v>0.129496</v>
       </c>
       <c r="P39" t="n">
         <v>1</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.40032</v>
+        <v>0.129496</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -3904,7 +4196,7 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0.40032</v>
+        <v>0.129496</v>
       </c>
       <c r="X39"/>
       <c r="Y39"/>
@@ -3913,24 +4205,30 @@
         <v>0</v>
       </c>
       <c r="AB39" t="n">
-        <v>126471</v>
+        <v>126245</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>99</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B40" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C40" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D40" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E40" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="F40"/>
       <c r="G40" s="1" t="n">
@@ -3940,10 +4238,10 @@
         <v>42144</v>
       </c>
       <c r="I40" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="J40" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K40" t="n">
         <v>0.2</v>
@@ -3991,54 +4289,60 @@
       <c r="AB40" t="n">
         <v>127149</v>
       </c>
+      <c r="AC40" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B41" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C41" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D41" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E41" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F41"/>
       <c r="G41" s="1" t="n">
         <v>42083</v>
       </c>
       <c r="H41" s="1" t="n">
-        <v>42115</v>
+        <v>42815</v>
       </c>
       <c r="I41" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="J41" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="K41" t="n">
-        <v>0.025</v>
+        <v>0.116763</v>
       </c>
       <c r="L41" t="n">
         <v>1.382</v>
       </c>
       <c r="M41" t="n">
-        <v>0.01809</v>
+        <v>0.084488</v>
       </c>
       <c r="N41"/>
       <c r="O41" t="n">
-        <v>0.01809</v>
+        <v>0.084488</v>
       </c>
       <c r="P41" t="n">
         <v>1</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.01809</v>
+        <v>0.084488</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -4056,7 +4360,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0.01809</v>
+        <v>0.084488</v>
       </c>
       <c r="X41"/>
       <c r="Y41"/>
@@ -4065,24 +4369,30 @@
         <v>0</v>
       </c>
       <c r="AB41" t="n">
-        <v>127662</v>
+        <v>127663</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B42" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C42" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D42" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E42" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F42"/>
       <c r="G42" s="1" t="n">
@@ -4092,29 +4402,29 @@
         <v>42815</v>
       </c>
       <c r="I42" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="J42" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K42" t="n">
-        <v>0.116763</v>
+        <v>0.171184</v>
       </c>
       <c r="L42" t="n">
         <v>1.382</v>
       </c>
       <c r="M42" t="n">
-        <v>0.084488</v>
+        <v>0.123867</v>
       </c>
       <c r="N42"/>
       <c r="O42" t="n">
-        <v>0.084488</v>
+        <v>0.123867</v>
       </c>
       <c r="P42" t="n">
         <v>1</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.084488</v>
+        <v>0.123867</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -4132,7 +4442,7 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0.084488</v>
+        <v>0.123867</v>
       </c>
       <c r="X42"/>
       <c r="Y42"/>
@@ -4141,56 +4451,62 @@
         <v>0</v>
       </c>
       <c r="AB42" t="n">
-        <v>127663</v>
+        <v>127664</v>
+      </c>
+      <c r="AC42" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B43" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C43" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D43" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E43" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="F43"/>
       <c r="G43" s="1" t="n">
         <v>42083</v>
       </c>
       <c r="H43" s="1" t="n">
-        <v>42815</v>
+        <v>42093</v>
       </c>
       <c r="I43" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="J43" t="s">
-        <v>37</v>
+        <v>119</v>
       </c>
       <c r="K43" t="n">
-        <v>0.171184</v>
+        <v>0.5</v>
       </c>
       <c r="L43" t="n">
-        <v>1.382</v>
+        <v>1.249</v>
       </c>
       <c r="M43" t="n">
-        <v>0.123867</v>
+        <v>0.40032</v>
       </c>
       <c r="N43"/>
       <c r="O43" t="n">
-        <v>0.123867</v>
+        <v>0.40032</v>
       </c>
       <c r="P43" t="n">
         <v>1</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.123867</v>
+        <v>0.40032</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -4208,7 +4524,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0.123867</v>
+        <v>0.40032</v>
       </c>
       <c r="X43"/>
       <c r="Y43"/>
@@ -4217,52 +4533,62 @@
         <v>0</v>
       </c>
       <c r="AB43" t="n">
-        <v>127664</v>
+        <v>126471</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B44" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C44" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D44" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E44" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="F44"/>
       <c r="G44" s="1" t="n">
         <v>42084</v>
       </c>
       <c r="H44" s="1" t="n">
-        <v>42086</v>
+        <v>43060</v>
       </c>
       <c r="I44" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="J44" t="s">
-        <v>37</v>
-      </c>
-      <c r="K44"/>
-      <c r="L44"/>
+        <v>41</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.923077</v>
+      </c>
       <c r="M44" t="n">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="N44"/>
       <c r="O44" t="n">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="P44" t="n">
         <v>1</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -4280,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="X44"/>
       <c r="Y44"/>
@@ -4289,56 +4615,58 @@
         <v>0</v>
       </c>
       <c r="AB44" t="n">
-        <v>126207</v>
+        <v>126208</v>
+      </c>
+      <c r="AC44" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B45" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C45" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D45" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E45" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="F45"/>
       <c r="G45" s="1" t="n">
         <v>42084</v>
       </c>
       <c r="H45" s="1" t="n">
-        <v>43060</v>
+        <v>42086</v>
       </c>
       <c r="I45" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="J45" t="s">
-        <v>37</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0.923077</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="K45"/>
+      <c r="L45"/>
       <c r="M45" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="N45"/>
       <c r="O45" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="P45" t="n">
         <v>1</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -4356,7 +4684,7 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="X45"/>
       <c r="Y45"/>
@@ -4365,24 +4693,30 @@
         <v>0</v>
       </c>
       <c r="AB45" t="n">
-        <v>126208</v>
+        <v>126207</v>
+      </c>
+      <c r="AC45" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD45" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B46" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C46" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D46" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E46" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="F46"/>
       <c r="G46" s="1" t="n">
@@ -4392,29 +4726,29 @@
         <v>42088</v>
       </c>
       <c r="I46" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="J46" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K46" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="L46" t="n">
         <v>1.277</v>
       </c>
       <c r="M46" t="n">
-        <v>0.939702</v>
+        <v>0.783085</v>
       </c>
       <c r="N46"/>
       <c r="O46" t="n">
-        <v>0.939702</v>
+        <v>0.783085</v>
       </c>
       <c r="P46" t="n">
         <v>1</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.939702</v>
+        <v>0.783085</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -4432,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0.939702</v>
+        <v>0.783085</v>
       </c>
       <c r="X46"/>
       <c r="Y46"/>
@@ -4441,56 +4775,62 @@
         <v>0</v>
       </c>
       <c r="AB46" t="n">
-        <v>125886</v>
+        <v>126270</v>
+      </c>
+      <c r="AC46" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD46" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B47" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C47" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D47" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E47" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="F47"/>
       <c r="G47" s="1" t="n">
         <v>42086</v>
       </c>
       <c r="H47" s="1" t="n">
-        <v>42086</v>
+        <v>42114</v>
       </c>
       <c r="I47" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="J47" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K47" t="n">
         <v>0.5</v>
       </c>
       <c r="L47" t="n">
-        <v>1.277</v>
+        <v>1.315</v>
       </c>
       <c r="M47" t="n">
-        <v>0.391543</v>
+        <v>0.380228</v>
       </c>
       <c r="N47"/>
       <c r="O47" t="n">
-        <v>0.391543</v>
+        <v>0.380228</v>
       </c>
       <c r="P47" t="n">
         <v>1</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.391543</v>
+        <v>0.380228</v>
       </c>
       <c r="R47" t="n">
         <v>0</v>
@@ -4508,7 +4848,7 @@
         <v>0</v>
       </c>
       <c r="W47" t="n">
-        <v>0.391543</v>
+        <v>0.380228</v>
       </c>
       <c r="X47"/>
       <c r="Y47"/>
@@ -4517,56 +4857,62 @@
         <v>0</v>
       </c>
       <c r="AB47" t="n">
-        <v>126211</v>
+        <v>126212</v>
+      </c>
+      <c r="AC47" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD47" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B48" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C48" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D48" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E48" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="F48"/>
       <c r="G48" s="1" t="n">
         <v>42086</v>
       </c>
       <c r="H48" s="1" t="n">
-        <v>42114</v>
+        <v>42086</v>
       </c>
       <c r="I48" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="J48" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K48" t="n">
         <v>0.5</v>
       </c>
       <c r="L48" t="n">
-        <v>1.315</v>
+        <v>1.277</v>
       </c>
       <c r="M48" t="n">
-        <v>0.380228</v>
+        <v>0.391543</v>
       </c>
       <c r="N48"/>
       <c r="O48" t="n">
-        <v>0.380228</v>
+        <v>0.391543</v>
       </c>
       <c r="P48" t="n">
         <v>1</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.380228</v>
+        <v>0.391543</v>
       </c>
       <c r="R48" t="n">
         <v>0</v>
@@ -4584,7 +4930,7 @@
         <v>0</v>
       </c>
       <c r="W48" t="n">
-        <v>0.380228</v>
+        <v>0.391543</v>
       </c>
       <c r="X48"/>
       <c r="Y48"/>
@@ -4593,24 +4939,30 @@
         <v>0</v>
       </c>
       <c r="AB48" t="n">
-        <v>126212</v>
+        <v>126211</v>
+      </c>
+      <c r="AC48" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD48" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B49" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C49" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D49" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E49" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="F49"/>
       <c r="G49" s="1" t="n">
@@ -4620,29 +4972,29 @@
         <v>42088</v>
       </c>
       <c r="I49" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="J49" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K49" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="L49" t="n">
         <v>1.277</v>
       </c>
       <c r="M49" t="n">
-        <v>0.783085</v>
+        <v>0.195771</v>
       </c>
       <c r="N49"/>
       <c r="O49" t="n">
-        <v>0.783085</v>
+        <v>0.195771</v>
       </c>
       <c r="P49" t="n">
         <v>1</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.783085</v>
+        <v>0.195771</v>
       </c>
       <c r="R49" t="n">
         <v>0</v>
@@ -4660,7 +5012,7 @@
         <v>0</v>
       </c>
       <c r="W49" t="n">
-        <v>0.783085</v>
+        <v>0.195771</v>
       </c>
       <c r="X49"/>
       <c r="Y49"/>
@@ -4669,24 +5021,30 @@
         <v>0</v>
       </c>
       <c r="AB49" t="n">
-        <v>126270</v>
+        <v>126272</v>
+      </c>
+      <c r="AC49" t="s">
+        <v>132</v>
+      </c>
+      <c r="AD49" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B50" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C50" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D50" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E50" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="F50"/>
       <c r="G50" s="1" t="n">
@@ -4696,29 +5054,29 @@
         <v>42088</v>
       </c>
       <c r="I50" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="J50" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K50" t="n">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="L50" t="n">
         <v>1.277</v>
       </c>
       <c r="M50" t="n">
-        <v>0.234926</v>
+        <v>0.195771</v>
       </c>
       <c r="N50"/>
       <c r="O50" t="n">
-        <v>0.234926</v>
+        <v>0.195771</v>
       </c>
       <c r="P50" t="n">
         <v>1</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.234926</v>
+        <v>0.195771</v>
       </c>
       <c r="R50" t="n">
         <v>0</v>
@@ -4736,7 +5094,7 @@
         <v>0</v>
       </c>
       <c r="W50" t="n">
-        <v>0.234926</v>
+        <v>0.195771</v>
       </c>
       <c r="X50"/>
       <c r="Y50"/>
@@ -4745,24 +5103,30 @@
         <v>0</v>
       </c>
       <c r="AB50" t="n">
-        <v>126271</v>
+        <v>126273</v>
+      </c>
+      <c r="AC50" t="s">
+        <v>132</v>
+      </c>
+      <c r="AD50" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B51" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C51" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D51" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E51" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="F51"/>
       <c r="G51" s="1" t="n">
@@ -4772,29 +5136,29 @@
         <v>42088</v>
       </c>
       <c r="I51" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="J51" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K51" t="n">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="L51" t="n">
         <v>1.277</v>
       </c>
       <c r="M51" t="n">
-        <v>0.195771</v>
+        <v>0.234926</v>
       </c>
       <c r="N51"/>
       <c r="O51" t="n">
-        <v>0.195771</v>
+        <v>0.234926</v>
       </c>
       <c r="P51" t="n">
         <v>1</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.195771</v>
+        <v>0.234926</v>
       </c>
       <c r="R51" t="n">
         <v>0</v>
@@ -4812,7 +5176,7 @@
         <v>0</v>
       </c>
       <c r="W51" t="n">
-        <v>0.195771</v>
+        <v>0.234926</v>
       </c>
       <c r="X51"/>
       <c r="Y51"/>
@@ -4821,24 +5185,30 @@
         <v>0</v>
       </c>
       <c r="AB51" t="n">
-        <v>126272</v>
+        <v>126271</v>
+      </c>
+      <c r="AC51" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD51" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B52" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C52" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D52" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E52" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="F52"/>
       <c r="G52" s="1" t="n">
@@ -4848,29 +5218,29 @@
         <v>42088</v>
       </c>
       <c r="I52" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="J52" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K52" t="n">
-        <v>0.25</v>
+        <v>1.2</v>
       </c>
       <c r="L52" t="n">
         <v>1.277</v>
       </c>
       <c r="M52" t="n">
-        <v>0.195771</v>
+        <v>0.939702</v>
       </c>
       <c r="N52"/>
       <c r="O52" t="n">
-        <v>0.195771</v>
+        <v>0.939702</v>
       </c>
       <c r="P52" t="n">
         <v>1</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.195771</v>
+        <v>0.939702</v>
       </c>
       <c r="R52" t="n">
         <v>0</v>
@@ -4888,7 +5258,7 @@
         <v>0</v>
       </c>
       <c r="W52" t="n">
-        <v>0.195771</v>
+        <v>0.939702</v>
       </c>
       <c r="X52"/>
       <c r="Y52"/>
@@ -4897,52 +5267,62 @@
         <v>0</v>
       </c>
       <c r="AB52" t="n">
-        <v>126273</v>
+        <v>125886</v>
+      </c>
+      <c r="AC52" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD52" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B53" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C53" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D53" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E53" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="F53"/>
       <c r="G53" s="1" t="n">
         <v>42087</v>
       </c>
       <c r="H53" s="1" t="n">
-        <v>42104</v>
+        <v>42213</v>
       </c>
       <c r="I53" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="J53" t="s">
-        <v>37</v>
-      </c>
-      <c r="K53"/>
-      <c r="L53"/>
+        <v>138</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="L53" t="n">
+        <v>6.651</v>
+      </c>
       <c r="M53" t="n">
-        <v>0.04</v>
+        <v>0.105247</v>
       </c>
       <c r="N53"/>
       <c r="O53" t="n">
-        <v>0.04</v>
+        <v>0.105247</v>
       </c>
       <c r="P53" t="n">
         <v>1</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.04</v>
+        <v>0.105247</v>
       </c>
       <c r="R53" t="n">
         <v>0</v>
@@ -4960,7 +5340,7 @@
         <v>0</v>
       </c>
       <c r="W53" t="n">
-        <v>0.04</v>
+        <v>0.105247</v>
       </c>
       <c r="X53"/>
       <c r="Y53"/>
@@ -4969,56 +5349,58 @@
         <v>0</v>
       </c>
       <c r="AB53" t="n">
-        <v>127156</v>
+        <v>132003</v>
+      </c>
+      <c r="AC53" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD53" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B54" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C54" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D54" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E54" t="s">
-        <v>115</v>
+        <v>39</v>
       </c>
       <c r="F54"/>
       <c r="G54" s="1" t="n">
         <v>42087</v>
       </c>
       <c r="H54" s="1" t="n">
-        <v>42144</v>
+        <v>42104</v>
       </c>
       <c r="I54" t="s">
-        <v>61</v>
+        <v>140</v>
       </c>
       <c r="J54" t="s">
-        <v>37</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0.006249</v>
-      </c>
-      <c r="L54" t="n">
-        <v>1.305956</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="K54"/>
+      <c r="L54"/>
       <c r="M54" t="n">
-        <v>0.004785</v>
+        <v>0.04</v>
       </c>
       <c r="N54"/>
       <c r="O54" t="n">
-        <v>0.004785</v>
+        <v>0.04</v>
       </c>
       <c r="P54" t="n">
         <v>1</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.004785</v>
+        <v>0.04</v>
       </c>
       <c r="R54" t="n">
         <v>0</v>
@@ -5036,7 +5418,7 @@
         <v>0</v>
       </c>
       <c r="W54" t="n">
-        <v>0.004785</v>
+        <v>0.04</v>
       </c>
       <c r="X54"/>
       <c r="Y54"/>
@@ -5045,56 +5427,62 @@
         <v>0</v>
       </c>
       <c r="AB54" t="n">
-        <v>129330</v>
+        <v>127156</v>
+      </c>
+      <c r="AC54" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD54" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B55" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C55" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D55" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E55" t="s">
-        <v>38</v>
+        <v>141</v>
       </c>
       <c r="F55"/>
       <c r="G55" s="1" t="n">
         <v>42087</v>
       </c>
       <c r="H55" s="1" t="n">
-        <v>42213</v>
+        <v>42144</v>
       </c>
       <c r="I55" t="s">
-        <v>116</v>
+        <v>66</v>
       </c>
       <c r="J55" t="s">
-        <v>117</v>
+        <v>41</v>
       </c>
       <c r="K55" t="n">
-        <v>0.7</v>
+        <v>0.006249</v>
       </c>
       <c r="L55" t="n">
-        <v>6.651</v>
+        <v>1.305956</v>
       </c>
       <c r="M55" t="n">
-        <v>0.105247</v>
+        <v>0.004785</v>
       </c>
       <c r="N55"/>
       <c r="O55" t="n">
-        <v>0.105247</v>
+        <v>0.004785</v>
       </c>
       <c r="P55" t="n">
         <v>1</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.105247</v>
+        <v>0.004785</v>
       </c>
       <c r="R55" t="n">
         <v>0</v>
@@ -5112,7 +5500,7 @@
         <v>0</v>
       </c>
       <c r="W55" t="n">
-        <v>0.105247</v>
+        <v>0.004785</v>
       </c>
       <c r="X55"/>
       <c r="Y55"/>
@@ -5121,24 +5509,30 @@
         <v>0</v>
       </c>
       <c r="AB55" t="n">
-        <v>132003</v>
+        <v>129330</v>
+      </c>
+      <c r="AC55" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD55" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B56" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C56" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D56" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E56" t="s">
-        <v>118</v>
+        <v>39</v>
       </c>
       <c r="F56"/>
       <c r="G56" s="1" t="n">
@@ -5148,25 +5542,25 @@
         <v>42104</v>
       </c>
       <c r="I56" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="J56" t="s">
-        <v>120</v>
+        <v>41</v>
       </c>
       <c r="K56"/>
       <c r="L56"/>
       <c r="M56" t="n">
-        <v>0.7</v>
+        <v>0.069517</v>
       </c>
       <c r="N56"/>
       <c r="O56" t="n">
-        <v>0.7</v>
+        <v>0.069517</v>
       </c>
       <c r="P56" t="n">
         <v>1</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.7</v>
+        <v>0.069517</v>
       </c>
       <c r="R56" t="n">
         <v>0</v>
@@ -5184,7 +5578,7 @@
         <v>0</v>
       </c>
       <c r="W56" t="n">
-        <v>0.7</v>
+        <v>0.069517</v>
       </c>
       <c r="X56"/>
       <c r="Y56"/>
@@ -5193,52 +5587,58 @@
         <v>0</v>
       </c>
       <c r="AB56" t="n">
-        <v>126209</v>
+        <v>127158</v>
+      </c>
+      <c r="AC56" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD56" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B57" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C57" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D57" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E57" t="s">
-        <v>35</v>
+        <v>143</v>
       </c>
       <c r="F57"/>
       <c r="G57" s="1" t="n">
         <v>42088</v>
       </c>
       <c r="H57" s="1" t="n">
-        <v>42094</v>
+        <v>42104</v>
       </c>
       <c r="I57" t="s">
-        <v>121</v>
+        <v>144</v>
       </c>
       <c r="J57" t="s">
-        <v>37</v>
+        <v>145</v>
       </c>
       <c r="K57"/>
       <c r="L57"/>
       <c r="M57" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="N57"/>
       <c r="O57" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="P57" t="n">
         <v>1</v>
       </c>
       <c r="Q57" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="R57" t="n">
         <v>0</v>
@@ -5256,7 +5656,7 @@
         <v>0</v>
       </c>
       <c r="W57" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="X57"/>
       <c r="Y57"/>
@@ -5265,52 +5665,58 @@
         <v>0</v>
       </c>
       <c r="AB57" t="n">
-        <v>126579</v>
+        <v>126209</v>
+      </c>
+      <c r="AC57" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD57" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B58" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C58" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D58" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E58" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F58"/>
       <c r="G58" s="1" t="n">
         <v>42088</v>
       </c>
       <c r="H58" s="1" t="n">
-        <v>42104</v>
+        <v>42094</v>
       </c>
       <c r="I58" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="J58" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K58"/>
       <c r="L58"/>
       <c r="M58" t="n">
-        <v>0.069517</v>
+        <v>0</v>
       </c>
       <c r="N58"/>
       <c r="O58" t="n">
-        <v>0.069517</v>
+        <v>0</v>
       </c>
       <c r="P58" t="n">
         <v>1</v>
       </c>
       <c r="Q58" t="n">
-        <v>0.069517</v>
+        <v>0</v>
       </c>
       <c r="R58" t="n">
         <v>0</v>
@@ -5328,7 +5734,7 @@
         <v>0</v>
       </c>
       <c r="W58" t="n">
-        <v>0.069517</v>
+        <v>0</v>
       </c>
       <c r="X58"/>
       <c r="Y58"/>
@@ -5337,52 +5743,62 @@
         <v>0</v>
       </c>
       <c r="AB58" t="n">
-        <v>127158</v>
+        <v>126579</v>
+      </c>
+      <c r="AC58" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD58" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B59" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C59" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D59" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E59" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="F59"/>
       <c r="G59" s="1" t="n">
         <v>42089</v>
       </c>
       <c r="H59" s="1" t="n">
-        <v>43060</v>
+        <v>42114</v>
       </c>
       <c r="I59" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="J59" t="s">
-        <v>37</v>
-      </c>
-      <c r="K59"/>
-      <c r="L59"/>
+        <v>41</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0.667</v>
+      </c>
       <c r="M59" t="n">
-        <v>0.25</v>
+        <v>0.749625</v>
       </c>
       <c r="N59"/>
       <c r="O59" t="n">
-        <v>0.25</v>
+        <v>0.749625</v>
       </c>
       <c r="P59" t="n">
         <v>1</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.25</v>
+        <v>0.749625</v>
       </c>
       <c r="R59" t="n">
         <v>0</v>
@@ -5400,7 +5816,7 @@
         <v>0</v>
       </c>
       <c r="W59" t="n">
-        <v>0.25</v>
+        <v>0.749625</v>
       </c>
       <c r="X59"/>
       <c r="Y59"/>
@@ -5409,52 +5825,58 @@
         <v>0</v>
       </c>
       <c r="AB59" t="n">
-        <v>126385</v>
+        <v>127159</v>
+      </c>
+      <c r="AC59" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD59" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B60" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C60" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D60" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E60" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="F60"/>
       <c r="G60" s="1" t="n">
         <v>42089</v>
       </c>
       <c r="H60" s="1" t="n">
-        <v>42089</v>
+        <v>43060</v>
       </c>
       <c r="I60" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="J60" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K60"/>
       <c r="L60"/>
       <c r="M60" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="N60"/>
       <c r="O60" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="P60" t="n">
         <v>1</v>
       </c>
       <c r="Q60" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="R60" t="n">
         <v>0</v>
@@ -5472,7 +5894,7 @@
         <v>0</v>
       </c>
       <c r="W60" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="X60"/>
       <c r="Y60"/>
@@ -5481,56 +5903,58 @@
         <v>0</v>
       </c>
       <c r="AB60" t="n">
-        <v>126386</v>
+        <v>126385</v>
+      </c>
+      <c r="AC60" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD60" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B61" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C61" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D61" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E61" t="s">
-        <v>125</v>
+        <v>76</v>
       </c>
       <c r="F61"/>
       <c r="G61" s="1" t="n">
         <v>42089</v>
       </c>
       <c r="H61" s="1" t="n">
-        <v>42094</v>
+        <v>42089</v>
       </c>
       <c r="I61" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="J61" t="s">
-        <v>127</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="L61" t="n">
-        <v>0.891</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="K61"/>
+      <c r="L61"/>
       <c r="M61" t="n">
-        <v>0.056117</v>
+        <v>1</v>
       </c>
       <c r="N61"/>
       <c r="O61" t="n">
-        <v>0.056117</v>
+        <v>1</v>
       </c>
       <c r="P61" t="n">
         <v>1</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.056117</v>
+        <v>1</v>
       </c>
       <c r="R61" t="n">
         <v>0</v>
@@ -5548,7 +5972,7 @@
         <v>0</v>
       </c>
       <c r="W61" t="n">
-        <v>0.056117</v>
+        <v>1</v>
       </c>
       <c r="X61"/>
       <c r="Y61"/>
@@ -5557,56 +5981,62 @@
         <v>0</v>
       </c>
       <c r="AB61" t="n">
-        <v>126582</v>
+        <v>126386</v>
+      </c>
+      <c r="AC61" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD61" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B62" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C62" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D62" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E62" t="s">
-        <v>35</v>
+        <v>149</v>
       </c>
       <c r="F62"/>
       <c r="G62" s="1" t="n">
         <v>42089</v>
       </c>
       <c r="H62" s="1" t="n">
-        <v>43060</v>
+        <v>42094</v>
       </c>
       <c r="I62" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="J62" t="s">
-        <v>37</v>
+        <v>151</v>
       </c>
       <c r="K62" t="n">
-        <v>0.097</v>
+        <v>0.05</v>
       </c>
       <c r="L62" t="n">
-        <v>1.382003</v>
+        <v>0.891</v>
       </c>
       <c r="M62" t="n">
-        <v>0.070188</v>
+        <v>0.056117</v>
       </c>
       <c r="N62"/>
       <c r="O62" t="n">
-        <v>0.070188</v>
+        <v>0.056117</v>
       </c>
       <c r="P62" t="n">
         <v>1</v>
       </c>
       <c r="Q62" t="n">
-        <v>0.070188</v>
+        <v>0.056117</v>
       </c>
       <c r="R62" t="n">
         <v>0</v>
@@ -5624,7 +6054,7 @@
         <v>0</v>
       </c>
       <c r="W62" t="n">
-        <v>0.070188</v>
+        <v>0.056117</v>
       </c>
       <c r="X62"/>
       <c r="Y62"/>
@@ -5633,24 +6063,30 @@
         <v>0</v>
       </c>
       <c r="AB62" t="n">
-        <v>126578</v>
+        <v>126582</v>
+      </c>
+      <c r="AC62" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD62" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B63" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C63" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D63" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E63" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="F63"/>
       <c r="G63" s="1" t="n">
@@ -5660,10 +6096,10 @@
         <v>42104</v>
       </c>
       <c r="I63" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="J63" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="K63" t="n">
         <v>0.06</v>
@@ -5711,54 +6147,60 @@
       <c r="AB63" t="n">
         <v>127120</v>
       </c>
+      <c r="AC63" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD63" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B64" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C64" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D64" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E64" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="F64"/>
       <c r="G64" s="1" t="n">
         <v>42089</v>
       </c>
       <c r="H64" s="1" t="n">
-        <v>42114</v>
+        <v>43060</v>
       </c>
       <c r="I64" t="s">
-        <v>111</v>
+        <v>153</v>
       </c>
       <c r="J64" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K64" t="n">
-        <v>0.5</v>
+        <v>0.097</v>
       </c>
       <c r="L64" t="n">
-        <v>0.667</v>
+        <v>1.382003</v>
       </c>
       <c r="M64" t="n">
-        <v>0.749625</v>
+        <v>0.070188</v>
       </c>
       <c r="N64"/>
       <c r="O64" t="n">
-        <v>0.749625</v>
+        <v>0.070188</v>
       </c>
       <c r="P64" t="n">
         <v>1</v>
       </c>
       <c r="Q64" t="n">
-        <v>0.749625</v>
+        <v>0.070188</v>
       </c>
       <c r="R64" t="n">
         <v>0</v>
@@ -5776,7 +6218,7 @@
         <v>0</v>
       </c>
       <c r="W64" t="n">
-        <v>0.749625</v>
+        <v>0.070188</v>
       </c>
       <c r="X64"/>
       <c r="Y64"/>
@@ -5785,24 +6227,30 @@
         <v>0</v>
       </c>
       <c r="AB64" t="n">
-        <v>127159</v>
+        <v>126578</v>
+      </c>
+      <c r="AC64" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD64" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B65" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C65" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D65" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E65" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F65"/>
       <c r="G65" s="1" t="n">
@@ -5812,10 +6260,10 @@
         <v>42144</v>
       </c>
       <c r="I65" t="s">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="J65" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K65" t="n">
         <v>2.1</v>
@@ -5863,22 +6311,28 @@
       <c r="AB65" t="n">
         <v>129262</v>
       </c>
+      <c r="AC65" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD65" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B66" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C66" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D66" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E66" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="F66"/>
       <c r="G66" s="1" t="n">
@@ -5888,10 +6342,10 @@
         <v>42104</v>
       </c>
       <c r="I66" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="J66" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K66" t="n">
         <v>0.025</v>
@@ -5939,22 +6393,28 @@
       <c r="AB66" t="n">
         <v>127152</v>
       </c>
+      <c r="AC66" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD66" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B67" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C67" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D67" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E67" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="F67"/>
       <c r="G67" s="1" t="n">
@@ -5964,10 +6424,10 @@
         <v>42228</v>
       </c>
       <c r="I67" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="J67" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K67" t="n">
         <v>2.349884</v>
@@ -6015,22 +6475,28 @@
       <c r="AB67" t="n">
         <v>127153</v>
       </c>
+      <c r="AC67" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD67" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B68" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C68" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D68" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E68" t="s">
-        <v>132</v>
+        <v>157</v>
       </c>
       <c r="F68"/>
       <c r="G68" s="1" t="n">
@@ -6040,10 +6506,10 @@
         <v>42144</v>
       </c>
       <c r="I68" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="J68" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K68"/>
       <c r="L68"/>
@@ -6087,50 +6553,56 @@
       <c r="AB68" t="n">
         <v>129327</v>
       </c>
+      <c r="AC68" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD68" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B69" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C69" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D69" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E69" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
       <c r="F69"/>
       <c r="G69" s="1" t="n">
         <v>42093</v>
       </c>
       <c r="H69" s="1" t="n">
-        <v>42115</v>
+        <v>42094</v>
       </c>
       <c r="I69" t="s">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="J69" t="s">
-        <v>135</v>
+        <v>41</v>
       </c>
       <c r="K69"/>
       <c r="L69"/>
       <c r="M69" t="n">
-        <v>0.413421</v>
+        <v>0.02</v>
       </c>
       <c r="N69"/>
       <c r="O69" t="n">
-        <v>0.413421</v>
+        <v>0.02</v>
       </c>
       <c r="P69" t="n">
         <v>1</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.413421</v>
+        <v>0.02</v>
       </c>
       <c r="R69" t="n">
         <v>0</v>
@@ -6148,7 +6620,7 @@
         <v>0</v>
       </c>
       <c r="W69" t="n">
-        <v>0.413421</v>
+        <v>0.02</v>
       </c>
       <c r="X69"/>
       <c r="Y69"/>
@@ -6157,52 +6629,58 @@
         <v>0</v>
       </c>
       <c r="AB69" t="n">
-        <v>126522</v>
+        <v>126569</v>
+      </c>
+      <c r="AC69" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD69" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B70" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C70" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D70" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E70" t="s">
-        <v>133</v>
+        <v>39</v>
       </c>
       <c r="F70"/>
       <c r="G70" s="1" t="n">
         <v>42093</v>
       </c>
       <c r="H70" s="1" t="n">
-        <v>42115</v>
+        <v>42982</v>
       </c>
       <c r="I70" t="s">
-        <v>136</v>
+        <v>161</v>
       </c>
       <c r="J70" t="s">
-        <v>137</v>
+        <v>41</v>
       </c>
       <c r="K70"/>
       <c r="L70"/>
       <c r="M70" t="n">
-        <v>0.276736</v>
+        <v>0.0973</v>
       </c>
       <c r="N70"/>
       <c r="O70" t="n">
-        <v>0.276736</v>
+        <v>0.0973</v>
       </c>
       <c r="P70" t="n">
         <v>1</v>
       </c>
       <c r="Q70" t="n">
-        <v>0.276736</v>
+        <v>0.0973</v>
       </c>
       <c r="R70" t="n">
         <v>0</v>
@@ -6220,7 +6698,7 @@
         <v>0</v>
       </c>
       <c r="W70" t="n">
-        <v>0.276736</v>
+        <v>0.0973</v>
       </c>
       <c r="X70"/>
       <c r="Y70"/>
@@ -6229,52 +6707,58 @@
         <v>0</v>
       </c>
       <c r="AB70" t="n">
-        <v>126525</v>
+        <v>126570</v>
+      </c>
+      <c r="AC70" t="s">
+        <v>162</v>
+      </c>
+      <c r="AD70" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B71" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C71" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D71" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E71" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
       <c r="F71"/>
       <c r="G71" s="1" t="n">
         <v>42093</v>
       </c>
       <c r="H71" s="1" t="n">
-        <v>42094</v>
+        <v>42115</v>
       </c>
       <c r="I71" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="J71" t="s">
-        <v>37</v>
+        <v>165</v>
       </c>
       <c r="K71"/>
       <c r="L71"/>
       <c r="M71" t="n">
-        <v>0.02</v>
+        <v>0.413421</v>
       </c>
       <c r="N71"/>
       <c r="O71" t="n">
-        <v>0.02</v>
+        <v>0.413421</v>
       </c>
       <c r="P71" t="n">
         <v>1</v>
       </c>
       <c r="Q71" t="n">
-        <v>0.02</v>
+        <v>0.413421</v>
       </c>
       <c r="R71" t="n">
         <v>0</v>
@@ -6292,7 +6776,7 @@
         <v>0</v>
       </c>
       <c r="W71" t="n">
-        <v>0.02</v>
+        <v>0.413421</v>
       </c>
       <c r="X71"/>
       <c r="Y71"/>
@@ -6301,52 +6785,58 @@
         <v>0</v>
       </c>
       <c r="AB71" t="n">
-        <v>126569</v>
+        <v>126522</v>
+      </c>
+      <c r="AC71" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD71" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B72" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C72" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D72" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E72" t="s">
-        <v>35</v>
+        <v>163</v>
       </c>
       <c r="F72"/>
       <c r="G72" s="1" t="n">
         <v>42093</v>
       </c>
       <c r="H72" s="1" t="n">
-        <v>42982</v>
+        <v>42115</v>
       </c>
       <c r="I72" t="s">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="J72" t="s">
-        <v>37</v>
+        <v>167</v>
       </c>
       <c r="K72"/>
       <c r="L72"/>
       <c r="M72" t="n">
-        <v>0.0973</v>
+        <v>0.276736</v>
       </c>
       <c r="N72"/>
       <c r="O72" t="n">
-        <v>0.0973</v>
+        <v>0.276736</v>
       </c>
       <c r="P72" t="n">
         <v>1</v>
       </c>
       <c r="Q72" t="n">
-        <v>0.0973</v>
+        <v>0.276736</v>
       </c>
       <c r="R72" t="n">
         <v>0</v>
@@ -6364,7 +6854,7 @@
         <v>0</v>
       </c>
       <c r="W72" t="n">
-        <v>0.0973</v>
+        <v>0.276736</v>
       </c>
       <c r="X72"/>
       <c r="Y72"/>
@@ -6373,52 +6863,58 @@
         <v>0</v>
       </c>
       <c r="AB72" t="n">
-        <v>126570</v>
+        <v>126525</v>
+      </c>
+      <c r="AC72" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD72" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B73" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C73" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D73" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E73" t="s">
-        <v>35</v>
+        <v>163</v>
       </c>
       <c r="F73"/>
       <c r="G73" s="1" t="n">
-        <v>42090</v>
+        <v>42093</v>
       </c>
       <c r="H73" s="1" t="n">
-        <v>42094</v>
+        <v>42115</v>
       </c>
       <c r="I73" t="s">
-        <v>141</v>
+        <v>168</v>
       </c>
       <c r="J73" t="s">
-        <v>37</v>
+        <v>167</v>
       </c>
       <c r="K73"/>
       <c r="L73"/>
       <c r="M73" t="n">
-        <v>0</v>
+        <v>0.048212</v>
       </c>
       <c r="N73"/>
       <c r="O73" t="n">
-        <v>0</v>
+        <v>0.048212</v>
       </c>
       <c r="P73" t="n">
         <v>1</v>
       </c>
       <c r="Q73" t="n">
-        <v>0</v>
+        <v>0.048212</v>
       </c>
       <c r="R73" t="n">
         <v>0</v>
@@ -6436,7 +6932,7 @@
         <v>0</v>
       </c>
       <c r="W73" t="n">
-        <v>0</v>
+        <v>0.048212</v>
       </c>
       <c r="X73"/>
       <c r="Y73"/>
@@ -6445,52 +6941,58 @@
         <v>0</v>
       </c>
       <c r="AB73" t="n">
-        <v>126571</v>
+        <v>127629</v>
+      </c>
+      <c r="AC73" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD73" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B74" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C74" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D74" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E74" t="s">
-        <v>133</v>
+        <v>163</v>
       </c>
       <c r="F74"/>
       <c r="G74" s="1" t="n">
         <v>42093</v>
       </c>
       <c r="H74" s="1" t="n">
-        <v>42115</v>
+        <v>43060</v>
       </c>
       <c r="I74" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="J74" t="s">
-        <v>137</v>
+        <v>165</v>
       </c>
       <c r="K74"/>
       <c r="L74"/>
       <c r="M74" t="n">
-        <v>0.048212</v>
+        <v>0.07062</v>
       </c>
       <c r="N74"/>
       <c r="O74" t="n">
-        <v>0.048212</v>
+        <v>0.07062</v>
       </c>
       <c r="P74" t="n">
         <v>1</v>
       </c>
       <c r="Q74" t="n">
-        <v>0.048212</v>
+        <v>0.07062</v>
       </c>
       <c r="R74" t="n">
         <v>0</v>
@@ -6508,7 +7010,7 @@
         <v>0</v>
       </c>
       <c r="W74" t="n">
-        <v>0.048212</v>
+        <v>0.07062</v>
       </c>
       <c r="X74"/>
       <c r="Y74"/>
@@ -6517,52 +7019,58 @@
         <v>0</v>
       </c>
       <c r="AB74" t="n">
-        <v>127629</v>
+        <v>127630</v>
+      </c>
+      <c r="AC74" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD74" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B75" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C75" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D75" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E75" t="s">
-        <v>133</v>
+        <v>39</v>
       </c>
       <c r="F75"/>
       <c r="G75" s="1" t="n">
-        <v>42093</v>
+        <v>42090</v>
       </c>
       <c r="H75" s="1" t="n">
-        <v>43060</v>
+        <v>42094</v>
       </c>
       <c r="I75" t="s">
-        <v>143</v>
+        <v>170</v>
       </c>
       <c r="J75" t="s">
-        <v>135</v>
+        <v>41</v>
       </c>
       <c r="K75"/>
       <c r="L75"/>
       <c r="M75" t="n">
-        <v>0.07062</v>
+        <v>0</v>
       </c>
       <c r="N75"/>
       <c r="O75" t="n">
-        <v>0.07062</v>
+        <v>0</v>
       </c>
       <c r="P75" t="n">
         <v>1</v>
       </c>
       <c r="Q75" t="n">
-        <v>0.07062</v>
+        <v>0</v>
       </c>
       <c r="R75" t="n">
         <v>0</v>
@@ -6580,7 +7088,7 @@
         <v>0</v>
       </c>
       <c r="W75" t="n">
-        <v>0.07062</v>
+        <v>0</v>
       </c>
       <c r="X75"/>
       <c r="Y75"/>
@@ -6589,52 +7097,58 @@
         <v>0</v>
       </c>
       <c r="AB75" t="n">
-        <v>127630</v>
+        <v>126571</v>
+      </c>
+      <c r="AC75" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD75" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B76" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C76" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D76" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E76" t="s">
-        <v>144</v>
+        <v>62</v>
       </c>
       <c r="F76"/>
       <c r="G76" s="1" t="n">
         <v>42094</v>
       </c>
       <c r="H76" s="1" t="n">
-        <v>42093</v>
+        <v>42124</v>
       </c>
       <c r="I76" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="J76" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K76"/>
       <c r="L76"/>
       <c r="M76" t="n">
-        <v>0.327556</v>
+        <v>0.474336</v>
       </c>
       <c r="N76"/>
       <c r="O76" t="n">
-        <v>0.327556</v>
+        <v>0.474336</v>
       </c>
       <c r="P76" t="n">
         <v>1</v>
       </c>
       <c r="Q76" t="n">
-        <v>0.327556</v>
+        <v>0.474336</v>
       </c>
       <c r="R76" t="n">
         <v>0</v>
@@ -6652,7 +7166,7 @@
         <v>0</v>
       </c>
       <c r="W76" t="n">
-        <v>0.327556</v>
+        <v>0.474336</v>
       </c>
       <c r="X76"/>
       <c r="Y76"/>
@@ -6661,56 +7175,58 @@
         <v>0</v>
       </c>
       <c r="AB76" t="n">
-        <v>126483</v>
+        <v>127160</v>
+      </c>
+      <c r="AC76" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD76" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B77" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C77" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D77" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E77" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="F77"/>
       <c r="G77" s="1" t="n">
         <v>42094</v>
       </c>
       <c r="H77" s="1" t="n">
-        <v>42104</v>
+        <v>42124</v>
       </c>
       <c r="I77" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="J77" t="s">
-        <v>147</v>
-      </c>
-      <c r="K77" t="n">
-        <v>2</v>
-      </c>
-      <c r="L77" t="n">
-        <v>8.229</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="K77"/>
+      <c r="L77"/>
       <c r="M77" t="n">
-        <v>0.243043</v>
+        <v>0.093264</v>
       </c>
       <c r="N77"/>
       <c r="O77" t="n">
-        <v>0.243043</v>
+        <v>0.093264</v>
       </c>
       <c r="P77" t="n">
         <v>1</v>
       </c>
       <c r="Q77" t="n">
-        <v>0.243043</v>
+        <v>0.093264</v>
       </c>
       <c r="R77" t="n">
         <v>0</v>
@@ -6728,7 +7244,7 @@
         <v>0</v>
       </c>
       <c r="W77" t="n">
-        <v>0.243043</v>
+        <v>0.093264</v>
       </c>
       <c r="X77"/>
       <c r="Y77"/>
@@ -6737,24 +7253,30 @@
         <v>0</v>
       </c>
       <c r="AB77" t="n">
-        <v>127085</v>
+        <v>127616</v>
+      </c>
+      <c r="AC77" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD77" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B78" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C78" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D78" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E78" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="F78"/>
       <c r="G78" s="1" t="n">
@@ -6764,25 +7286,25 @@
         <v>42124</v>
       </c>
       <c r="I78" t="s">
-        <v>109</v>
+        <v>171</v>
       </c>
       <c r="J78" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K78"/>
       <c r="L78"/>
       <c r="M78" t="n">
-        <v>0.474336</v>
+        <v>0.0324</v>
       </c>
       <c r="N78"/>
       <c r="O78" t="n">
-        <v>0.474336</v>
+        <v>0.0324</v>
       </c>
       <c r="P78" t="n">
         <v>1</v>
       </c>
       <c r="Q78" t="n">
-        <v>0.474336</v>
+        <v>0.0324</v>
       </c>
       <c r="R78" t="n">
         <v>0</v>
@@ -6800,7 +7322,7 @@
         <v>0</v>
       </c>
       <c r="W78" t="n">
-        <v>0.474336</v>
+        <v>0.0324</v>
       </c>
       <c r="X78"/>
       <c r="Y78"/>
@@ -6809,52 +7331,62 @@
         <v>0</v>
       </c>
       <c r="AB78" t="n">
-        <v>127160</v>
+        <v>127617</v>
+      </c>
+      <c r="AC78" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD78" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B79" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C79" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D79" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E79" t="s">
-        <v>48</v>
+        <v>172</v>
       </c>
       <c r="F79"/>
       <c r="G79" s="1" t="n">
         <v>42094</v>
       </c>
       <c r="H79" s="1" t="n">
-        <v>42124</v>
+        <v>42144</v>
       </c>
       <c r="I79" t="s">
-        <v>111</v>
+        <v>66</v>
       </c>
       <c r="J79" t="s">
-        <v>37</v>
-      </c>
-      <c r="K79"/>
-      <c r="L79"/>
+        <v>41</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="L79" t="n">
+        <v>1.264995</v>
+      </c>
       <c r="M79" t="n">
-        <v>0.093264</v>
+        <v>0.022925</v>
       </c>
       <c r="N79"/>
       <c r="O79" t="n">
-        <v>0.093264</v>
+        <v>0.022925</v>
       </c>
       <c r="P79" t="n">
         <v>1</v>
       </c>
       <c r="Q79" t="n">
-        <v>0.093264</v>
+        <v>0.022925</v>
       </c>
       <c r="R79" t="n">
         <v>0</v>
@@ -6872,7 +7404,7 @@
         <v>0</v>
       </c>
       <c r="W79" t="n">
-        <v>0.093264</v>
+        <v>0.022925</v>
       </c>
       <c r="X79"/>
       <c r="Y79"/>
@@ -6881,52 +7413,58 @@
         <v>0</v>
       </c>
       <c r="AB79" t="n">
-        <v>127616</v>
+        <v>129332</v>
+      </c>
+      <c r="AC79" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD79" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B80" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C80" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D80" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E80" t="s">
-        <v>48</v>
+        <v>173</v>
       </c>
       <c r="F80"/>
       <c r="G80" s="1" t="n">
         <v>42094</v>
       </c>
       <c r="H80" s="1" t="n">
-        <v>42124</v>
+        <v>42093</v>
       </c>
       <c r="I80" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="J80" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K80"/>
       <c r="L80"/>
       <c r="M80" t="n">
-        <v>0.0324</v>
+        <v>0.327556</v>
       </c>
       <c r="N80"/>
       <c r="O80" t="n">
-        <v>0.0324</v>
+        <v>0.327556</v>
       </c>
       <c r="P80" t="n">
         <v>1</v>
       </c>
       <c r="Q80" t="n">
-        <v>0.0324</v>
+        <v>0.327556</v>
       </c>
       <c r="R80" t="n">
         <v>0</v>
@@ -6944,7 +7482,7 @@
         <v>0</v>
       </c>
       <c r="W80" t="n">
-        <v>0.0324</v>
+        <v>0.327556</v>
       </c>
       <c r="X80"/>
       <c r="Y80"/>
@@ -6953,56 +7491,62 @@
         <v>0</v>
       </c>
       <c r="AB80" t="n">
-        <v>127617</v>
+        <v>126483</v>
+      </c>
+      <c r="AC80" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD80" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B81" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C81" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D81" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E81" t="s">
-        <v>149</v>
+        <v>96</v>
       </c>
       <c r="F81"/>
       <c r="G81" s="1" t="n">
         <v>42094</v>
       </c>
       <c r="H81" s="1" t="n">
-        <v>42144</v>
+        <v>42104</v>
       </c>
       <c r="I81" t="s">
-        <v>61</v>
+        <v>175</v>
       </c>
       <c r="J81" t="s">
-        <v>37</v>
+        <v>176</v>
       </c>
       <c r="K81" t="n">
-        <v>0.029</v>
+        <v>2</v>
       </c>
       <c r="L81" t="n">
-        <v>1.264995</v>
+        <v>8.229</v>
       </c>
       <c r="M81" t="n">
-        <v>0.022925</v>
+        <v>0.243043</v>
       </c>
       <c r="N81"/>
       <c r="O81" t="n">
-        <v>0.022925</v>
+        <v>0.243043</v>
       </c>
       <c r="P81" t="n">
         <v>1</v>
       </c>
       <c r="Q81" t="n">
-        <v>0.022925</v>
+        <v>0.243043</v>
       </c>
       <c r="R81" t="n">
         <v>0</v>
@@ -7020,7 +7564,7 @@
         <v>0</v>
       </c>
       <c r="W81" t="n">
-        <v>0.022925</v>
+        <v>0.243043</v>
       </c>
       <c r="X81"/>
       <c r="Y81"/>
@@ -7029,24 +7573,30 @@
         <v>0</v>
       </c>
       <c r="AB81" t="n">
-        <v>129332</v>
+        <v>127085</v>
+      </c>
+      <c r="AC81" t="s">
+        <v>177</v>
+      </c>
+      <c r="AD81" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B82" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C82" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D82" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E82" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F82"/>
       <c r="G82" s="1" t="n">
@@ -7056,10 +7606,10 @@
         <v>42157</v>
       </c>
       <c r="I82" t="s">
-        <v>150</v>
+        <v>178</v>
       </c>
       <c r="J82" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K82"/>
       <c r="L82"/>
@@ -7103,22 +7653,28 @@
       <c r="AB82" t="n">
         <v>129328</v>
       </c>
+      <c r="AC82" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD82" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B83" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C83" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D83" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E83" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F83"/>
       <c r="G83" s="1" t="n">
@@ -7128,10 +7684,10 @@
         <v>42157</v>
       </c>
       <c r="I83" t="s">
-        <v>151</v>
+        <v>179</v>
       </c>
       <c r="J83" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K83"/>
       <c r="L83"/>
@@ -7175,22 +7731,28 @@
       <c r="AB83" t="n">
         <v>129331</v>
       </c>
+      <c r="AC83" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD83" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B84" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C84" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D84" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E84" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="F84"/>
       <c r="G84" s="1" t="n">
@@ -7200,10 +7762,10 @@
         <v>42250</v>
       </c>
       <c r="I84" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="J84" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K84" t="n">
         <v>0.5</v>
@@ -7251,44 +7813,54 @@
       <c r="AB84" t="n">
         <v>133170</v>
       </c>
+      <c r="AC84" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD84" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B85" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C85" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D85" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E85" t="s">
-        <v>133</v>
+        <v>96</v>
       </c>
       <c r="F85"/>
       <c r="G85" s="1" t="n">
-        <v>42093</v>
+        <v>42096</v>
       </c>
       <c r="H85" s="1" t="n">
         <v>43060</v>
       </c>
       <c r="I85" t="s">
-        <v>152</v>
+        <v>180</v>
       </c>
       <c r="J85" t="s">
-        <v>153</v>
-      </c>
-      <c r="K85"/>
-      <c r="L85"/>
+        <v>181</v>
+      </c>
+      <c r="K85" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="L85" t="n">
+        <v>8.366</v>
+      </c>
       <c r="M85" t="n">
-        <v>0.025</v>
+        <v>0.193641</v>
       </c>
       <c r="N85"/>
       <c r="O85" t="n">
-        <v>0.025</v>
+        <v>0.193641</v>
       </c>
       <c r="P85" t="n">
         <v>1</v>
@@ -7297,7 +7869,7 @@
         <v>0</v>
       </c>
       <c r="R85" t="n">
-        <v>0.025</v>
+        <v>0.193641</v>
       </c>
       <c r="S85" t="n">
         <v>0</v>
@@ -7312,7 +7884,7 @@
         <v>0</v>
       </c>
       <c r="W85" t="n">
-        <v>0.025</v>
+        <v>0.193641</v>
       </c>
       <c r="X85"/>
       <c r="Y85"/>
@@ -7321,46 +7893,56 @@
         <v>0</v>
       </c>
       <c r="AB85" t="n">
-        <v>126523</v>
+        <v>127083</v>
+      </c>
+      <c r="AC85" t="s">
+        <v>99</v>
+      </c>
+      <c r="AD85" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B86" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C86" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D86" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E86" t="s">
-        <v>133</v>
+        <v>96</v>
       </c>
       <c r="F86"/>
       <c r="G86" s="1" t="n">
-        <v>42093</v>
+        <v>42096</v>
       </c>
       <c r="H86" s="1" t="n">
-        <v>42263</v>
+        <v>42104</v>
       </c>
       <c r="I86" t="s">
-        <v>152</v>
+        <v>182</v>
       </c>
       <c r="J86" t="s">
-        <v>154</v>
-      </c>
-      <c r="K86"/>
-      <c r="L86"/>
+        <v>183</v>
+      </c>
+      <c r="K86" t="n">
+        <v>1.27176</v>
+      </c>
+      <c r="L86" t="n">
+        <v>8.366</v>
+      </c>
       <c r="M86" t="n">
-        <v>0.206436</v>
+        <v>0.152015</v>
       </c>
       <c r="N86"/>
       <c r="O86" t="n">
-        <v>0.206436</v>
+        <v>0.152015</v>
       </c>
       <c r="P86" t="n">
         <v>1</v>
@@ -7369,7 +7951,7 @@
         <v>0</v>
       </c>
       <c r="R86" t="n">
-        <v>0.206436</v>
+        <v>0.152015</v>
       </c>
       <c r="S86" t="n">
         <v>0</v>
@@ -7384,7 +7966,7 @@
         <v>0</v>
       </c>
       <c r="W86" t="n">
-        <v>0.206436</v>
+        <v>0.152015</v>
       </c>
       <c r="X86"/>
       <c r="Y86"/>
@@ -7393,50 +7975,52 @@
         <v>0</v>
       </c>
       <c r="AB86" t="n">
-        <v>126524</v>
+        <v>127084</v>
+      </c>
+      <c r="AC86" t="s">
+        <v>99</v>
+      </c>
+      <c r="AD86" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B87" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C87" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D87" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E87" t="s">
-        <v>84</v>
+        <v>163</v>
       </c>
       <c r="F87"/>
       <c r="G87" s="1" t="n">
-        <v>42096</v>
+        <v>42093</v>
       </c>
       <c r="H87" s="1" t="n">
         <v>43060</v>
       </c>
       <c r="I87" t="s">
-        <v>155</v>
+        <v>184</v>
       </c>
       <c r="J87" t="s">
-        <v>156</v>
-      </c>
-      <c r="K87" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="L87" t="n">
-        <v>8.366</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="K87"/>
+      <c r="L87"/>
       <c r="M87" t="n">
-        <v>0.193641</v>
+        <v>0.025</v>
       </c>
       <c r="N87"/>
       <c r="O87" t="n">
-        <v>0.193641</v>
+        <v>0.025</v>
       </c>
       <c r="P87" t="n">
         <v>1</v>
@@ -7445,7 +8029,7 @@
         <v>0</v>
       </c>
       <c r="R87" t="n">
-        <v>0.193641</v>
+        <v>0.025</v>
       </c>
       <c r="S87" t="n">
         <v>0</v>
@@ -7460,7 +8044,7 @@
         <v>0</v>
       </c>
       <c r="W87" t="n">
-        <v>0.193641</v>
+        <v>0.025</v>
       </c>
       <c r="X87"/>
       <c r="Y87"/>
@@ -7469,50 +8053,52 @@
         <v>0</v>
       </c>
       <c r="AB87" t="n">
-        <v>127083</v>
+        <v>126523</v>
+      </c>
+      <c r="AC87" t="s">
+        <v>186</v>
+      </c>
+      <c r="AD87" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B88" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C88" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D88" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E88" t="s">
-        <v>84</v>
+        <v>163</v>
       </c>
       <c r="F88"/>
       <c r="G88" s="1" t="n">
-        <v>42096</v>
+        <v>42093</v>
       </c>
       <c r="H88" s="1" t="n">
-        <v>42104</v>
+        <v>42263</v>
       </c>
       <c r="I88" t="s">
-        <v>157</v>
+        <v>184</v>
       </c>
       <c r="J88" t="s">
-        <v>158</v>
-      </c>
-      <c r="K88" t="n">
-        <v>1.27176</v>
-      </c>
-      <c r="L88" t="n">
-        <v>8.366</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="K88"/>
+      <c r="L88"/>
       <c r="M88" t="n">
-        <v>0.152015</v>
+        <v>0.206436</v>
       </c>
       <c r="N88"/>
       <c r="O88" t="n">
-        <v>0.152015</v>
+        <v>0.206436</v>
       </c>
       <c r="P88" t="n">
         <v>1</v>
@@ -7521,7 +8107,7 @@
         <v>0</v>
       </c>
       <c r="R88" t="n">
-        <v>0.152015</v>
+        <v>0.206436</v>
       </c>
       <c r="S88" t="n">
         <v>0</v>
@@ -7536,7 +8122,7 @@
         <v>0</v>
       </c>
       <c r="W88" t="n">
-        <v>0.152015</v>
+        <v>0.206436</v>
       </c>
       <c r="X88"/>
       <c r="Y88"/>
@@ -7545,24 +8131,30 @@
         <v>0</v>
       </c>
       <c r="AB88" t="n">
-        <v>127084</v>
+        <v>126524</v>
+      </c>
+      <c r="AC88" t="s">
+        <v>186</v>
+      </c>
+      <c r="AD88" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B89" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C89" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D89" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E89" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="F89"/>
       <c r="G89" s="1" t="n">
@@ -7572,10 +8164,10 @@
         <v>42124</v>
       </c>
       <c r="I89" t="s">
-        <v>159</v>
+        <v>188</v>
       </c>
       <c r="J89" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K89"/>
       <c r="L89"/>
@@ -7619,22 +8211,28 @@
       <c r="AB89" t="n">
         <v>128162</v>
       </c>
+      <c r="AC89" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD89" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B90" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C90" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D90" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E90" t="s">
-        <v>160</v>
+        <v>189</v>
       </c>
       <c r="F90"/>
       <c r="G90" s="1" t="n">
@@ -7644,10 +8242,10 @@
         <v>42156</v>
       </c>
       <c r="I90" t="s">
-        <v>161</v>
+        <v>190</v>
       </c>
       <c r="J90" t="s">
-        <v>162</v>
+        <v>191</v>
       </c>
       <c r="K90" t="n">
         <v>0.05</v>
@@ -7695,44 +8293,50 @@
       <c r="AB90" t="n">
         <v>129841</v>
       </c>
+      <c r="AC90" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD90" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B91" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C91" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D91" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E91" t="s">
-        <v>133</v>
+        <v>163</v>
       </c>
       <c r="F91"/>
       <c r="G91" s="1" t="n">
         <v>42090</v>
       </c>
       <c r="H91" s="1" t="n">
-        <v>43060</v>
+        <v>42263</v>
       </c>
       <c r="I91" t="s">
-        <v>163</v>
+        <v>192</v>
       </c>
       <c r="J91" t="s">
-        <v>164</v>
+        <v>193</v>
       </c>
       <c r="K91"/>
       <c r="L91"/>
       <c r="M91" t="n">
-        <v>0.15</v>
+        <v>0.446376</v>
       </c>
       <c r="N91"/>
       <c r="O91" t="n">
-        <v>0.15</v>
+        <v>0.446376</v>
       </c>
       <c r="P91" t="n">
         <v>1</v>
@@ -7741,7 +8345,7 @@
         <v>0</v>
       </c>
       <c r="R91" t="n">
-        <v>0.15</v>
+        <v>0.446376</v>
       </c>
       <c r="S91" t="n">
         <v>0</v>
@@ -7756,7 +8360,7 @@
         <v>0</v>
       </c>
       <c r="W91" t="n">
-        <v>0.15</v>
+        <v>0.446376</v>
       </c>
       <c r="X91"/>
       <c r="Y91"/>
@@ -7765,24 +8369,30 @@
         <v>0</v>
       </c>
       <c r="AB91" t="n">
-        <v>126447</v>
+        <v>126452</v>
+      </c>
+      <c r="AC91" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD91" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B92" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C92" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D92" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E92" t="s">
-        <v>133</v>
+        <v>163</v>
       </c>
       <c r="F92"/>
       <c r="G92" s="1" t="n">
@@ -7792,19 +8402,19 @@
         <v>43060</v>
       </c>
       <c r="I92" t="s">
-        <v>165</v>
+        <v>194</v>
       </c>
       <c r="J92" t="s">
-        <v>166</v>
+        <v>195</v>
       </c>
       <c r="K92"/>
       <c r="L92"/>
       <c r="M92" t="n">
-        <v>0.4815</v>
+        <v>0.15</v>
       </c>
       <c r="N92"/>
       <c r="O92" t="n">
-        <v>0.4815</v>
+        <v>0.15</v>
       </c>
       <c r="P92" t="n">
         <v>1</v>
@@ -7813,7 +8423,7 @@
         <v>0</v>
       </c>
       <c r="R92" t="n">
-        <v>0.4815</v>
+        <v>0.15</v>
       </c>
       <c r="S92" t="n">
         <v>0</v>
@@ -7828,7 +8438,7 @@
         <v>0</v>
       </c>
       <c r="W92" t="n">
-        <v>0.4815</v>
+        <v>0.15</v>
       </c>
       <c r="X92"/>
       <c r="Y92"/>
@@ -7837,46 +8447,52 @@
         <v>0</v>
       </c>
       <c r="AB92" t="n">
-        <v>126448</v>
+        <v>126447</v>
+      </c>
+      <c r="AC92" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD92" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B93" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C93" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D93" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E93" t="s">
-        <v>133</v>
+        <v>163</v>
       </c>
       <c r="F93"/>
       <c r="G93" s="1" t="n">
         <v>42090</v>
       </c>
       <c r="H93" s="1" t="n">
-        <v>42263</v>
+        <v>43060</v>
       </c>
       <c r="I93" t="s">
-        <v>167</v>
+        <v>196</v>
       </c>
       <c r="J93" t="s">
-        <v>168</v>
+        <v>197</v>
       </c>
       <c r="K93"/>
       <c r="L93"/>
       <c r="M93" t="n">
-        <v>1.200484</v>
+        <v>0.4815</v>
       </c>
       <c r="N93"/>
       <c r="O93" t="n">
-        <v>1.200484</v>
+        <v>0.4815</v>
       </c>
       <c r="P93" t="n">
         <v>1</v>
@@ -7885,7 +8501,7 @@
         <v>0</v>
       </c>
       <c r="R93" t="n">
-        <v>1.200484</v>
+        <v>0.4815</v>
       </c>
       <c r="S93" t="n">
         <v>0</v>
@@ -7900,7 +8516,7 @@
         <v>0</v>
       </c>
       <c r="W93" t="n">
-        <v>1.200484</v>
+        <v>0.4815</v>
       </c>
       <c r="X93"/>
       <c r="Y93"/>
@@ -7909,24 +8525,30 @@
         <v>0</v>
       </c>
       <c r="AB93" t="n">
-        <v>126449</v>
+        <v>126448</v>
+      </c>
+      <c r="AC93" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD93" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B94" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C94" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D94" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E94" t="s">
-        <v>133</v>
+        <v>163</v>
       </c>
       <c r="F94"/>
       <c r="G94" s="1" t="n">
@@ -7936,19 +8558,19 @@
         <v>42263</v>
       </c>
       <c r="I94" t="s">
-        <v>169</v>
+        <v>198</v>
       </c>
       <c r="J94" t="s">
-        <v>170</v>
+        <v>199</v>
       </c>
       <c r="K94"/>
       <c r="L94"/>
       <c r="M94" t="n">
-        <v>0.446376</v>
+        <v>1.200484</v>
       </c>
       <c r="N94"/>
       <c r="O94" t="n">
-        <v>0.446376</v>
+        <v>1.200484</v>
       </c>
       <c r="P94" t="n">
         <v>1</v>
@@ -7957,7 +8579,7 @@
         <v>0</v>
       </c>
       <c r="R94" t="n">
-        <v>0.446376</v>
+        <v>1.200484</v>
       </c>
       <c r="S94" t="n">
         <v>0</v>
@@ -7972,7 +8594,7 @@
         <v>0</v>
       </c>
       <c r="W94" t="n">
-        <v>0.446376</v>
+        <v>1.200484</v>
       </c>
       <c r="X94"/>
       <c r="Y94"/>
@@ -7981,24 +8603,30 @@
         <v>0</v>
       </c>
       <c r="AB94" t="n">
-        <v>126452</v>
+        <v>126449</v>
+      </c>
+      <c r="AC94" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD94" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B95" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C95" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D95" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E95" t="s">
-        <v>133</v>
+        <v>163</v>
       </c>
       <c r="F95"/>
       <c r="G95" s="1" t="n">
@@ -8008,10 +8636,10 @@
         <v>42263</v>
       </c>
       <c r="I95" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="J95" t="s">
-        <v>172</v>
+        <v>201</v>
       </c>
       <c r="K95"/>
       <c r="L95"/>
@@ -8055,22 +8683,28 @@
       <c r="AB95" t="n">
         <v>126453</v>
       </c>
+      <c r="AC95" t="s">
+        <v>202</v>
+      </c>
+      <c r="AD95" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C96" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D96" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E96" t="s">
-        <v>133</v>
+        <v>163</v>
       </c>
       <c r="F96"/>
       <c r="G96" s="1" t="n">
@@ -8080,10 +8714,10 @@
         <v>43060</v>
       </c>
       <c r="I96" t="s">
-        <v>173</v>
+        <v>203</v>
       </c>
       <c r="J96" t="s">
-        <v>174</v>
+        <v>204</v>
       </c>
       <c r="K96"/>
       <c r="L96"/>
@@ -8127,22 +8761,28 @@
       <c r="AB96" t="n">
         <v>126457</v>
       </c>
+      <c r="AC96" t="s">
+        <v>205</v>
+      </c>
+      <c r="AD96" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B97" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C97" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D97" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E97" t="s">
-        <v>133</v>
+        <v>163</v>
       </c>
       <c r="F97"/>
       <c r="G97" s="1" t="n">
@@ -8152,10 +8792,10 @@
         <v>42263</v>
       </c>
       <c r="I97" t="s">
-        <v>175</v>
+        <v>206</v>
       </c>
       <c r="J97" t="s">
-        <v>176</v>
+        <v>207</v>
       </c>
       <c r="K97"/>
       <c r="L97"/>
@@ -8199,22 +8839,28 @@
       <c r="AB97" t="n">
         <v>126526</v>
       </c>
+      <c r="AC97" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD97" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B98" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C98" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D98" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E98" t="s">
-        <v>177</v>
+        <v>208</v>
       </c>
       <c r="F98"/>
       <c r="G98" s="1" t="n">
@@ -8224,10 +8870,10 @@
         <v>42110</v>
       </c>
       <c r="I98" t="s">
-        <v>178</v>
+        <v>209</v>
       </c>
       <c r="J98" t="s">
-        <v>179</v>
+        <v>210</v>
       </c>
       <c r="K98" t="n">
         <v>0.4995</v>
@@ -8275,22 +8921,28 @@
       <c r="AB98" t="n">
         <v>127415</v>
       </c>
+      <c r="AC98" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD98" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B99" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C99" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D99" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E99" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="F99"/>
       <c r="G99" s="1" t="n">
@@ -8300,10 +8952,10 @@
         <v>42110</v>
       </c>
       <c r="I99" t="s">
-        <v>180</v>
+        <v>211</v>
       </c>
       <c r="J99" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K99"/>
       <c r="L99"/>
@@ -8347,22 +8999,28 @@
       <c r="AB99" t="n">
         <v>127474</v>
       </c>
+      <c r="AC99" t="s">
+        <v>132</v>
+      </c>
+      <c r="AD99" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B100" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C100" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D100" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E100" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="F100"/>
       <c r="G100" s="1" t="n">
@@ -8372,10 +9030,10 @@
         <v>42110</v>
       </c>
       <c r="I100" t="s">
-        <v>181</v>
+        <v>212</v>
       </c>
       <c r="J100" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K100"/>
       <c r="L100"/>
@@ -8419,22 +9077,28 @@
       <c r="AB100" t="n">
         <v>127475</v>
       </c>
+      <c r="AC100" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD100" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B101" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C101" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D101" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E101" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F101"/>
       <c r="G101" s="1" t="n">
@@ -8444,10 +9108,10 @@
         <v>42110</v>
       </c>
       <c r="I101" t="s">
-        <v>182</v>
+        <v>213</v>
       </c>
       <c r="J101" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="K101" t="n">
         <v>0.135</v>
@@ -8495,22 +9159,28 @@
       <c r="AB101" t="n">
         <v>127414</v>
       </c>
+      <c r="AC101" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD101" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B102" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C102" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D102" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E102" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="F102"/>
       <c r="G102" s="1" t="n">
@@ -8520,10 +9190,10 @@
         <v>43056</v>
       </c>
       <c r="I102" t="s">
-        <v>185</v>
+        <v>216</v>
       </c>
       <c r="J102" t="s">
-        <v>186</v>
+        <v>217</v>
       </c>
       <c r="K102" t="n">
         <v>0.01</v>
@@ -8571,22 +9241,28 @@
       <c r="AB102" t="n">
         <v>132659</v>
       </c>
+      <c r="AC102" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD102" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B103" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C103" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D103" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E103" t="s">
-        <v>187</v>
+        <v>67</v>
       </c>
       <c r="F103"/>
       <c r="G103" s="1" t="n">
@@ -8596,10 +9272,10 @@
         <v>42115</v>
       </c>
       <c r="I103" t="s">
-        <v>148</v>
+        <v>171</v>
       </c>
       <c r="J103" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K103"/>
       <c r="L103"/>
@@ -8643,22 +9319,28 @@
       <c r="AB103" t="n">
         <v>127636</v>
       </c>
+      <c r="AC103" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD103" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B104" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C104" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D104" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E104" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F104"/>
       <c r="G104" s="1" t="n">
@@ -8668,10 +9350,10 @@
         <v>42114</v>
       </c>
       <c r="I104" t="s">
-        <v>188</v>
+        <v>218</v>
       </c>
       <c r="J104" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K104"/>
       <c r="L104"/>
@@ -8715,22 +9397,28 @@
       <c r="AB104" t="n">
         <v>127620</v>
       </c>
+      <c r="AC104" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD104" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B105" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C105" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D105" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E105" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="F105"/>
       <c r="G105" s="1" t="n">
@@ -8740,10 +9428,10 @@
         <v>43060</v>
       </c>
       <c r="I105" t="s">
-        <v>143</v>
+        <v>169</v>
       </c>
       <c r="J105" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K105"/>
       <c r="L105"/>
@@ -8787,22 +9475,28 @@
       <c r="AB105" t="n">
         <v>127619</v>
       </c>
+      <c r="AC105" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD105" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B106" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C106" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D106" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E106" t="s">
-        <v>177</v>
+        <v>208</v>
       </c>
       <c r="F106"/>
       <c r="G106" s="1" t="n">
@@ -8812,10 +9506,10 @@
         <v>42123</v>
       </c>
       <c r="I106" t="s">
-        <v>189</v>
+        <v>219</v>
       </c>
       <c r="J106" t="s">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="K106" t="n">
         <v>1.62417</v>
@@ -8863,22 +9557,28 @@
       <c r="AB106" t="n">
         <v>128068</v>
       </c>
+      <c r="AC106" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD106" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B107" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C107" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D107" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E107" t="s">
-        <v>177</v>
+        <v>208</v>
       </c>
       <c r="F107"/>
       <c r="G107" s="1" t="n">
@@ -8888,10 +9588,10 @@
         <v>42123</v>
       </c>
       <c r="I107" t="s">
-        <v>189</v>
+        <v>219</v>
       </c>
       <c r="J107" t="s">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="K107" t="n">
         <v>0.52416</v>
@@ -8939,22 +9639,28 @@
       <c r="AB107" t="n">
         <v>128070</v>
       </c>
+      <c r="AC107" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD107" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B108" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C108" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D108" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E108" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="F108"/>
       <c r="G108" s="1" t="n">
@@ -8964,10 +9670,10 @@
         <v>42144</v>
       </c>
       <c r="I108" t="s">
-        <v>191</v>
+        <v>221</v>
       </c>
       <c r="J108" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K108" t="n">
         <v>0.05</v>
@@ -9015,22 +9721,28 @@
       <c r="AB108" t="n">
         <v>129326</v>
       </c>
+      <c r="AC108" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD108" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B109" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C109" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D109" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E109" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F109"/>
       <c r="G109" s="1" t="n">
@@ -9040,10 +9752,10 @@
         <v>42199</v>
       </c>
       <c r="I109" t="s">
-        <v>191</v>
+        <v>221</v>
       </c>
       <c r="J109" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K109" t="n">
         <v>0.238238</v>
@@ -9091,22 +9803,28 @@
       <c r="AB109" t="n">
         <v>129329</v>
       </c>
+      <c r="AC109" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD109" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B110" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C110" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D110" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E110" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F110"/>
       <c r="G110" s="1" t="n">
@@ -9116,10 +9834,10 @@
         <v>42440</v>
       </c>
       <c r="I110" t="s">
-        <v>193</v>
+        <v>223</v>
       </c>
       <c r="J110" t="s">
-        <v>194</v>
+        <v>224</v>
       </c>
       <c r="K110" t="n">
         <v>0.04</v>
@@ -9167,44 +9885,54 @@
       <c r="AB110" t="n">
         <v>139055</v>
       </c>
+      <c r="AC110" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD110" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B111" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C111" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D111" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E111" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F111"/>
       <c r="G111" s="1" t="n">
         <v>42124</v>
       </c>
       <c r="H111" s="1" t="n">
-        <v>42124</v>
+        <v>42125</v>
       </c>
       <c r="I111" t="s">
-        <v>159</v>
+        <v>225</v>
       </c>
       <c r="J111" t="s">
-        <v>37</v>
-      </c>
-      <c r="K111"/>
-      <c r="L111"/>
+        <v>41</v>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="n">
+        <v>1.298</v>
+      </c>
       <c r="M111" t="n">
-        <v>0.34</v>
+        <v>0.770416</v>
       </c>
       <c r="N111"/>
       <c r="O111" t="n">
-        <v>0.34</v>
+        <v>0.770416</v>
       </c>
       <c r="P111" t="n">
         <v>1</v>
@@ -9213,7 +9941,7 @@
         <v>0</v>
       </c>
       <c r="R111" t="n">
-        <v>0.34</v>
+        <v>0.770416</v>
       </c>
       <c r="S111" t="n">
         <v>0</v>
@@ -9228,7 +9956,7 @@
         <v>0</v>
       </c>
       <c r="W111" t="n">
-        <v>0.34</v>
+        <v>0.770416</v>
       </c>
       <c r="X111"/>
       <c r="Y111"/>
@@ -9237,50 +9965,50 @@
         <v>0</v>
       </c>
       <c r="AB111" t="n">
-        <v>128163</v>
-      </c>
+        <v>128294</v>
+      </c>
+      <c r="AC111" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD111"/>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B112" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C112" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D112" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E112" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="F112"/>
       <c r="G112" s="1" t="n">
         <v>42124</v>
       </c>
       <c r="H112" s="1" t="n">
-        <v>42125</v>
+        <v>42124</v>
       </c>
       <c r="I112" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="J112" t="s">
-        <v>37</v>
-      </c>
-      <c r="K112" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="L112" t="n">
-        <v>1.298</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="K112"/>
+      <c r="L112"/>
       <c r="M112" t="n">
-        <v>0.154083</v>
+        <v>0.34</v>
       </c>
       <c r="N112"/>
       <c r="O112" t="n">
-        <v>0.154083</v>
+        <v>0.34</v>
       </c>
       <c r="P112" t="n">
         <v>1</v>
@@ -9289,7 +10017,7 @@
         <v>0</v>
       </c>
       <c r="R112" t="n">
-        <v>0.154083</v>
+        <v>0.34</v>
       </c>
       <c r="S112" t="n">
         <v>0</v>
@@ -9304,7 +10032,7 @@
         <v>0</v>
       </c>
       <c r="W112" t="n">
-        <v>0.154083</v>
+        <v>0.34</v>
       </c>
       <c r="X112"/>
       <c r="Y112"/>
@@ -9313,24 +10041,30 @@
         <v>0</v>
       </c>
       <c r="AB112" t="n">
-        <v>128292</v>
+        <v>128163</v>
+      </c>
+      <c r="AC112" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD112" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B113" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C113" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D113" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E113" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F113"/>
       <c r="G113" s="1" t="n">
@@ -9340,23 +10074,23 @@
         <v>42125</v>
       </c>
       <c r="I113" t="s">
-        <v>196</v>
+        <v>226</v>
       </c>
       <c r="J113" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K113" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="L113" t="n">
         <v>1.298</v>
       </c>
       <c r="M113" t="n">
-        <v>0.770416</v>
+        <v>0.154083</v>
       </c>
       <c r="N113"/>
       <c r="O113" t="n">
-        <v>0.770416</v>
+        <v>0.154083</v>
       </c>
       <c r="P113" t="n">
         <v>1</v>
@@ -9365,7 +10099,7 @@
         <v>0</v>
       </c>
       <c r="R113" t="n">
-        <v>0.770416</v>
+        <v>0.154083</v>
       </c>
       <c r="S113" t="n">
         <v>0</v>
@@ -9380,7 +10114,7 @@
         <v>0</v>
       </c>
       <c r="W113" t="n">
-        <v>0.770416</v>
+        <v>0.154083</v>
       </c>
       <c r="X113"/>
       <c r="Y113"/>
@@ -9389,24 +10123,30 @@
         <v>0</v>
       </c>
       <c r="AB113" t="n">
-        <v>128293</v>
+        <v>128292</v>
+      </c>
+      <c r="AC113" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD113" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B114" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C114" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D114" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E114" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F114"/>
       <c r="G114" s="1" t="n">
@@ -9416,10 +10156,10 @@
         <v>42125</v>
       </c>
       <c r="I114" t="s">
-        <v>197</v>
+        <v>227</v>
       </c>
       <c r="J114" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K114" t="n">
         <v>1</v>
@@ -9465,24 +10205,30 @@
         <v>0</v>
       </c>
       <c r="AB114" t="n">
-        <v>128294</v>
+        <v>128293</v>
+      </c>
+      <c r="AC114" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD114" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B115" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C115" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D115" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E115" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F115"/>
       <c r="G115" s="1" t="n">
@@ -9492,10 +10238,10 @@
         <v>42157</v>
       </c>
       <c r="I115" t="s">
-        <v>198</v>
+        <v>228</v>
       </c>
       <c r="J115" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K115"/>
       <c r="L115"/>
@@ -9539,22 +10285,28 @@
       <c r="AB115" t="n">
         <v>130040</v>
       </c>
+      <c r="AC115" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD115" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B116" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C116" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D116" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E116" t="s">
-        <v>199</v>
+        <v>229</v>
       </c>
       <c r="F116"/>
       <c r="G116" s="1" t="n">
@@ -9564,10 +10316,10 @@
         <v>42212</v>
       </c>
       <c r="I116" t="s">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="J116" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="K116" t="n">
         <v>0.22656</v>
@@ -9615,22 +10367,28 @@
       <c r="AB116" t="n">
         <v>131957</v>
       </c>
+      <c r="AC116" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD116" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B117" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C117" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D117" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E117" t="s">
-        <v>202</v>
+        <v>232</v>
       </c>
       <c r="F117"/>
       <c r="G117" s="1" t="n">
@@ -9640,10 +10398,10 @@
         <v>42157</v>
       </c>
       <c r="I117" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="J117" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K117" t="n">
         <v>0.2</v>
@@ -9691,22 +10449,28 @@
       <c r="AB117" t="n">
         <v>130041</v>
       </c>
+      <c r="AC117" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD117" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B118" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C118" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D118" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E118" t="s">
-        <v>203</v>
+        <v>233</v>
       </c>
       <c r="F118"/>
       <c r="G118" s="1" t="n">
@@ -9716,10 +10480,10 @@
         <v>42228</v>
       </c>
       <c r="I118" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="J118" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K118" t="n">
         <v>0.011282</v>
@@ -9767,22 +10531,28 @@
       <c r="AB118" t="n">
         <v>132465</v>
       </c>
+      <c r="AC118" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD118" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B119" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C119" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D119" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E119" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F119"/>
       <c r="G119" s="1" t="n">
@@ -9792,10 +10562,10 @@
         <v>42333</v>
       </c>
       <c r="I119" t="s">
-        <v>204</v>
+        <v>234</v>
       </c>
       <c r="J119" t="s">
-        <v>205</v>
+        <v>235</v>
       </c>
       <c r="K119" t="n">
         <v>1</v>
@@ -9843,22 +10613,28 @@
       <c r="AB119" t="n">
         <v>129287</v>
       </c>
+      <c r="AC119" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD119" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B120" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C120" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D120" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E120" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="F120"/>
       <c r="G120" s="1" t="n">
@@ -9868,10 +10644,10 @@
         <v>43060</v>
       </c>
       <c r="I120" t="s">
-        <v>206</v>
+        <v>236</v>
       </c>
       <c r="J120" t="s">
-        <v>207</v>
+        <v>237</v>
       </c>
       <c r="K120" t="n">
         <v>0.239835</v>
@@ -9919,22 +10695,28 @@
       <c r="AB120" t="n">
         <v>130455</v>
       </c>
+      <c r="AC120" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD120" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B121" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C121" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D121" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E121" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="F121"/>
       <c r="G121" s="1" t="n">
@@ -9944,10 +10726,10 @@
         <v>42250</v>
       </c>
       <c r="I121" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="J121" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K121" t="n">
         <v>0.002196</v>
@@ -9995,22 +10777,28 @@
       <c r="AB121" t="n">
         <v>133167</v>
       </c>
+      <c r="AC121" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD121" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B122" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C122" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D122" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E122" t="s">
-        <v>208</v>
+        <v>238</v>
       </c>
       <c r="F122"/>
       <c r="G122" s="1" t="n">
@@ -10020,10 +10808,10 @@
         <v>42250</v>
       </c>
       <c r="I122" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="J122" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K122"/>
       <c r="L122"/>
@@ -10067,22 +10855,28 @@
       <c r="AB122" t="n">
         <v>132464</v>
       </c>
+      <c r="AC122" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD122" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B123" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C123" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D123" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E123" t="s">
-        <v>209</v>
+        <v>239</v>
       </c>
       <c r="F123"/>
       <c r="G123" s="1" t="n">
@@ -10092,10 +10886,10 @@
         <v>42228</v>
       </c>
       <c r="I123" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="J123" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K123" t="n">
         <v>0.005</v>
@@ -10143,22 +10937,28 @@
       <c r="AB123" t="n">
         <v>132466</v>
       </c>
+      <c r="AC123" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD123" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B124" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C124" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D124" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E124" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="F124"/>
       <c r="G124" s="1" t="n">
@@ -10168,10 +10968,10 @@
         <v>42226</v>
       </c>
       <c r="I124" t="s">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="J124" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K124"/>
       <c r="L124"/>
@@ -10215,22 +11015,26 @@
       <c r="AB124" t="n">
         <v>132415</v>
       </c>
+      <c r="AC124" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD124"/>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B125" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C125" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D125" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E125" t="s">
-        <v>211</v>
+        <v>241</v>
       </c>
       <c r="F125"/>
       <c r="G125" s="1" t="n">
@@ -10240,10 +11044,10 @@
         <v>42250</v>
       </c>
       <c r="I125" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="J125" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K125" t="n">
         <v>0.004</v>
@@ -10291,22 +11095,28 @@
       <c r="AB125" t="n">
         <v>133168</v>
       </c>
+      <c r="AC125" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD125" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B126" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C126" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D126" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E126" t="s">
-        <v>144</v>
+        <v>173</v>
       </c>
       <c r="F126"/>
       <c r="G126" s="1" t="n">
@@ -10316,10 +11126,10 @@
         <v>42321</v>
       </c>
       <c r="I126" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="J126" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K126"/>
       <c r="L126"/>
@@ -10362,6 +11172,12 @@
       </c>
       <c r="AB126" t="n">
         <v>135440</v>
+      </c>
+      <c r="AC126" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD126" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
